--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24150" windowHeight="12120" activeTab="4"/>
+    <workbookView windowWidth="24150" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>_Id</t>
   </si>
@@ -26,22 +26,37 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Model</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Hp</t>
   </si>
   <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>StopCount</t>
+  </si>
+  <si>
+    <t>#敌人用</t>
+  </si>
+  <si>
     <t>Damage</t>
   </si>
   <si>
     <t>Speed</t>
   </si>
   <si>
-    <t>Skills</t>
-  </si>
-  <si>
-    <t>Height</t>
+    <t>Radius</t>
   </si>
   <si>
     <t>CanStop</t>
@@ -62,16 +77,25 @@
     <t>bool</t>
   </si>
   <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
+    <t>阻挡个数</t>
+  </si>
+  <si>
     <t>终点伤害</t>
   </si>
   <si>
     <t>移动速度</t>
   </si>
   <si>
-    <t>技能</t>
-  </si>
-  <si>
-    <t>高度</t>
+    <t>半径</t>
   </si>
   <si>
     <t>阻挡？</t>
@@ -83,6 +107,51 @@
     <t>敌人</t>
   </si>
   <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>gopro</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>阿米娅</t>
+  </si>
+  <si>
+    <t>干员</t>
+  </si>
+  <si>
+    <t>amiya</t>
+  </si>
+  <si>
+    <t>阿米娅攻击</t>
+  </si>
+  <si>
+    <t>AttackTargetEnum</t>
+  </si>
+  <si>
+    <t>AttackPoints</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>攻击目标</t>
+  </si>
+  <si>
+    <t>Vector2Int[]</t>
+  </si>
+  <si>
+    <t>普通技能</t>
+  </si>
+  <si>
+    <t>0,0#1,0</t>
+  </si>
+  <si>
     <t>Map</t>
   </si>
   <si>
@@ -101,13 +170,7 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Vector2Int[]</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>#</t>
+    <t>float[]</t>
   </si>
   <si>
     <t>路径</t>
@@ -116,10 +179,19 @@
     <t>路径停留时间</t>
   </si>
   <si>
-    <t>1,3#8,1</t>
-  </si>
-  <si>
-    <t>0,0</t>
+    <t>TestMap1</t>
+  </si>
+  <si>
+    <t>0,3#8,1#9,1</t>
+  </si>
+  <si>
+    <t>0,1,0</t>
+  </si>
+  <si>
+    <t>TestMap</t>
+  </si>
+  <si>
+    <t>0,3#8,1#1,1</t>
   </si>
 </sst>
 </file>
@@ -127,10 +199,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -142,7 +214,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +242,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -171,8 +264,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,51 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,13 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -269,21 +356,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -294,187 +366,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +557,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,6 +593,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -523,15 +619,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,21 +657,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +677,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,18 +1159,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:K$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1126,65 +1198,160 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="5:9">
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="6:14">
       <c r="F3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>1</v>
+      <c r="M8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1197,22 +1364,66 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1451,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1479,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1280,13 +1491,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="5" max="5" width="30.625" customWidth="1"/>
   </cols>
@@ -1296,58 +1507,90 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="5:6">
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24150" windowHeight="12120"/>
+    <workbookView windowWidth="24150" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>_Id</t>
   </si>
@@ -44,6 +44,12 @@
     <t>Height</t>
   </si>
   <si>
+    <t>CanSetHigh</t>
+  </si>
+  <si>
+    <t>CanSetGround</t>
+  </si>
+  <si>
     <t>StopCount</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
     <t>高度</t>
   </si>
   <si>
+    <t>高台单位？</t>
+  </si>
+  <si>
+    <t>地面</t>
+  </si>
+  <si>
     <t>阻挡个数</t>
   </si>
   <si>
@@ -116,6 +128,9 @@
     <t>gopro</t>
   </si>
   <si>
+    <t>狗攻击</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -131,25 +146,73 @@
     <t>阿米娅攻击</t>
   </si>
   <si>
+    <t>AttackTarget</t>
+  </si>
+  <si>
+    <t>TargetTeam</t>
+  </si>
+  <si>
+    <t>AttackOrder</t>
+  </si>
+  <si>
+    <t>AttackPoints</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>IfHeal</t>
+  </si>
+  <si>
+    <t>ModelAnimation</t>
+  </si>
+  <si>
     <t>AttackTargetEnum</t>
   </si>
   <si>
-    <t>AttackPoints</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
+    <t>AttackTargetOrderEnum</t>
+  </si>
+  <si>
+    <t>Vector2Int[]</t>
   </si>
   <si>
     <t>攻击目标</t>
   </si>
   <si>
-    <t>Vector2Int[]</t>
-  </si>
-  <si>
-    <t>普通技能</t>
+    <t>敌对组</t>
+  </si>
+  <si>
+    <t>攻击优先级</t>
+  </si>
+  <si>
+    <t>打击点,干员使用</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>是否治疗</t>
+  </si>
+  <si>
+    <t>攻击动作</t>
+  </si>
+  <si>
+    <t>主动</t>
+  </si>
+  <si>
+    <t>敌对</t>
   </si>
   <si>
     <t>0,0#1,0</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>阻挡</t>
   </si>
   <si>
     <t>Map</t>
@@ -214,21 +277,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,99 +398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,12 +429,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,169 +465,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,39 +620,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,6 +634,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +673,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -638,22 +706,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,19 +740,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,112 +761,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,10 +1222,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1170,7 +1233,7 @@
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1213,144 +1276,168 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="6:14">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="6:16">
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4">
+        <v>33</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>0.5</v>
       </c>
     </row>
@@ -1364,19 +1451,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,46 +1477,129 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1627,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1479,7 +1655,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1670,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1507,50 +1683,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1558,19 +1734,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1578,19 +1754,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24150" windowHeight="12120" activeTab="1"/>
+    <workbookView windowWidth="27570" windowHeight="14115" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="123">
   <si>
     <t>_Id</t>
   </si>
@@ -35,12 +35,36 @@
     <t>Hp</t>
   </si>
   <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>MagicDefence</t>
+  </si>
+  <si>
     <t>Cost</t>
   </si>
   <si>
+    <t>HitPointX</t>
+  </si>
+  <si>
+    <t>HitPointY</t>
+  </si>
+  <si>
+    <t>AttackPointX</t>
+  </si>
+  <si>
+    <t>AttackPointY</t>
+  </si>
+  <si>
     <t>Skills</t>
   </si>
   <si>
+    <t>MainSkill</t>
+  </si>
+  <si>
     <t>Height</t>
   </si>
   <si>
@@ -71,24 +95,36 @@
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>Skill[]</t>
   </si>
   <si>
+    <t>Skill</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
     <t>消耗</t>
   </si>
   <si>
+    <t>被攻击点</t>
+  </si>
+  <si>
+    <t>发射点</t>
+  </si>
+  <si>
     <t>技能</t>
   </si>
   <si>
+    <t>主技能</t>
+  </si>
+  <si>
     <t>高度</t>
   </si>
   <si>
@@ -143,76 +179,172 @@
     <t>amiya</t>
   </si>
   <si>
+    <t>阿米娅攻击,阿米娅强力击</t>
+  </si>
+  <si>
+    <t>阿米娅强力击</t>
+  </si>
+  <si>
+    <t>AttackTarget</t>
+  </si>
+  <si>
+    <t>AttackStop</t>
+  </si>
+  <si>
+    <t>TargetTeam</t>
+  </si>
+  <si>
+    <t>AttackOrder</t>
+  </si>
+  <si>
+    <t>AttackPoints</t>
+  </si>
+  <si>
+    <t>StartPower</t>
+  </si>
+  <si>
+    <t>MaxPower</t>
+  </si>
+  <si>
+    <t>PowerCount</t>
+  </si>
+  <si>
+    <t>PowerType</t>
+  </si>
+  <si>
+    <t>PowerUseType</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>DamageRate</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>HitCount</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>IfHeal</t>
+  </si>
+  <si>
+    <t>ModelAnimation</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>AttackTargetEnum</t>
+  </si>
+  <si>
+    <t>AttackTargetOrderEnum</t>
+  </si>
+  <si>
+    <t>Vector2Int[]</t>
+  </si>
+  <si>
+    <t>MainSkillTypeEnum</t>
+  </si>
+  <si>
+    <t>MainSkillUseTypeEnum</t>
+  </si>
+  <si>
+    <t>DamageTypeEnum</t>
+  </si>
+  <si>
+    <t>攻击目标</t>
+  </si>
+  <si>
+    <t>是否攻击阻挡敌人</t>
+  </si>
+  <si>
+    <t>敌对组</t>
+  </si>
+  <si>
+    <t>攻击优先级</t>
+  </si>
+  <si>
+    <t>打击点,干员使用</t>
+  </si>
+  <si>
+    <t>初始技力</t>
+  </si>
+  <si>
+    <t>最大技力</t>
+  </si>
+  <si>
+    <t>囤积次数</t>
+  </si>
+  <si>
+    <t>回复方式</t>
+  </si>
+  <si>
+    <t>使用方式</t>
+  </si>
+  <si>
+    <t>倍率</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>攻击数量</t>
+  </si>
+  <si>
+    <t>冷却/阻回</t>
+  </si>
+  <si>
+    <t>是否治疗</t>
+  </si>
+  <si>
+    <t>攻击动作</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
     <t>阿米娅攻击</t>
   </si>
   <si>
-    <t>AttackTarget</t>
-  </si>
-  <si>
-    <t>TargetTeam</t>
-  </si>
-  <si>
-    <t>AttackOrder</t>
-  </si>
-  <si>
-    <t>AttackPoints</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>IfHeal</t>
-  </si>
-  <si>
-    <t>ModelAnimation</t>
-  </si>
-  <si>
-    <t>AttackTargetEnum</t>
-  </si>
-  <si>
-    <t>AttackTargetOrderEnum</t>
-  </si>
-  <si>
-    <t>Vector2Int[]</t>
-  </si>
-  <si>
-    <t>攻击目标</t>
-  </si>
-  <si>
-    <t>敌对组</t>
-  </si>
-  <si>
-    <t>攻击优先级</t>
-  </si>
-  <si>
-    <t>打击点,干员使用</t>
-  </si>
-  <si>
-    <t>攻击距离</t>
-  </si>
-  <si>
-    <t>是否治疗</t>
-  </si>
-  <si>
-    <t>攻击动作</t>
-  </si>
-  <si>
     <t>主动</t>
   </si>
   <si>
     <t>敌对</t>
   </si>
   <si>
+    <t>离家近</t>
+  </si>
+  <si>
     <t>0,0#1,0</t>
   </si>
   <si>
-    <t>Attack</t>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>阿米娅子弹</t>
   </si>
   <si>
     <t>阻挡</t>
+  </si>
+  <si>
+    <t>放置顺序</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>自动</t>
+  </si>
+  <si>
+    <t>阿米娅强力击子弹</t>
+  </si>
+  <si>
+    <t>testBullet</t>
   </si>
   <si>
     <t>Map</t>
@@ -264,8 +396,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -277,40 +409,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,6 +436,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -336,18 +451,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,9 +475,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,8 +497,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,24 +529,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,187 +561,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,6 +752,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -634,26 +784,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,20 +803,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,17 +844,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,145 +860,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1222,18 +1354,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="10" max="10" width="6.125" customWidth="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1"/>
+    <col min="12" max="12" width="5.875" customWidth="1"/>
+    <col min="13" max="13" width="6.25" customWidth="1"/>
+    <col min="14" max="14" width="34.5" customWidth="1"/>
+    <col min="15" max="15" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1282,162 +1419,282 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="6:16">
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="9:24">
       <c r="I3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.1</v>
+      </c>
+      <c r="U4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="V4">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="W4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="V5">
         <v>2</v>
       </c>
-      <c r="O5">
+      <c r="W5">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
       </c>
       <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>0.2</v>
+      </c>
+      <c r="M8">
+        <v>0.5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="S8">
         <v>1</v>
       </c>
-      <c r="O8">
+      <c r="W8">
         <v>0.5</v>
       </c>
     </row>
@@ -1451,25 +1708,32 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="7.375" customWidth="1"/>
+    <col min="9" max="10" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="13" max="13" width="7.125" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="16" width="9.5" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1477,129 +1741,302 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>63</v>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>0.2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +2064,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1640,22 +2077,77 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1667,13 +2159,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="5" max="5" width="30.625" customWidth="1"/>
   </cols>
@@ -1683,50 +2175,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1734,39 +2226,79 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>3.3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>3.6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27570" windowHeight="14115" activeTab="4"/>
+    <workbookView windowWidth="24150" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="133">
   <si>
     <t>_Id</t>
   </si>
@@ -200,6 +200,24 @@
     <t>AttackPoints</t>
   </si>
   <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>DamageRate</t>
+  </si>
+  <si>
+    <t>HitCount</t>
+  </si>
+  <si>
+    <t>AreaRange</t>
+  </si>
+  <si>
+    <t>AreaDamage</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
     <t>StartPower</t>
   </si>
   <si>
@@ -215,30 +233,18 @@
     <t>PowerUseType</t>
   </si>
   <si>
-    <t>DamageType</t>
-  </si>
-  <si>
-    <t>DamageRate</t>
+    <t>IfHeal</t>
+  </si>
+  <si>
+    <t>ModelAnimation</t>
+  </si>
+  <si>
+    <t>Bullet</t>
   </si>
   <si>
     <t>AttackRange</t>
   </si>
   <si>
-    <t>HitCount</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>IfHeal</t>
-  </si>
-  <si>
-    <t>ModelAnimation</t>
-  </si>
-  <si>
-    <t>Bullet</t>
-  </si>
-  <si>
     <t>AttackTargetEnum</t>
   </si>
   <si>
@@ -248,19 +254,19 @@
     <t>Vector2Int[]</t>
   </si>
   <si>
+    <t>DamageTypeEnum</t>
+  </si>
+  <si>
     <t>MainSkillTypeEnum</t>
   </si>
   <si>
     <t>MainSkillUseTypeEnum</t>
   </si>
   <si>
-    <t>DamageTypeEnum</t>
-  </si>
-  <si>
     <t>攻击目标</t>
   </si>
   <si>
-    <t>是否攻击阻挡敌人</t>
+    <t>攻击阻挡</t>
   </si>
   <si>
     <t>敌对组</t>
@@ -272,6 +278,21 @@
     <t>打击点,干员使用</t>
   </si>
   <si>
+    <t>倍率</t>
+  </si>
+  <si>
+    <t>攻击数量</t>
+  </si>
+  <si>
+    <t>溅射范围</t>
+  </si>
+  <si>
+    <t>溅射伤害</t>
+  </si>
+  <si>
+    <t>冷却/阻回</t>
+  </si>
+  <si>
     <t>初始技力</t>
   </si>
   <si>
@@ -287,27 +308,18 @@
     <t>使用方式</t>
   </si>
   <si>
-    <t>倍率</t>
+    <t>是否治疗</t>
+  </si>
+  <si>
+    <t>攻击动作</t>
+  </si>
+  <si>
+    <t>子弹</t>
   </si>
   <si>
     <t>攻击距离</t>
   </si>
   <si>
-    <t>攻击数量</t>
-  </si>
-  <si>
-    <t>冷却/阻回</t>
-  </si>
-  <si>
-    <t>是否治疗</t>
-  </si>
-  <si>
-    <t>攻击动作</t>
-  </si>
-  <si>
-    <t>子弹</t>
-  </si>
-  <si>
     <t>阿米娅攻击</t>
   </si>
   <si>
@@ -320,16 +332,25 @@
     <t>离家近</t>
   </si>
   <si>
+    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>阿米娅子弹</t>
+  </si>
+  <si>
     <t>0,0#1,0</t>
   </si>
   <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>阿米娅子弹</t>
-  </si>
-  <si>
-    <t>阻挡</t>
+    <t>自动</t>
+  </si>
+  <si>
+    <t>阿米娅强力击子弹</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>放置顺序</t>
@@ -338,10 +359,19 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>自动</t>
-  </si>
-  <si>
-    <t>阿米娅强力击子弹</t>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>射击</t>
+  </si>
+  <si>
+    <t>飞行</t>
+  </si>
+  <si>
+    <t>群狙</t>
+  </si>
+  <si>
+    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
   </si>
   <si>
     <t>testBullet</t>
@@ -394,12 +424,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,7 +439,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,9 +475,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,10 +504,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,71 +526,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,12 +550,51 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -561,49 +605,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,25 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,103 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,39 +796,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -803,6 +814,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -814,6 +852,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,15 +896,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -860,10 +904,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,138 +916,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1357,7 +1413,7 @@
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1708,13 +1764,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
@@ -1723,17 +1779,19 @@
     <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="24.25" customWidth="1"/>
-    <col min="8" max="8" width="7.375" customWidth="1"/>
-    <col min="9" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="7.875" customWidth="1"/>
-    <col min="12" max="12" width="8.375" customWidth="1"/>
-    <col min="13" max="13" width="7.125" customWidth="1"/>
-    <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="16" width="9.5" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="8" max="8" width="7.125" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="8.25" customWidth="1"/>
+    <col min="11" max="12" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="7.375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1773,19 +1831,19 @@
       <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>70</v>
       </c>
       <c r="S1" t="s">
@@ -1794,8 +1852,14 @@
       <c r="T1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1803,7 +1867,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -1812,13 +1876,13 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
@@ -1827,101 +1891,113 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" t="s">
         <v>89</v>
       </c>
-      <c r="O3" t="s">
+      <c r="M3" t="s">
         <v>90</v>
       </c>
-      <c r="P3" t="s">
+      <c r="N3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="O3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="R3" t="s">
+      <c r="P3" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="Q3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>97</v>
+      </c>
+      <c r="U3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1930,113 +2006,221 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>101</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="S4" t="s">
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" t="s">
         <v>5</v>
       </c>
-      <c r="T4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="S5" t="s">
-        <v>5</v>
+      <c r="U5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6">
+        <v>111</v>
+      </c>
+      <c r="H6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" t="s">
         <v>106</v>
       </c>
-      <c r="L6" t="s">
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" t="s">
         <v>106</v>
-      </c>
-      <c r="M6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>3</v>
-      </c>
-      <c r="Q6">
-        <v>0.2</v>
-      </c>
-      <c r="S6" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2124,13 +2308,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2138,13 +2322,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2161,8 +2345,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2175,19 +2359,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2198,16 +2382,16 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2215,10 +2399,10 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2226,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -2235,10 +2419,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2246,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -2255,10 +2439,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2266,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -2275,10 +2459,10 @@
         <v>3.3</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2286,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -2295,10 +2479,10 @@
         <v>3.6</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="138">
   <si>
     <t>_Id</t>
   </si>
@@ -290,6 +290,9 @@
     <t>溅射伤害</t>
   </si>
   <si>
+    <t>关联技能</t>
+  </si>
+  <si>
     <t>冷却/阻回</t>
   </si>
   <si>
@@ -341,6 +344,9 @@
     <t>阿米娅子弹</t>
   </si>
   <si>
+    <t>强力击</t>
+  </si>
+  <si>
     <t>0,0#1,0</t>
   </si>
   <si>
@@ -372,6 +378,15 @@
   </si>
   <si>
     <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
+  </si>
+  <si>
+    <t>真银斩</t>
+  </si>
+  <si>
+    <t>激活真银斩</t>
+  </si>
+  <si>
+    <t>激活技能</t>
   </si>
   <si>
     <t>testBullet</t>
@@ -452,21 +467,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -481,14 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -497,22 +489,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,40 +503,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,14 +535,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,6 +602,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -605,187 +620,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,44 +814,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,21 +859,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -882,17 +870,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,10 +919,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,144 +931,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1764,34 +1773,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="24.25" customWidth="1"/>
-    <col min="8" max="8" width="7.125" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="8.25" customWidth="1"/>
-    <col min="11" max="12" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="7.375" style="1" customWidth="1"/>
-    <col min="15" max="16" width="8.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="22" max="22" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="14" width="8.375" customWidth="1"/>
+    <col min="16" max="16" width="7.375" style="1" customWidth="1"/>
+    <col min="17" max="18" width="8.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
+    <col min="24" max="24" width="9.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1799,67 +1808,73 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>71</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>72</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1867,31 +1882,31 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -1899,114 +1914,120 @@
       <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>24</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>73</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>85</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>86</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>87</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>88</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>89</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>90</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>97</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>98</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="X3" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
         <v>102</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>103</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>103</v>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>104</v>
@@ -2014,213 +2035,286 @@
       <c r="H4" t="s">
         <v>105</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="I4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>5</v>
       </c>
-      <c r="U4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="W4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>103</v>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5">
+        <v>109</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.2</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
         <v>2</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="S5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" t="s">
         <v>5</v>
       </c>
-      <c r="U5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="W5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="V6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
         <v>112</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>2</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
         <v>103</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="V9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" t="s">
         <v>107</v>
       </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="V10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12">
+        <v>1.6</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="V12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
         <v>112</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="T8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9">
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10">
+      <c r="F13">
         <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-      <c r="T10" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2308,13 +2402,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2322,13 +2416,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2359,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2382,7 +2476,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -2391,7 +2485,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2399,10 +2493,10 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2410,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -2419,10 +2513,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2430,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -2439,10 +2533,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2450,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -2459,10 +2553,10 @@
         <v>3.3</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2470,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -2479,10 +2573,10 @@
         <v>3.6</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24150" windowHeight="12120" activeTab="1"/>
+    <workbookView windowWidth="27570" windowHeight="14310"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="145">
   <si>
     <t>_Id</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Cost</t>
   </si>
   <si>
+    <t>ResetTime</t>
+  </si>
+  <si>
     <t>HitPointX</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t>消耗</t>
   </si>
   <si>
+    <t>复活时间</t>
+  </si>
+  <si>
     <t>被攻击点</t>
   </si>
   <si>
@@ -179,199 +185,214 @@
     <t>amiya</t>
   </si>
   <si>
-    <t>阿米娅攻击,阿米娅强力击</t>
+    <t>阿米娅攻击,阿米娅手动强力击</t>
+  </si>
+  <si>
+    <t>阿米娅手动强力击</t>
+  </si>
+  <si>
+    <t>UseType</t>
+  </si>
+  <si>
+    <t>AttackTarget</t>
+  </si>
+  <si>
+    <t>AttackStop</t>
+  </si>
+  <si>
+    <t>TargetTeam</t>
+  </si>
+  <si>
+    <t>AttackOrder</t>
+  </si>
+  <si>
+    <t>AttackPoints</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>DamageRate</t>
+  </si>
+  <si>
+    <t>HitCount</t>
+  </si>
+  <si>
+    <t>AreaRange</t>
+  </si>
+  <si>
+    <t>AreaDamage</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>OpenTime</t>
+  </si>
+  <si>
+    <t>StartPower</t>
+  </si>
+  <si>
+    <t>MaxPower</t>
+  </si>
+  <si>
+    <t>PowerCount</t>
+  </si>
+  <si>
+    <t>PowerType</t>
+  </si>
+  <si>
+    <t>IfHeal</t>
+  </si>
+  <si>
+    <t>ModelAnimation</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>SkillUseTypeEnum</t>
+  </si>
+  <si>
+    <t>AttackTargetEnum</t>
+  </si>
+  <si>
+    <t>AttackTargetOrderEnum</t>
+  </si>
+  <si>
+    <t>Vector2Int[]</t>
+  </si>
+  <si>
+    <t>DamageTypeEnum</t>
+  </si>
+  <si>
+    <t>PowerRecoverTypeEnum</t>
+  </si>
+  <si>
+    <t>使用方式</t>
+  </si>
+  <si>
+    <t>攻击目标</t>
+  </si>
+  <si>
+    <t>攻击阻挡</t>
+  </si>
+  <si>
+    <t>敌对组</t>
+  </si>
+  <si>
+    <t>攻击优先级</t>
+  </si>
+  <si>
+    <t>打击点,干员使用</t>
+  </si>
+  <si>
+    <t>倍率</t>
+  </si>
+  <si>
+    <t>攻击数量</t>
+  </si>
+  <si>
+    <t>溅射范围</t>
+  </si>
+  <si>
+    <t>溅射伤害</t>
+  </si>
+  <si>
+    <t>关联技能</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>初始技力</t>
+  </si>
+  <si>
+    <t>最大技力</t>
+  </si>
+  <si>
+    <t>囤积次数</t>
+  </si>
+  <si>
+    <t>回复方式</t>
+  </si>
+  <si>
+    <t>是否治疗</t>
+  </si>
+  <si>
+    <t>攻击动作</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>阿米娅攻击</t>
+  </si>
+  <si>
+    <t>主动</t>
+  </si>
+  <si>
+    <t>敌对</t>
+  </si>
+  <si>
+    <t>离家近</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>阿米娅子弹</t>
   </si>
   <si>
     <t>阿米娅强力击</t>
   </si>
   <si>
-    <t>AttackTarget</t>
-  </si>
-  <si>
-    <t>AttackStop</t>
-  </si>
-  <si>
-    <t>TargetTeam</t>
-  </si>
-  <si>
-    <t>AttackOrder</t>
-  </si>
-  <si>
-    <t>AttackPoints</t>
-  </si>
-  <si>
-    <t>DamageType</t>
-  </si>
-  <si>
-    <t>DamageRate</t>
-  </si>
-  <si>
-    <t>HitCount</t>
-  </si>
-  <si>
-    <t>AreaRange</t>
-  </si>
-  <si>
-    <t>AreaDamage</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>StartPower</t>
-  </si>
-  <si>
-    <t>MaxPower</t>
-  </si>
-  <si>
-    <t>PowerCount</t>
-  </si>
-  <si>
-    <t>PowerType</t>
-  </si>
-  <si>
-    <t>PowerUseType</t>
-  </si>
-  <si>
-    <t>IfHeal</t>
-  </si>
-  <si>
-    <t>ModelAnimation</t>
-  </si>
-  <si>
-    <t>Bullet</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>AttackTargetEnum</t>
-  </si>
-  <si>
-    <t>AttackTargetOrderEnum</t>
-  </si>
-  <si>
-    <t>Vector2Int[]</t>
-  </si>
-  <si>
-    <t>DamageTypeEnum</t>
-  </si>
-  <si>
-    <t>MainSkillTypeEnum</t>
-  </si>
-  <si>
-    <t>MainSkillUseTypeEnum</t>
-  </si>
-  <si>
-    <t>攻击目标</t>
-  </si>
-  <si>
-    <t>攻击阻挡</t>
-  </si>
-  <si>
-    <t>敌对组</t>
-  </si>
-  <si>
-    <t>攻击优先级</t>
-  </si>
-  <si>
-    <t>打击点,干员使用</t>
-  </si>
-  <si>
-    <t>倍率</t>
-  </si>
-  <si>
-    <t>攻击数量</t>
-  </si>
-  <si>
-    <t>溅射范围</t>
-  </si>
-  <si>
-    <t>溅射伤害</t>
-  </si>
-  <si>
-    <t>关联技能</t>
-  </si>
-  <si>
-    <t>冷却/阻回</t>
-  </si>
-  <si>
-    <t>初始技力</t>
-  </si>
-  <si>
-    <t>最大技力</t>
-  </si>
-  <si>
-    <t>囤积次数</t>
-  </si>
-  <si>
-    <t>回复方式</t>
-  </si>
-  <si>
-    <t>使用方式</t>
-  </si>
-  <si>
-    <t>是否治疗</t>
-  </si>
-  <si>
-    <t>攻击动作</t>
-  </si>
-  <si>
-    <t>子弹</t>
-  </si>
-  <si>
-    <t>攻击距离</t>
-  </si>
-  <si>
-    <t>阿米娅攻击</t>
-  </si>
-  <si>
-    <t>主动</t>
-  </si>
-  <si>
-    <t>敌对</t>
-  </si>
-  <si>
-    <t>离家近</t>
+    <t>自动</t>
+  </si>
+  <si>
+    <t>强力击</t>
+  </si>
+  <si>
+    <t>阿米娅强力击子弹</t>
+  </si>
+  <si>
+    <t>手动</t>
+  </si>
+  <si>
+    <t>阻挡</t>
+  </si>
+  <si>
+    <t>放置顺序</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>0,0#1,0</t>
+  </si>
+  <si>
+    <t>射击</t>
+  </si>
+  <si>
+    <t>飞行</t>
   </si>
   <si>
     <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>阿米娅子弹</t>
-  </si>
-  <si>
-    <t>强力击</t>
-  </si>
-  <si>
-    <t>0,0#1,0</t>
-  </si>
-  <si>
-    <t>自动</t>
-  </si>
-  <si>
-    <t>阿米娅强力击子弹</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>放置顺序</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>近战</t>
-  </si>
-  <si>
-    <t>射击</t>
-  </si>
-  <si>
-    <t>飞行</t>
   </si>
   <si>
     <t>群狙</t>
@@ -444,10 +465,16 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -468,6 +495,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -475,7 +509,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,93 +529,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,7 +547,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,6 +583,60 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -620,187 +647,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,32 +841,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,10 +873,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -879,6 +889,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -887,30 +938,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -919,10 +946,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -931,137 +958,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,6 +1096,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1419,23 +1449,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="10" max="10" width="6.125" customWidth="1"/>
-    <col min="11" max="11" width="5.5" customWidth="1"/>
-    <col min="12" max="12" width="5.875" customWidth="1"/>
-    <col min="13" max="13" width="6.25" customWidth="1"/>
-    <col min="14" max="14" width="34.5" customWidth="1"/>
-    <col min="15" max="15" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="6.125" customWidth="1"/>
+    <col min="12" max="12" width="5.5" customWidth="1"/>
+    <col min="13" max="13" width="5.875" customWidth="1"/>
+    <col min="14" max="14" width="6.25" customWidth="1"/>
+    <col min="15" max="15" width="34.5" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1508,46 +1539,49 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
@@ -1556,80 +1590,86 @@
         <v>28</v>
       </c>
       <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
         <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" t="s">
-        <v>25</v>
       </c>
       <c r="V2" t="s">
         <v>26</v>
       </c>
       <c r="W2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="9:24">
+        <v>27</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="9:25">
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" t="s">
+      <c r="K3" t="s">
         <v>33</v>
       </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" t="s">
         <v>39</v>
       </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
       <c r="V3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>43</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -1643,14 +1683,11 @@
       <c r="H4">
         <v>50</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
       </c>
       <c r="V4">
         <v>1</v>
@@ -1658,16 +1695,19 @@
       <c r="W4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -1681,43 +1721,46 @@
       <c r="H5">
         <v>50</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.2</v>
       </c>
-      <c r="N5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5">
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5">
         <v>1</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0.49</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
       <c r="E8">
@@ -1736,31 +1779,34 @@
         <v>18</v>
       </c>
       <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.2</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.5</v>
       </c>
-      <c r="N8" t="s">
-        <v>53</v>
-      </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8">
         <v>1</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1</v>
       </c>
-      <c r="W8">
-        <v>0.5</v>
+      <c r="X8">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -1773,547 +1819,625 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="14" width="8.375" customWidth="1"/>
-    <col min="16" max="16" width="7.375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="8.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16" customWidth="1"/>
-    <col min="24" max="24" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="24.25" customWidth="1"/>
+    <col min="10" max="10" width="7.125" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="15" width="8.375" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="7.375" style="2" customWidth="1"/>
+    <col min="19" max="20" width="8.5" style="2" customWidth="1"/>
+    <col min="21" max="21" width="7.875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="25" max="25" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U1" t="s">
+      <c r="S1" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+        <v>75</v>
+      </c>
+      <c r="X1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
       <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" t="s">
-        <v>73</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="X2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="P3" t="s">
         <v>95</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>96</v>
       </c>
-      <c r="U3" t="s">
+      <c r="R3" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="S3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="V3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="W3" t="s">
-        <v>99</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>102</v>
+      </c>
+      <c r="X3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
         <v>106</v>
       </c>
-      <c r="J4">
+      <c r="C5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="V4" t="s">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0.2</v>
+      </c>
+      <c r="Q5">
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W5" t="s">
         <v>5</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>0.2</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>2</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="V5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6">
+      <c r="W6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="V6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="W7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>117</v>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>5</v>
       </c>
-      <c r="W9" t="s">
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>104</v>
-      </c>
       <c r="H10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
         <v>119</v>
       </c>
-      <c r="I10" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10">
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="M10">
+      <c r="H11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>0.5</v>
       </c>
-      <c r="O10">
+      <c r="P11">
         <v>2</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W11" t="s">
         <v>5</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12">
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
         <v>119</v>
       </c>
-      <c r="I12" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12">
+      <c r="K13">
         <v>1.6</v>
       </c>
-      <c r="K12">
+      <c r="L13">
         <v>6</v>
       </c>
-      <c r="O12">
+      <c r="P13">
         <v>2</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13">
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="G14">
         <v>0</v>
       </c>
     </row>
@@ -2342,7 +2466,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2378,37 +2502,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2416,13 +2540,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2453,50 +2577,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2504,19 +2628,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2524,19 +2648,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2544,19 +2668,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>3.3</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2564,19 +2688,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>3.6</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27570" windowHeight="14310"/>
+    <workbookView windowWidth="24150" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
     <sheet name="skill" sheetId="2" r:id="rId2"/>
-    <sheet name="map" sheetId="3" r:id="rId3"/>
-    <sheet name="bullet" sheetId="4" r:id="rId4"/>
-    <sheet name="wave" sheetId="5" r:id="rId5"/>
+    <sheet name="buff" sheetId="6" r:id="rId3"/>
+    <sheet name="map" sheetId="3" r:id="rId4"/>
+    <sheet name="bullet" sheetId="4" r:id="rId5"/>
+    <sheet name="wave" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="164">
   <si>
     <t>_Id</t>
   </si>
@@ -185,204 +186,252 @@
     <t>amiya</t>
   </si>
   <si>
-    <t>阿米娅攻击,阿米娅手动强力击</t>
+    <t>阿米娅攻击,攻速提升</t>
+  </si>
+  <si>
+    <t>攻速提升</t>
+  </si>
+  <si>
+    <t>ReadyType</t>
+  </si>
+  <si>
+    <t>UseType</t>
+  </si>
+  <si>
+    <t>AttackTarget</t>
+  </si>
+  <si>
+    <t>AttackStop</t>
+  </si>
+  <si>
+    <t>TargetTeam</t>
+  </si>
+  <si>
+    <t>AttackFly</t>
+  </si>
+  <si>
+    <t>AttackOrder</t>
+  </si>
+  <si>
+    <t>AttackPoints</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>DamageRate</t>
+  </si>
+  <si>
+    <t>HitCount</t>
+  </si>
+  <si>
+    <t>AreaRange</t>
+  </si>
+  <si>
+    <t>AreaDamage</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>OpenTime</t>
+  </si>
+  <si>
+    <t>StartPower</t>
+  </si>
+  <si>
+    <t>MaxPower</t>
+  </si>
+  <si>
+    <t>PowerCount</t>
+  </si>
+  <si>
+    <t>PowerType</t>
+  </si>
+  <si>
+    <t>IfHeal</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>ModelAnimation</t>
+  </si>
+  <si>
+    <t>Buffs</t>
+  </si>
+  <si>
+    <t>BuffData</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>SkillReadyEnum</t>
+  </si>
+  <si>
+    <t>SkillUseTypeEnum</t>
+  </si>
+  <si>
+    <t>AttackTargetEnum</t>
+  </si>
+  <si>
+    <t>AttackTargetOrderEnum</t>
+  </si>
+  <si>
+    <t>Vector2Int[]</t>
+  </si>
+  <si>
+    <t>DamageTypeEnum</t>
+  </si>
+  <si>
+    <t>PowerRecoverTypeEnum</t>
+  </si>
+  <si>
+    <t>Buff[]</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>激活方式</t>
+  </si>
+  <si>
+    <t>使用方式</t>
+  </si>
+  <si>
+    <t>攻击目标</t>
+  </si>
+  <si>
+    <t>攻击阻挡</t>
+  </si>
+  <si>
+    <t>敌对组</t>
+  </si>
+  <si>
+    <t>对空</t>
+  </si>
+  <si>
+    <t>攻击优先级</t>
+  </si>
+  <si>
+    <t>打击点,干员使用</t>
+  </si>
+  <si>
+    <t>倍率</t>
+  </si>
+  <si>
+    <t>攻击数量</t>
+  </si>
+  <si>
+    <t>溅射范围</t>
+  </si>
+  <si>
+    <t>溅射伤害</t>
+  </si>
+  <si>
+    <t>关联技能</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>初始技力</t>
+  </si>
+  <si>
+    <t>最大技力</t>
+  </si>
+  <si>
+    <t>囤积次数</t>
+  </si>
+  <si>
+    <t>回复方式</t>
+  </si>
+  <si>
+    <t>是否治疗</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>攻击动作</t>
+  </si>
+  <si>
+    <t>关联Buff</t>
+  </si>
+  <si>
+    <t>buff数值</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>阿米娅攻击</t>
+  </si>
+  <si>
+    <t>普通技能</t>
+  </si>
+  <si>
+    <t>敌对</t>
+  </si>
+  <si>
+    <t>离家近</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>阿米娅子弹</t>
+  </si>
+  <si>
+    <t>测试Buff</t>
+  </si>
+  <si>
+    <t>阿米娅强力击</t>
+  </si>
+  <si>
+    <t>自动</t>
+  </si>
+  <si>
+    <t>强力击</t>
+  </si>
+  <si>
+    <t>阿米娅强力击子弹</t>
   </si>
   <si>
     <t>阿米娅手动强力击</t>
   </si>
   <si>
-    <t>UseType</t>
-  </si>
-  <si>
-    <t>AttackTarget</t>
-  </si>
-  <si>
-    <t>AttackStop</t>
-  </si>
-  <si>
-    <t>TargetTeam</t>
-  </si>
-  <si>
-    <t>AttackOrder</t>
-  </si>
-  <si>
-    <t>AttackPoints</t>
-  </si>
-  <si>
-    <t>DamageType</t>
-  </si>
-  <si>
-    <t>DamageRate</t>
-  </si>
-  <si>
-    <t>HitCount</t>
-  </si>
-  <si>
-    <t>AreaRange</t>
-  </si>
-  <si>
-    <t>AreaDamage</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>OpenTime</t>
-  </si>
-  <si>
-    <t>StartPower</t>
-  </si>
-  <si>
-    <t>MaxPower</t>
-  </si>
-  <si>
-    <t>PowerCount</t>
-  </si>
-  <si>
-    <t>PowerType</t>
-  </si>
-  <si>
-    <t>IfHeal</t>
-  </si>
-  <si>
-    <t>ModelAnimation</t>
-  </si>
-  <si>
-    <t>Bullet</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>SkillUseTypeEnum</t>
-  </si>
-  <si>
-    <t>AttackTargetEnum</t>
-  </si>
-  <si>
-    <t>AttackTargetOrderEnum</t>
-  </si>
-  <si>
-    <t>Vector2Int[]</t>
-  </si>
-  <si>
-    <t>DamageTypeEnum</t>
-  </si>
-  <si>
-    <t>PowerRecoverTypeEnum</t>
-  </si>
-  <si>
-    <t>使用方式</t>
-  </si>
-  <si>
-    <t>攻击目标</t>
-  </si>
-  <si>
-    <t>攻击阻挡</t>
-  </si>
-  <si>
-    <t>敌对组</t>
-  </si>
-  <si>
-    <t>攻击优先级</t>
-  </si>
-  <si>
-    <t>打击点,干员使用</t>
-  </si>
-  <si>
-    <t>倍率</t>
-  </si>
-  <si>
-    <t>攻击数量</t>
-  </si>
-  <si>
-    <t>溅射范围</t>
-  </si>
-  <si>
-    <t>溅射伤害</t>
-  </si>
-  <si>
-    <t>关联技能</t>
-  </si>
-  <si>
-    <t>冷却</t>
-  </si>
-  <si>
-    <t>持续时间</t>
-  </si>
-  <si>
-    <t>初始技力</t>
-  </si>
-  <si>
-    <t>最大技力</t>
-  </si>
-  <si>
-    <t>囤积次数</t>
-  </si>
-  <si>
-    <t>回复方式</t>
-  </si>
-  <si>
-    <t>是否治疗</t>
-  </si>
-  <si>
-    <t>攻击动作</t>
-  </si>
-  <si>
-    <t>子弹</t>
-  </si>
-  <si>
-    <t>攻击距离</t>
-  </si>
-  <si>
-    <t>阿米娅攻击</t>
+    <t>手动</t>
+  </si>
+  <si>
+    <t>阻挡</t>
+  </si>
+  <si>
+    <t>放置顺序</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>特技激活</t>
+  </si>
+  <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>近战</t>
   </si>
   <si>
     <t>主动</t>
   </si>
   <si>
-    <t>敌对</t>
-  </si>
-  <si>
-    <t>离家近</t>
-  </si>
-  <si>
-    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>阿米娅子弹</t>
-  </si>
-  <si>
-    <t>阿米娅强力击</t>
-  </si>
-  <si>
-    <t>自动</t>
-  </si>
-  <si>
-    <t>强力击</t>
-  </si>
-  <si>
-    <t>阿米娅强力击子弹</t>
-  </si>
-  <si>
-    <t>手动</t>
-  </si>
-  <si>
-    <t>阻挡</t>
-  </si>
-  <si>
-    <t>放置顺序</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>近战</t>
-  </si>
-  <si>
     <t>0,0#1,0</t>
   </si>
   <si>
@@ -410,6 +459,18 @@
     <t>激活技能</t>
   </si>
   <si>
+    <t>LastTime</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>数值变化</t>
+  </si>
+  <si>
+    <t>"t":["Agi"]</t>
+  </si>
+  <si>
     <t>testBullet</t>
   </si>
   <si>
@@ -429,9 +490,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>float[]</t>
   </si>
   <si>
     <t>路径</t>
@@ -501,37 +559,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,26 +590,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,7 +622,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -593,31 +638,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,8 +673,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,12 +705,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -665,169 +789,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,6 +896,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -874,47 +971,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,8 +991,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,145 +1004,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1451,8 +1509,8 @@
   <sheetPr/>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1819,54 +1877,56 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="24.25" customWidth="1"/>
-    <col min="10" max="10" width="7.125" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="15" width="8.375" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="7.375" style="2" customWidth="1"/>
-    <col min="19" max="20" width="8.5" style="2" customWidth="1"/>
-    <col min="21" max="21" width="7.875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16" customWidth="1"/>
-    <col min="25" max="25" width="9.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="7.125" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="17" width="8.375" customWidth="1"/>
+    <col min="18" max="18" width="4.5" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="20" max="20" width="7.375" style="2" customWidth="1"/>
+    <col min="21" max="22" width="8.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="7.875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="16" customWidth="1"/>
+    <col min="29" max="29" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
       </c>
       <c r="F1" t="s">
         <v>59</v>
@@ -1896,18 +1956,18 @@
         <v>67</v>
       </c>
       <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" t="s">
         <v>71</v>
       </c>
       <c r="T1" s="2" t="s">
@@ -1916,528 +1976,605 @@
       <c r="U1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>75</v>
       </c>
       <c r="X1" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
       <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
       <c r="P2" t="s">
         <v>27</v>
       </c>
       <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" t="s">
         <v>27</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" t="s">
         <v>25</v>
       </c>
-      <c r="X2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AA2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Q3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="R3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S3" t="s">
+        <v>105</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="V3" t="s">
-        <v>101</v>
-      </c>
-      <c r="W3" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="X3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>110</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>0.2</v>
+      </c>
+      <c r="S5">
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="2">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="U5" s="2">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4">
+      <c r="W5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="J6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="W4" t="s">
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>3</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z6" t="s">
         <v>5</v>
       </c>
-      <c r="X4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>0.2</v>
-      </c>
-      <c r="Q5">
-        <v>0.2</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>3</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="W5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>10</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>3</v>
-      </c>
-      <c r="T6" s="2">
-        <v>1</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="W6" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" t="s">
         <v>117</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>3</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
         <v>118</v>
       </c>
-      <c r="J7" t="s">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
         <v>119</v>
       </c>
-      <c r="K7">
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16">
         <v>1</v>
       </c>
-      <c r="P7">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="R16">
         <v>2</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
-      <c r="A9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9">
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="J18" t="s">
         <v>119</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="P9">
+      <c r="K18" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18">
+        <v>1.6</v>
+      </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="R18">
         <v>2</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Z18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10">
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="W10" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" t="s">
-        <v>126</v>
-      </c>
-      <c r="J11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>0.5</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="W11" t="s">
-        <v>5</v>
-      </c>
-      <c r="X11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13">
-        <v>1.6</v>
-      </c>
-      <c r="L13">
-        <v>6</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="W13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="H19">
         <v>0</v>
       </c>
     </row>
@@ -2449,6 +2586,87 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A2"/>
@@ -2476,7 +2694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D5"/>
@@ -2526,13 +2744,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2540,13 +2758,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2558,7 +2776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F7"/>
@@ -2577,19 +2795,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2600,16 +2818,16 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2617,10 +2835,10 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2628,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
@@ -2637,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2648,7 +2866,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -2657,10 +2875,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2668,7 +2886,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -2677,10 +2895,10 @@
         <v>3.3</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2688,7 +2906,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -2697,10 +2915,10 @@
         <v>3.6</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24150" windowHeight="12120" activeTab="1"/>
+    <workbookView windowWidth="27570" windowHeight="14310" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="183">
   <si>
     <t>_Id</t>
   </si>
@@ -186,289 +186,346 @@
     <t>amiya</t>
   </si>
   <si>
-    <t>阿米娅攻击,攻速提升</t>
+    <t>阿米娅攻击,激活攻速提升</t>
+  </si>
+  <si>
+    <t>激活攻速提升</t>
+  </si>
+  <si>
+    <t>苏苏洛</t>
+  </si>
+  <si>
+    <t>susuro</t>
+  </si>
+  <si>
+    <t>奶,激活攻击提升</t>
+  </si>
+  <si>
+    <t>激活攻击提升</t>
+  </si>
+  <si>
+    <t>银灰</t>
+  </si>
+  <si>
+    <t>aprl</t>
+  </si>
+  <si>
+    <t>银灰远攻,银灰攻击,真银斩,真银斩降防</t>
+  </si>
+  <si>
+    <t>真银斩</t>
+  </si>
+  <si>
+    <t>ReadyType</t>
+  </si>
+  <si>
+    <t>UseType</t>
+  </si>
+  <si>
+    <t>AttackTarget</t>
+  </si>
+  <si>
+    <t>AttackStop</t>
+  </si>
+  <si>
+    <t>TargetTeam</t>
+  </si>
+  <si>
+    <t>AttackFly</t>
+  </si>
+  <si>
+    <t>AttackOrder</t>
+  </si>
+  <si>
+    <t>AttackPoints</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>DamageRate</t>
+  </si>
+  <si>
+    <t>HitCount</t>
+  </si>
+  <si>
+    <t>AreaRange</t>
+  </si>
+  <si>
+    <t>AreaDamage</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>OpenTime</t>
+  </si>
+  <si>
+    <t>StartPower</t>
+  </si>
+  <si>
+    <t>MaxPower</t>
+  </si>
+  <si>
+    <t>PowerCount</t>
+  </si>
+  <si>
+    <t>PowerType</t>
+  </si>
+  <si>
+    <t>IfHeal</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>ModelAnimation</t>
+  </si>
+  <si>
+    <t>Buffs</t>
+  </si>
+  <si>
+    <t>BuffData</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>SkillReadyEnum</t>
+  </si>
+  <si>
+    <t>SkillUseTypeEnum</t>
+  </si>
+  <si>
+    <t>AttackTargetEnum</t>
+  </si>
+  <si>
+    <t>AttackTargetOrderEnum</t>
+  </si>
+  <si>
+    <t>Vector2Int[]</t>
+  </si>
+  <si>
+    <t>DamageTypeEnum</t>
+  </si>
+  <si>
+    <t>PowerRecoverTypeEnum</t>
+  </si>
+  <si>
+    <t>Buff[]</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>激活方式</t>
+  </si>
+  <si>
+    <t>使用方式</t>
+  </si>
+  <si>
+    <t>攻击目标</t>
+  </si>
+  <si>
+    <t>攻击阻挡</t>
+  </si>
+  <si>
+    <t>敌对组</t>
+  </si>
+  <si>
+    <t>对空</t>
+  </si>
+  <si>
+    <t>攻击优先级</t>
+  </si>
+  <si>
+    <t>打击点,干员使用</t>
+  </si>
+  <si>
+    <t>倍率</t>
+  </si>
+  <si>
+    <t>攻击数量</t>
+  </si>
+  <si>
+    <t>溅射范围</t>
+  </si>
+  <si>
+    <t>溅射伤害</t>
+  </si>
+  <si>
+    <t>关联技能</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>初始技力</t>
+  </si>
+  <si>
+    <t>最大技力</t>
+  </si>
+  <si>
+    <t>囤积次数</t>
+  </si>
+  <si>
+    <t>回复方式</t>
+  </si>
+  <si>
+    <t>是否治疗</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>攻击动作</t>
+  </si>
+  <si>
+    <t>关联Buff</t>
+  </si>
+  <si>
+    <t>buff数值</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>阿米娅攻击</t>
+  </si>
+  <si>
+    <t>普通技能</t>
+  </si>
+  <si>
+    <t>敌对</t>
+  </si>
+  <si>
+    <t>离家近</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>阿米娅子弹</t>
+  </si>
+  <si>
+    <t>减速</t>
+  </si>
+  <si>
+    <t>阿米娅强力击</t>
+  </si>
+  <si>
+    <t>自动</t>
+  </si>
+  <si>
+    <t>强力击</t>
+  </si>
+  <si>
+    <t>阿米娅强力击子弹</t>
+  </si>
+  <si>
+    <t>阿米娅手动强力击</t>
+  </si>
+  <si>
+    <t>手动</t>
+  </si>
+  <si>
+    <t>阻挡</t>
+  </si>
+  <si>
+    <t>放置顺序</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>特技激活</t>
+  </si>
+  <si>
+    <t>被动</t>
+  </si>
+  <si>
+    <t>自己</t>
   </si>
   <si>
     <t>攻速提升</t>
   </si>
   <si>
-    <t>ReadyType</t>
-  </si>
-  <si>
-    <t>UseType</t>
-  </si>
-  <si>
-    <t>AttackTarget</t>
-  </si>
-  <si>
-    <t>AttackStop</t>
-  </si>
-  <si>
-    <t>TargetTeam</t>
-  </si>
-  <si>
-    <t>AttackFly</t>
-  </si>
-  <si>
-    <t>AttackOrder</t>
-  </si>
-  <si>
-    <t>AttackPoints</t>
-  </si>
-  <si>
-    <t>DamageType</t>
-  </si>
-  <si>
-    <t>DamageRate</t>
-  </si>
-  <si>
-    <t>HitCount</t>
-  </si>
-  <si>
-    <t>AreaRange</t>
-  </si>
-  <si>
-    <t>AreaDamage</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>OpenTime</t>
-  </si>
-  <si>
-    <t>StartPower</t>
-  </si>
-  <si>
-    <t>MaxPower</t>
-  </si>
-  <si>
-    <t>PowerCount</t>
-  </si>
-  <si>
-    <t>PowerType</t>
-  </si>
-  <si>
-    <t>IfHeal</t>
-  </si>
-  <si>
-    <t>Bullet</t>
-  </si>
-  <si>
-    <t>ModelAnimation</t>
-  </si>
-  <si>
-    <t>Buffs</t>
-  </si>
-  <si>
-    <t>BuffData</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>SkillReadyEnum</t>
-  </si>
-  <si>
-    <t>SkillUseTypeEnum</t>
-  </si>
-  <si>
-    <t>AttackTargetEnum</t>
-  </si>
-  <si>
-    <t>AttackTargetOrderEnum</t>
-  </si>
-  <si>
-    <t>Vector2Int[]</t>
-  </si>
-  <si>
-    <t>DamageTypeEnum</t>
-  </si>
-  <si>
-    <t>PowerRecoverTypeEnum</t>
-  </si>
-  <si>
-    <t>Buff[]</t>
-  </si>
-  <si>
-    <t>float[]</t>
-  </si>
-  <si>
-    <t>激活方式</t>
-  </si>
-  <si>
-    <t>使用方式</t>
-  </si>
-  <si>
-    <t>攻击目标</t>
-  </si>
-  <si>
-    <t>攻击阻挡</t>
-  </si>
-  <si>
-    <t>敌对组</t>
-  </si>
-  <si>
-    <t>对空</t>
-  </si>
-  <si>
-    <t>攻击优先级</t>
-  </si>
-  <si>
-    <t>打击点,干员使用</t>
-  </si>
-  <si>
-    <t>倍率</t>
-  </si>
-  <si>
-    <t>攻击数量</t>
-  </si>
-  <si>
-    <t>溅射范围</t>
-  </si>
-  <si>
-    <t>溅射伤害</t>
-  </si>
-  <si>
-    <t>关联技能</t>
-  </si>
-  <si>
-    <t>冷却</t>
-  </si>
-  <si>
-    <t>持续时间</t>
-  </si>
-  <si>
-    <t>初始技力</t>
-  </si>
-  <si>
-    <t>最大技力</t>
-  </si>
-  <si>
-    <t>囤积次数</t>
-  </si>
-  <si>
-    <t>回复方式</t>
-  </si>
-  <si>
-    <t>是否治疗</t>
-  </si>
-  <si>
-    <t>子弹</t>
-  </si>
-  <si>
-    <t>攻击动作</t>
-  </si>
-  <si>
-    <t>关联Buff</t>
-  </si>
-  <si>
-    <t>buff数值</t>
-  </si>
-  <si>
-    <t>攻击距离</t>
-  </si>
-  <si>
-    <t>阿米娅攻击</t>
-  </si>
-  <si>
-    <t>普通技能</t>
-  </si>
-  <si>
-    <t>敌对</t>
-  </si>
-  <si>
-    <t>离家近</t>
-  </si>
-  <si>
-    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>阿米娅子弹</t>
+    <t>攻击提升</t>
+  </si>
+  <si>
+    <t>奶</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>群奶</t>
+  </si>
+  <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>0,0#1,0</t>
+  </si>
+  <si>
+    <t>射击</t>
+  </si>
+  <si>
+    <t>飞行</t>
+  </si>
+  <si>
+    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
+  </si>
+  <si>
+    <t>群狙</t>
+  </si>
+  <si>
+    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
+  </si>
+  <si>
+    <t>银灰攻击</t>
+  </si>
+  <si>
+    <t>银灰远攻</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#3,0</t>
+  </si>
+  <si>
+    <t>真银斩降防</t>
+  </si>
+  <si>
+    <t>防御提升</t>
+  </si>
+  <si>
+    <t>LastTime</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
   <si>
     <t>测试Buff</t>
   </si>
   <si>
-    <t>阿米娅强力击</t>
-  </si>
-  <si>
-    <t>自动</t>
-  </si>
-  <si>
-    <t>强力击</t>
-  </si>
-  <si>
-    <t>阿米娅强力击子弹</t>
-  </si>
-  <si>
-    <t>阿米娅手动强力击</t>
-  </si>
-  <si>
-    <t>手动</t>
-  </si>
-  <si>
-    <t>阻挡</t>
-  </si>
-  <si>
-    <t>放置顺序</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>特技激活</t>
-  </si>
-  <si>
-    <t>自己</t>
-  </si>
-  <si>
-    <t>近战</t>
-  </si>
-  <si>
-    <t>主动</t>
-  </si>
-  <si>
-    <t>0,0#1,0</t>
-  </si>
-  <si>
-    <t>射击</t>
-  </si>
-  <si>
-    <t>飞行</t>
-  </si>
-  <si>
-    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
-  </si>
-  <si>
-    <t>群狙</t>
-  </si>
-  <si>
-    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
-  </si>
-  <si>
-    <t>真银斩</t>
-  </si>
-  <si>
-    <t>激活真银斩</t>
-  </si>
-  <si>
-    <t>激活技能</t>
-  </si>
-  <si>
-    <t>LastTime</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>数值变化</t>
   </si>
   <si>
     <t>"t":["Agi"]</t>
+  </si>
+  <si>
+    <t>"t":["SpeedRate"]</t>
+  </si>
+  <si>
+    <t>"t":["AttackRate"]</t>
+  </si>
+  <si>
+    <t>"t":["DefenceRate"]</t>
   </si>
   <si>
     <t>testBullet</t>
@@ -553,7 +610,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,127 +752,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -705,37 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,31 +774,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,31 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,13 +828,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,25 +870,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,13 +930,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,56 +956,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,20 +982,50 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,6 +1038,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1004,10 +1061,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,137 +1073,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,6 +1214,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1507,13 +1567,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="10" max="10" width="9.75" customWidth="1"/>
     <col min="11" max="11" width="6.125" customWidth="1"/>
@@ -1860,10 +1920,123 @@
       <c r="R8">
         <v>1</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
       <c r="X8">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.2</v>
+      </c>
+      <c r="N9">
+        <v>0.5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9"/>
+      <c r="X9">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.2</v>
+      </c>
+      <c r="N10">
+        <v>0.5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="X10">
         <v>0.49</v>
       </c>
     </row>
@@ -1877,21 +2050,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="2" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
@@ -1920,85 +2092,85 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="X1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Z1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AA1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AB1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -2009,16 +2181,16 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
         <v>30</v>
@@ -2030,13 +2202,13 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
@@ -2069,22 +2241,22 @@
         <v>26</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="X2" t="s">
         <v>30</v>
       </c>
       <c r="Y2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Z2" t="s">
         <v>25</v>
       </c>
       <c r="AA2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AB2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>27</v>
@@ -2095,103 +2267,102 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Q3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="R3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="S3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Z3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AB3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4"/>
+        <v>126</v>
+      </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -2200,43 +2371,45 @@
         <v>2</v>
       </c>
       <c r="Y4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Z4" t="s">
         <v>5</v>
       </c>
       <c r="AA4" t="s">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="AB4">
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="F5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5"/>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -2257,13 +2430,13 @@
         <v>3</v>
       </c>
       <c r="V5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Y5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="Z5" t="s">
         <v>5</v>
@@ -2271,32 +2444,31 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" t="s">
         <v>128</v>
       </c>
-      <c r="B6" t="s">
+      <c r="L6" t="s">
         <v>129</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" t="s">
-        <v>121</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -2320,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Y6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="Z6" t="s">
         <v>5</v>
@@ -2334,10 +2506,10 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2346,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -2366,18 +2538,17 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9"/>
+        <v>143</v>
+      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -2390,43 +2561,112 @@
       <c r="U9" s="2">
         <v>3</v>
       </c>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
+      <c r="V9" s="2"/>
       <c r="W9" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AA9" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="AB9">
         <v>100</v>
       </c>
     </row>
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>3</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -2434,34 +2674,37 @@
       <c r="R14">
         <v>2</v>
       </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
       <c r="Z14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
         <v>138</v>
       </c>
-      <c r="B15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" t="s">
-        <v>118</v>
-      </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
         <v>140</v>
-      </c>
-      <c r="L15" t="s">
-        <v>132</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2469,114 +2712,254 @@
       <c r="R15">
         <v>2</v>
       </c>
-      <c r="Y15" t="s">
-        <v>122</v>
-      </c>
       <c r="Z15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G16"/>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M16">
         <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0.5</v>
       </c>
       <c r="R16">
         <v>2</v>
       </c>
       <c r="Y16" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Z16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
-      <c r="A18" t="s">
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20">
+        <v>0.8</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21">
+        <v>1.6</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>20</v>
+      </c>
+      <c r="T21" s="2">
+        <v>35</v>
+      </c>
+      <c r="U21" s="2">
+        <v>40</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" t="s">
         <v>143</v>
       </c>
-      <c r="B18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18">
+      <c r="H22">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" t="s">
-        <v>132</v>
-      </c>
-      <c r="M18">
-        <v>1.6</v>
-      </c>
-      <c r="N18">
-        <v>6</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="AC22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2588,13 +2971,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
@@ -2610,10 +2993,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2630,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2640,24 +3023,66 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8">
+        <v>0.01</v>
+      </c>
+      <c r="E8" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2744,13 +3169,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2758,13 +3183,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2779,13 +3204,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="5" max="5" width="30.625" customWidth="1"/>
   </cols>
@@ -2795,19 +3220,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2818,16 +3243,16 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2835,10 +3260,10 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2846,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
@@ -2855,10 +3280,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2866,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -2875,10 +3300,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2886,19 +3311,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
       </c>
       <c r="D6">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2906,19 +3331,139 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
       </c>
       <c r="D7">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27570" windowHeight="14310" activeTab="5"/>
+    <workbookView windowWidth="24150" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="232">
   <si>
     <t>_Id</t>
   </si>
@@ -96,6 +96,18 @@
     <t>CanStop</t>
   </si>
   <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>HeadIcon</t>
+  </si>
+  <si>
+    <t>StandPic</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -114,6 +126,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>UnitTypeEnum</t>
+  </si>
+  <si>
     <t>消耗</t>
   </si>
   <si>
@@ -156,6 +171,12 @@
     <t>阻挡？</t>
   </si>
   <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>稀有</t>
+  </si>
+  <si>
     <t>原石虫</t>
   </si>
   <si>
@@ -192,6 +213,12 @@
     <t>激活攻速提升</t>
   </si>
   <si>
+    <t>术士</t>
+  </si>
+  <si>
+    <t>amiya_head</t>
+  </si>
+  <si>
     <t>苏苏洛</t>
   </si>
   <si>
@@ -204,6 +231,12 @@
     <t>激活攻击提升</t>
   </si>
   <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>susuro_head</t>
+  </si>
+  <si>
     <t>银灰</t>
   </si>
   <si>
@@ -216,6 +249,96 @@
     <t>真银斩</t>
   </si>
   <si>
+    <t>近卫</t>
+  </si>
+  <si>
+    <t>aprl_head</t>
+  </si>
+  <si>
+    <t>12f</t>
+  </si>
+  <si>
+    <t>12fce</t>
+  </si>
+  <si>
+    <t>12F</t>
+  </si>
+  <si>
+    <t>狙击</t>
+  </si>
+  <si>
+    <t>12fce_head</t>
+  </si>
+  <si>
+    <t>陈</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>chen_head</t>
+  </si>
+  <si>
+    <t>煌</t>
+  </si>
+  <si>
+    <t>huang</t>
+  </si>
+  <si>
+    <t>huang_head</t>
+  </si>
+  <si>
+    <t>杰西卡</t>
+  </si>
+  <si>
+    <t>jesica</t>
+  </si>
+  <si>
+    <t>jesica_head</t>
+  </si>
+  <si>
+    <t>克洛丝</t>
+  </si>
+  <si>
+    <t>kroos</t>
+  </si>
+  <si>
+    <t>妨碍</t>
+  </si>
+  <si>
+    <t>kroos_head</t>
+  </si>
+  <si>
+    <t>星熊</t>
+  </si>
+  <si>
+    <t>hsguma</t>
+  </si>
+  <si>
+    <t>重装</t>
+  </si>
+  <si>
+    <t>hsguma_head</t>
+  </si>
+  <si>
+    <t>莫斯提马</t>
+  </si>
+  <si>
+    <t>mostma</t>
+  </si>
+  <si>
+    <t>mostma_head</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>sora</t>
+  </si>
+  <si>
+    <t>sora_head</t>
+  </si>
+  <si>
     <t>ReadyType</t>
   </si>
   <si>
@@ -288,6 +411,15 @@
     <t>BuffData</t>
   </si>
   <si>
+    <t>StartEffect</t>
+  </si>
+  <si>
+    <t>HitEffect</t>
+  </si>
+  <si>
+    <t>EffectEffect</t>
+  </si>
+  <si>
     <t>AttackRange</t>
   </si>
   <si>
@@ -390,6 +522,15 @@
     <t>buff数值</t>
   </si>
   <si>
+    <t>启动动画</t>
+  </si>
+  <si>
+    <t>命中动画</t>
+  </si>
+  <si>
+    <t>生效动画</t>
+  </si>
+  <si>
     <t>攻击距离</t>
   </si>
   <si>
@@ -415,6 +556,12 @@
   </si>
   <si>
     <t>减速</t>
+  </si>
+  <si>
+    <t>蓄力</t>
+  </si>
+  <si>
+    <t>击中1</t>
   </si>
   <si>
     <t>阿米娅强力击</t>
@@ -575,10 +722,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -609,8 +756,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,14 +839,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -638,15 +846,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,93 +894,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,19 +909,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,13 +951,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,55 +987,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,19 +1017,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,55 +1053,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,8 +1106,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,17 +1123,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,7 +1146,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,15 +1175,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1053,6 +1189,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1061,10 +1208,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,133 +1220,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,7 +1363,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,10 +1714,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1584,7 +1735,7 @@
     <col min="16" max="16" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1660,134 +1811,164 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="AB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="9:25">
+    </row>
+    <row r="3" spans="9:29">
       <c r="I3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -1819,13 +2000,13 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -1846,7 +2027,7 @@
         <v>0.2</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -1860,26 +2041,26 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1912,10 +2093,10 @@
         <v>0.5</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1923,19 +2104,32 @@
       <c r="X8">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8"/>
+      <c r="Z8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -1968,31 +2162,43 @@
         <v>0.5</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
-      <c r="S9"/>
       <c r="X9">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9"/>
+      <c r="Z9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -2025,10 +2231,10 @@
         <v>0.5</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -2038,6 +2244,467 @@
       </c>
       <c r="X10">
         <v>0.49</v>
+      </c>
+      <c r="Y10"/>
+      <c r="Z10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.2</v>
+      </c>
+      <c r="N11">
+        <v>0.5</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.2</v>
+      </c>
+      <c r="N12">
+        <v>0.5</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.2</v>
+      </c>
+      <c r="N13">
+        <v>0.5</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.2</v>
+      </c>
+      <c r="N14">
+        <v>0.5</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <v>0.2</v>
+      </c>
+      <c r="N15">
+        <v>0.5</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.2</v>
+      </c>
+      <c r="N16">
+        <v>0.5</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.2</v>
+      </c>
+      <c r="N17">
+        <v>0.5</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.2</v>
+      </c>
+      <c r="N18">
+        <v>0.5</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2050,14 +2717,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2081,10 +2748,10 @@
     <col min="21" max="22" width="8.5" style="2" customWidth="1"/>
     <col min="23" max="23" width="7.875" style="2" customWidth="1"/>
     <col min="26" max="26" width="16" customWidth="1"/>
-    <col min="29" max="29" width="9.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2092,277 +2759,304 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="N1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="O1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="P1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="S1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="X1" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="Y1" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="Z1" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="AA1" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="AB1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+        <v>129</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="X2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="Z2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="AB2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>142</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="M3" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="O3" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="Q3" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="R3" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="S3" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="X3" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="Y3" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="Z3" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="AA3" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="AB3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+        <v>166</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="K4" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="L4" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -2371,45 +3065,51 @@
         <v>2</v>
       </c>
       <c r="Y4" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="Z4" t="s">
         <v>5</v>
       </c>
       <c r="AA4" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AB4">
         <v>0.8</v>
       </c>
+      <c r="AC4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="K5" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="L5" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -2433,10 +3133,10 @@
         <v>2</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="Y5" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="Z5" t="s">
         <v>5</v>
@@ -2444,31 +3144,31 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="K6" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="L6" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -2492,10 +3192,10 @@
         <v>1</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="Y6" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="Z6" t="s">
         <v>5</v>
@@ -2503,13 +3203,13 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2518,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="L7" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -2535,19 +3235,19 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2561,12 +3261,11 @@
       <c r="U9" s="2">
         <v>3</v>
       </c>
-      <c r="V9" s="2"/>
       <c r="W9" s="2" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="AA9" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="AB9">
         <v>100</v>
@@ -2574,19 +3273,19 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2600,12 +3299,11 @@
       <c r="U10" s="2">
         <v>3</v>
       </c>
-      <c r="V10" s="2"/>
       <c r="W10" s="2" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="AA10" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="AB10">
         <v>0.5</v>
@@ -2613,25 +3311,25 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2648,25 +3346,25 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -2683,13 +3381,13 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2698,13 +3396,13 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2718,26 +3416,25 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16"/>
+        <v>173</v>
+      </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2746,7 +3443,7 @@
         <v>2</v>
       </c>
       <c r="Y16" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="Z16" t="s">
         <v>5</v>
@@ -2754,13 +3451,13 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2769,13 +3466,13 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2790,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="Y17" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="Z17" t="s">
         <v>5</v>
@@ -2798,26 +3495,25 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
-      </c>
-      <c r="K19"/>
+        <v>174</v>
+      </c>
       <c r="L19" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2831,28 +3527,28 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="M20">
         <v>0.8</v>
@@ -2861,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="Y20" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="Z20" t="s">
         <v>5</v>
@@ -2869,21 +3565,20 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21"/>
+        <v>173</v>
+      </c>
       <c r="H21">
         <v>1</v>
       </c>
@@ -2891,13 +3586,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="M21">
         <v>1.6</v>
@@ -2921,27 +3616,27 @@
         <v>1</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="Z21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2950,16 +3645,19 @@
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
-      <c r="X22" s="4"/>
+      <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="AB22" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AC22"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2993,96 +3691,96 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3109,7 +3807,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3150,32 +3848,32 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -3183,13 +3881,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3206,7 +3904,7 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3220,50 +3918,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3271,19 +3969,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3291,19 +3989,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3311,19 +4009,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3331,19 +4029,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3351,19 +4049,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3371,19 +4069,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3391,19 +4089,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3411,19 +4109,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3431,19 +4129,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F12" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3451,19 +4149,19 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F13" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="231">
   <si>
     <t>_Id</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Skill[]</t>
-  </si>
-  <si>
-    <t>Skill</t>
   </si>
   <si>
     <t>bool</t>
@@ -722,10 +719,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -756,18 +753,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -778,8 +820,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,46 +837,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,11 +850,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -862,16 +873,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,21 +892,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,7 +906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,73 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +942,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,31 +1038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,13 +1056,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,25 +1074,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,9 +1102,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,7 +1169,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,21 +1179,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,17 +1197,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1208,10 +1205,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1220,133 +1217,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1717,11 +1714,11 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1871,16 +1868,16 @@
         <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
         <v>30</v>
@@ -1895,10 +1892,10 @@
         <v>31</v>
       </c>
       <c r="Y2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" t="s">
         <v>34</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>35</v>
       </c>
       <c r="AA2" t="s">
         <v>29</v>
@@ -1912,63 +1909,63 @@
     </row>
     <row r="3" spans="9:29">
       <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>42</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>43</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>44</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>45</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>46</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>47</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>50</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -2000,13 +1997,13 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -2027,7 +2024,7 @@
         <v>0.2</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -2041,26 +2038,26 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -2093,10 +2090,10 @@
         <v>0.5</v>
       </c>
       <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s">
         <v>62</v>
-      </c>
-      <c r="P8" t="s">
-        <v>63</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -2104,15 +2101,14 @@
       <c r="X8">
         <v>0.49</v>
       </c>
-      <c r="Y8"/>
       <c r="Z8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" t="s">
         <v>64</v>
       </c>
-      <c r="AA8" t="s">
-        <v>65</v>
-      </c>
       <c r="AB8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC8">
         <v>5</v>
@@ -2120,16 +2116,16 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -2162,10 +2158,10 @@
         <v>0.5</v>
       </c>
       <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s">
         <v>68</v>
-      </c>
-      <c r="P9" t="s">
-        <v>69</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -2173,15 +2169,14 @@
       <c r="X9">
         <v>0.49</v>
       </c>
-      <c r="Y9"/>
       <c r="Z9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA9" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" t="s">
-        <v>71</v>
-      </c>
       <c r="AB9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC9">
         <v>4</v>
@@ -2189,16 +2184,16 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -2231,10 +2226,10 @@
         <v>0.5</v>
       </c>
       <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" t="s">
         <v>74</v>
-      </c>
-      <c r="P10" t="s">
-        <v>75</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -2245,15 +2240,14 @@
       <c r="X10">
         <v>0.49</v>
       </c>
-      <c r="Y10"/>
       <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AA10" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="AB10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC10">
         <v>6</v>
@@ -2261,16 +2255,16 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -2303,13 +2297,13 @@
         <v>0.5</v>
       </c>
       <c r="Z11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AA11" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="AB11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC11">
         <v>4</v>
@@ -2317,16 +2311,16 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
         <v>83</v>
       </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -2359,13 +2353,13 @@
         <v>0.5</v>
       </c>
       <c r="Z12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC12">
         <v>6</v>
@@ -2373,16 +2367,16 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2415,13 +2409,13 @@
         <v>0.5</v>
       </c>
       <c r="Z13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC13">
         <v>6</v>
@@ -2429,16 +2423,16 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -2471,13 +2465,13 @@
         <v>0.5</v>
       </c>
       <c r="Z14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC14">
         <v>4</v>
@@ -2485,16 +2479,16 @@
     </row>
     <row r="15" spans="1:29">
       <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2527,13 +2521,13 @@
         <v>0.5</v>
       </c>
       <c r="Z15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AA15" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="AB15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC15">
         <v>4</v>
@@ -2541,16 +2535,16 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>96</v>
       </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2583,13 +2577,13 @@
         <v>0.5</v>
       </c>
       <c r="Z16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AA16" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="AB16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC16">
         <v>6</v>
@@ -2597,16 +2591,16 @@
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
         <v>100</v>
       </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>101</v>
-      </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -2639,13 +2633,13 @@
         <v>0.5</v>
       </c>
       <c r="Z17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC17">
         <v>6</v>
@@ -2653,16 +2647,16 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
         <v>103</v>
       </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -2695,13 +2689,13 @@
         <v>0.5</v>
       </c>
       <c r="Z18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC18">
         <v>4</v>
@@ -2759,94 +2753,94 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>113</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>114</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>115</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>116</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>117</v>
-      </c>
-      <c r="P1" t="s">
-        <v>118</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
       </c>
       <c r="R1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" t="s">
         <v>119</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" t="s">
         <v>124</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -2857,34 +2851,34 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" t="s">
         <v>137</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>138</v>
-      </c>
-      <c r="L2" t="s">
-        <v>139</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -2917,22 +2911,22 @@
         <v>30</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z2" t="s">
         <v>29</v>
       </c>
       <c r="AA2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB2" t="s">
         <v>141</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>142</v>
       </c>
       <c r="AC2" t="s">
         <v>29</v>
@@ -2949,114 +2943,114 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" t="s">
         <v>144</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>145</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>146</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>147</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>148</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>149</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>150</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>151</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>152</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>153</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>155</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>156</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" t="s">
         <v>161</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>162</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>163</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>164</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>165</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>166</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>167</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>168</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
         <v>171</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>172</v>
-      </c>
-      <c r="F4" t="s">
-        <v>173</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" t="s">
         <v>174</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>175</v>
-      </c>
-      <c r="L4" t="s">
-        <v>176</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -3065,51 +3059,51 @@
         <v>2</v>
       </c>
       <c r="Y4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z4" t="s">
         <v>5</v>
       </c>
       <c r="AA4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB4">
         <v>0.8</v>
       </c>
       <c r="AC4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD4" t="s">
         <v>179</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
         <v>172</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" t="s">
-        <v>173</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" t="s">
         <v>174</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>175</v>
-      </c>
-      <c r="L5" t="s">
-        <v>176</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -3133,10 +3127,10 @@
         <v>2</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z5" t="s">
         <v>5</v>
@@ -3144,31 +3138,31 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
         <v>172</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" t="s">
-        <v>173</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K6" t="s">
         <v>174</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>175</v>
-      </c>
-      <c r="L6" t="s">
-        <v>176</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -3192,10 +3186,10 @@
         <v>1</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z6" t="s">
         <v>5</v>
@@ -3203,13 +3197,13 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3218,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" t="s">
         <v>188</v>
-      </c>
-      <c r="L7" t="s">
-        <v>189</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -3235,19 +3229,19 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" t="s">
         <v>191</v>
-      </c>
-      <c r="F9" t="s">
-        <v>192</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3262,10 +3256,10 @@
         <v>3</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB9">
         <v>100</v>
@@ -3273,19 +3267,19 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" t="s">
         <v>191</v>
-      </c>
-      <c r="F10" t="s">
-        <v>192</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3300,10 +3294,10 @@
         <v>3</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB10">
         <v>0.5</v>
@@ -3311,25 +3305,25 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" t="s">
         <v>172</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" t="s">
-        <v>173</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -3346,25 +3340,25 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" t="s">
         <v>172</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" t="s">
-        <v>173</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -3381,13 +3375,13 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -3396,13 +3390,13 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -3416,25 +3410,25 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" t="s">
         <v>172</v>
-      </c>
-      <c r="F16" t="s">
-        <v>173</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" t="s">
         <v>201</v>
       </c>
-      <c r="K16" t="s">
-        <v>202</v>
-      </c>
       <c r="L16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -3443,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z16" t="s">
         <v>5</v>
@@ -3451,13 +3445,13 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" t="s">
         <v>172</v>
-      </c>
-      <c r="F17" t="s">
-        <v>173</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3466,13 +3460,13 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -3487,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z17" t="s">
         <v>5</v>
@@ -3495,25 +3489,25 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -3527,28 +3521,28 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" t="s">
         <v>172</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" t="s">
-        <v>173</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M20">
         <v>0.8</v>
@@ -3557,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z20" t="s">
         <v>5</v>
@@ -3565,19 +3559,19 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" t="s">
         <v>172</v>
-      </c>
-      <c r="C21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" t="s">
-        <v>173</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3586,13 +3580,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M21">
         <v>1.6</v>
@@ -3616,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z21" t="s">
         <v>5</v>
@@ -3624,19 +3618,19 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" t="s">
         <v>191</v>
-      </c>
-      <c r="F22" t="s">
-        <v>192</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3649,7 +3643,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB22" s="1">
         <v>-0.7</v>
@@ -3691,10 +3685,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
         <v>210</v>
-      </c>
-      <c r="E1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3711,76 +3705,76 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3862,18 +3856,18 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -3881,13 +3875,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3918,19 +3912,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" t="s">
         <v>219</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>220</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>221</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>222</v>
-      </c>
-      <c r="F1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3941,27 +3935,27 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" t="s">
         <v>225</v>
-      </c>
-      <c r="F3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3969,19 +3963,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" t="s">
         <v>228</v>
-      </c>
-      <c r="F4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3989,19 +3983,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4009,19 +4003,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4029,19 +4023,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4049,19 +4043,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4069,19 +4063,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4089,19 +4083,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4109,19 +4103,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4129,19 +4123,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4149,19 +4143,19 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24150" windowHeight="12120"/>
+    <workbookView windowWidth="27570" windowHeight="14310"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="249">
   <si>
     <t>_Id</t>
   </si>
@@ -204,369 +204,492 @@
     <t>amiya</t>
   </si>
   <si>
-    <t>阿米娅攻击,激活攻速提升</t>
+    <t>阿米娅攻击,战术咏唱·γ型,精神爆发,奇美拉</t>
+  </si>
+  <si>
+    <t>战术咏唱·γ型,精神爆发,奇美拉</t>
+  </si>
+  <si>
+    <t>术士</t>
+  </si>
+  <si>
+    <t>amiya_head</t>
+  </si>
+  <si>
+    <t>苏苏洛</t>
+  </si>
+  <si>
+    <t>susuro</t>
+  </si>
+  <si>
+    <t>奶,激活攻击提升</t>
+  </si>
+  <si>
+    <t>激活攻击提升</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>susuro_head</t>
+  </si>
+  <si>
+    <t>银灰</t>
+  </si>
+  <si>
+    <t>aprl</t>
+  </si>
+  <si>
+    <t>银灰远攻,银灰攻击,真银斩,真银斩降防</t>
+  </si>
+  <si>
+    <t>真银斩</t>
+  </si>
+  <si>
+    <t>近卫</t>
+  </si>
+  <si>
+    <t>aprl_head</t>
+  </si>
+  <si>
+    <t>12f</t>
+  </si>
+  <si>
+    <t>12fce</t>
+  </si>
+  <si>
+    <t>12F</t>
+  </si>
+  <si>
+    <t>阿米娅攻击,战术咏唱·γ型</t>
+  </si>
+  <si>
+    <t>战术咏唱·γ型</t>
+  </si>
+  <si>
+    <t>狙击</t>
+  </si>
+  <si>
+    <t>12fce_head</t>
+  </si>
+  <si>
+    <t>陈</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>chen_head</t>
+  </si>
+  <si>
+    <t>煌</t>
+  </si>
+  <si>
+    <t>huang</t>
+  </si>
+  <si>
+    <t>huang_head</t>
+  </si>
+  <si>
+    <t>杰西卡</t>
+  </si>
+  <si>
+    <t>jesica</t>
+  </si>
+  <si>
+    <t>jesica_head</t>
+  </si>
+  <si>
+    <t>克洛丝</t>
+  </si>
+  <si>
+    <t>kroos</t>
+  </si>
+  <si>
+    <t>妨碍</t>
+  </si>
+  <si>
+    <t>kroos_head</t>
+  </si>
+  <si>
+    <t>星熊</t>
+  </si>
+  <si>
+    <t>hsguma</t>
+  </si>
+  <si>
+    <t>重装</t>
+  </si>
+  <si>
+    <t>hsguma_head</t>
+  </si>
+  <si>
+    <t>莫斯提马</t>
+  </si>
+  <si>
+    <t>mostma</t>
+  </si>
+  <si>
+    <t>mostma_head</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>sora</t>
+  </si>
+  <si>
+    <t>sora_head</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>ReadyType</t>
+  </si>
+  <si>
+    <t>UseType</t>
+  </si>
+  <si>
+    <t>AttackTarget</t>
+  </si>
+  <si>
+    <t>AttackStop</t>
+  </si>
+  <si>
+    <t>TargetTeam</t>
+  </si>
+  <si>
+    <t>AttackFly</t>
+  </si>
+  <si>
+    <t>AttackOrder</t>
+  </si>
+  <si>
+    <t>AttackPoints</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>DamageRate</t>
+  </si>
+  <si>
+    <t>HitCount</t>
+  </si>
+  <si>
+    <t>AreaRange</t>
+  </si>
+  <si>
+    <t>AreaDamage</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>OpenTime</t>
+  </si>
+  <si>
+    <t>StartPower</t>
+  </si>
+  <si>
+    <t>MaxPower</t>
+  </si>
+  <si>
+    <t>PowerCount</t>
+  </si>
+  <si>
+    <t>PowerType</t>
+  </si>
+  <si>
+    <t>IfHeal</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>ModelAnimation</t>
+  </si>
+  <si>
+    <t>Buffs</t>
+  </si>
+  <si>
+    <t>BuffData</t>
+  </si>
+  <si>
+    <t>StartEffect</t>
+  </si>
+  <si>
+    <t>HitEffect</t>
+  </si>
+  <si>
+    <t>EffectEffect</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>SkillReadyEnum</t>
+  </si>
+  <si>
+    <t>SkillUseTypeEnum</t>
+  </si>
+  <si>
+    <t>AttackTargetEnum</t>
+  </si>
+  <si>
+    <t>AttackTargetOrderEnum</t>
+  </si>
+  <si>
+    <t>Vector2Int[]</t>
+  </si>
+  <si>
+    <t>DamageTypeEnum</t>
+  </si>
+  <si>
+    <t>PowerRecoverTypeEnum</t>
+  </si>
+  <si>
+    <t>Buff[]</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>激活方式</t>
+  </si>
+  <si>
+    <t>使用方式</t>
+  </si>
+  <si>
+    <t>攻击目标</t>
+  </si>
+  <si>
+    <t>攻击阻挡</t>
+  </si>
+  <si>
+    <t>敌对组</t>
+  </si>
+  <si>
+    <t>对空</t>
+  </si>
+  <si>
+    <t>攻击优先级</t>
+  </si>
+  <si>
+    <t>打击点,干员使用</t>
+  </si>
+  <si>
+    <t>倍率</t>
+  </si>
+  <si>
+    <t>攻击数量</t>
+  </si>
+  <si>
+    <t>溅射范围</t>
+  </si>
+  <si>
+    <t>溅射伤害</t>
+  </si>
+  <si>
+    <t>关联技能</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>初始技力</t>
+  </si>
+  <si>
+    <t>最大技力</t>
+  </si>
+  <si>
+    <t>囤积次数</t>
+  </si>
+  <si>
+    <t>回复方式</t>
+  </si>
+  <si>
+    <t>是否治疗</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>攻击动作</t>
+  </si>
+  <si>
+    <t>关联Buff</t>
+  </si>
+  <si>
+    <t>buff数值</t>
+  </si>
+  <si>
+    <t>启动动画</t>
+  </si>
+  <si>
+    <t>命中动画</t>
+  </si>
+  <si>
+    <t>生效动画</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>#阿米娅</t>
+  </si>
+  <si>
+    <t>阿米娅攻击</t>
+  </si>
+  <si>
+    <t>普通技能</t>
+  </si>
+  <si>
+    <t>敌对</t>
+  </si>
+  <si>
+    <t>离家近</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>阿米娅子弹</t>
+  </si>
+  <si>
+    <t>减速</t>
+  </si>
+  <si>
+    <t>蓄力</t>
+  </si>
+  <si>
+    <t>击中1</t>
+  </si>
+  <si>
+    <t>攻击速度+60</t>
+  </si>
+  <si>
+    <t>特技激活</t>
+  </si>
+  <si>
+    <t>被动</t>
+  </si>
+  <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>自动</t>
+  </si>
+  <si>
+    <t>攻速提升</t>
+  </si>
+  <si>
+    <t>强力击·γ型</t>
+  </si>
+  <si>
+    <t>精神爆发</t>
+  </si>
+  <si>
+    <t>每次攻击变为45%的7连发,随机攻击范围里的目标。</t>
+  </si>
+  <si>
+    <t>箭矢·散逸</t>
+  </si>
+  <si>
+    <t>奇美拉</t>
+  </si>
+  <si>
+    <t>攻击力+160%，攻击范围扩大,伤害类型变为真实。</t>
+  </si>
+  <si>
+    <t>手动</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>焰淬匕首</t>
   </si>
   <si>
     <t>激活攻速提升</t>
   </si>
   <si>
-    <t>术士</t>
-  </si>
-  <si>
-    <t>amiya_head</t>
-  </si>
-  <si>
-    <t>苏苏洛</t>
-  </si>
-  <si>
-    <t>susuro</t>
-  </si>
-  <si>
-    <t>奶,激活攻击提升</t>
-  </si>
-  <si>
-    <t>激活攻击提升</t>
-  </si>
-  <si>
-    <t>医疗</t>
-  </si>
-  <si>
-    <t>susuro_head</t>
-  </si>
-  <si>
-    <t>银灰</t>
-  </si>
-  <si>
-    <t>aprl</t>
-  </si>
-  <si>
-    <t>银灰远攻,银灰攻击,真银斩,真银斩降防</t>
-  </si>
-  <si>
-    <t>真银斩</t>
-  </si>
-  <si>
-    <t>近卫</t>
-  </si>
-  <si>
-    <t>aprl_head</t>
-  </si>
-  <si>
-    <t>12f</t>
-  </si>
-  <si>
-    <t>12fce</t>
-  </si>
-  <si>
-    <t>12F</t>
-  </si>
-  <si>
-    <t>狙击</t>
-  </si>
-  <si>
-    <t>12fce_head</t>
-  </si>
-  <si>
-    <t>陈</t>
-  </si>
-  <si>
-    <t>chen</t>
-  </si>
-  <si>
-    <t>chen_head</t>
-  </si>
-  <si>
-    <t>煌</t>
-  </si>
-  <si>
-    <t>huang</t>
-  </si>
-  <si>
-    <t>huang_head</t>
-  </si>
-  <si>
-    <t>杰西卡</t>
-  </si>
-  <si>
-    <t>jesica</t>
-  </si>
-  <si>
-    <t>jesica_head</t>
-  </si>
-  <si>
-    <t>克洛丝</t>
-  </si>
-  <si>
-    <t>kroos</t>
-  </si>
-  <si>
-    <t>妨碍</t>
-  </si>
-  <si>
-    <t>kroos_head</t>
-  </si>
-  <si>
-    <t>星熊</t>
-  </si>
-  <si>
-    <t>hsguma</t>
-  </si>
-  <si>
-    <t>重装</t>
-  </si>
-  <si>
-    <t>hsguma_head</t>
-  </si>
-  <si>
-    <t>莫斯提马</t>
-  </si>
-  <si>
-    <t>mostma</t>
-  </si>
-  <si>
-    <t>mostma_head</t>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>sora</t>
-  </si>
-  <si>
-    <t>sora_head</t>
-  </si>
-  <si>
-    <t>ReadyType</t>
-  </si>
-  <si>
-    <t>UseType</t>
-  </si>
-  <si>
-    <t>AttackTarget</t>
-  </si>
-  <si>
-    <t>AttackStop</t>
-  </si>
-  <si>
-    <t>TargetTeam</t>
-  </si>
-  <si>
-    <t>AttackFly</t>
-  </si>
-  <si>
-    <t>AttackOrder</t>
-  </si>
-  <si>
-    <t>AttackPoints</t>
-  </si>
-  <si>
-    <t>DamageType</t>
-  </si>
-  <si>
-    <t>DamageRate</t>
-  </si>
-  <si>
-    <t>HitCount</t>
-  </si>
-  <si>
-    <t>AreaRange</t>
-  </si>
-  <si>
-    <t>AreaDamage</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>OpenTime</t>
-  </si>
-  <si>
-    <t>StartPower</t>
-  </si>
-  <si>
-    <t>MaxPower</t>
-  </si>
-  <si>
-    <t>PowerCount</t>
-  </si>
-  <si>
-    <t>PowerType</t>
-  </si>
-  <si>
-    <t>IfHeal</t>
-  </si>
-  <si>
-    <t>Bullet</t>
-  </si>
-  <si>
-    <t>ModelAnimation</t>
-  </si>
-  <si>
-    <t>Buffs</t>
-  </si>
-  <si>
-    <t>BuffData</t>
-  </si>
-  <si>
-    <t>StartEffect</t>
-  </si>
-  <si>
-    <t>HitEffect</t>
-  </si>
-  <si>
-    <t>EffectEffect</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>SkillReadyEnum</t>
-  </si>
-  <si>
-    <t>SkillUseTypeEnum</t>
-  </si>
-  <si>
-    <t>AttackTargetEnum</t>
-  </si>
-  <si>
-    <t>AttackTargetOrderEnum</t>
-  </si>
-  <si>
-    <t>Vector2Int[]</t>
-  </si>
-  <si>
-    <t>DamageTypeEnum</t>
-  </si>
-  <si>
-    <t>PowerRecoverTypeEnum</t>
-  </si>
-  <si>
-    <t>Buff[]</t>
-  </si>
-  <si>
-    <t>float[]</t>
-  </si>
-  <si>
-    <t>激活方式</t>
-  </si>
-  <si>
-    <t>使用方式</t>
-  </si>
-  <si>
-    <t>攻击目标</t>
-  </si>
-  <si>
-    <t>攻击阻挡</t>
-  </si>
-  <si>
-    <t>敌对组</t>
-  </si>
-  <si>
-    <t>对空</t>
-  </si>
-  <si>
-    <t>攻击优先级</t>
-  </si>
-  <si>
-    <t>打击点,干员使用</t>
-  </si>
-  <si>
-    <t>倍率</t>
-  </si>
-  <si>
-    <t>攻击数量</t>
-  </si>
-  <si>
-    <t>溅射范围</t>
-  </si>
-  <si>
-    <t>溅射伤害</t>
-  </si>
-  <si>
-    <t>关联技能</t>
-  </si>
-  <si>
-    <t>冷却</t>
-  </si>
-  <si>
-    <t>持续时间</t>
-  </si>
-  <si>
-    <t>初始技力</t>
-  </si>
-  <si>
-    <t>最大技力</t>
-  </si>
-  <si>
-    <t>囤积次数</t>
-  </si>
-  <si>
-    <t>回复方式</t>
-  </si>
-  <si>
-    <t>是否治疗</t>
-  </si>
-  <si>
-    <t>子弹</t>
-  </si>
-  <si>
-    <t>攻击动作</t>
-  </si>
-  <si>
-    <t>关联Buff</t>
-  </si>
-  <si>
-    <t>buff数值</t>
-  </si>
-  <si>
-    <t>启动动画</t>
-  </si>
-  <si>
-    <t>命中动画</t>
-  </si>
-  <si>
-    <t>生效动画</t>
-  </si>
-  <si>
-    <t>攻击距离</t>
-  </si>
-  <si>
-    <t>阿米娅攻击</t>
-  </si>
-  <si>
-    <t>普通技能</t>
-  </si>
-  <si>
-    <t>敌对</t>
-  </si>
-  <si>
-    <t>离家近</t>
-  </si>
-  <si>
-    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>阿米娅子弹</t>
-  </si>
-  <si>
-    <t>减速</t>
-  </si>
-  <si>
-    <t>蓄力</t>
-  </si>
-  <si>
-    <t>击中1</t>
+    <t>攻击提升</t>
+  </si>
+  <si>
+    <t>奶</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>群奶</t>
+  </si>
+  <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>阻挡</t>
+  </si>
+  <si>
+    <t>0,0#1,0</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>射击</t>
+  </si>
+  <si>
+    <t>飞行</t>
+  </si>
+  <si>
+    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
+  </si>
+  <si>
+    <t>群狙</t>
+  </si>
+  <si>
+    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
+  </si>
+  <si>
+    <t>银灰攻击</t>
+  </si>
+  <si>
+    <t>银灰远攻</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#3,0</t>
+  </si>
+  <si>
+    <t>真银斩降防</t>
+  </si>
+  <si>
+    <t>防御提升</t>
   </si>
   <si>
     <t>阿米娅强力击</t>
   </si>
   <si>
-    <t>自动</t>
-  </si>
-  <si>
     <t>强力击</t>
   </si>
   <si>
@@ -576,76 +699,7 @@
     <t>阿米娅手动强力击</t>
   </si>
   <si>
-    <t>手动</t>
-  </si>
-  <si>
-    <t>阻挡</t>
-  </si>
-  <si>
     <t>放置顺序</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>特技激活</t>
-  </si>
-  <si>
-    <t>被动</t>
-  </si>
-  <si>
-    <t>自己</t>
-  </si>
-  <si>
-    <t>攻速提升</t>
-  </si>
-  <si>
-    <t>攻击提升</t>
-  </si>
-  <si>
-    <t>奶</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>群奶</t>
-  </si>
-  <si>
-    <t>近战</t>
-  </si>
-  <si>
-    <t>0,0#1,0</t>
-  </si>
-  <si>
-    <t>射击</t>
-  </si>
-  <si>
-    <t>飞行</t>
-  </si>
-  <si>
-    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
-  </si>
-  <si>
-    <t>群狙</t>
-  </si>
-  <si>
-    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
-  </si>
-  <si>
-    <t>银灰攻击</t>
-  </si>
-  <si>
-    <t>银灰远攻</t>
-  </si>
-  <si>
-    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#3,0</t>
-  </si>
-  <si>
-    <t>真银斩降防</t>
-  </si>
-  <si>
-    <t>防御提升</t>
   </si>
   <si>
     <t>LastTime</t>
@@ -719,8 +773,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -753,9 +807,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,9 +828,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,39 +843,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,23 +859,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,10 +891,33 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -889,9 +929,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,67 +960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +978,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,13 +1026,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,25 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,31 +1062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,7 +1080,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,13 +1154,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,30 +1180,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,8 +1211,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,6 +1231,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1205,10 +1259,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,133 +1271,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2296,11 +2350,17 @@
       <c r="N11">
         <v>0.5</v>
       </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s">
+        <v>81</v>
+      </c>
       <c r="Z11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB11" t="s">
         <v>78</v>
@@ -2311,16 +2371,16 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -2352,14 +2412,20 @@
       <c r="N12">
         <v>0.5</v>
       </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="s">
+        <v>81</v>
+      </c>
       <c r="Z12" t="s">
         <v>75</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC12">
         <v>6</v>
@@ -2367,16 +2433,16 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2408,14 +2474,20 @@
       <c r="N13">
         <v>0.5</v>
       </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s">
+        <v>81</v>
+      </c>
       <c r="Z13" t="s">
         <v>75</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC13">
         <v>6</v>
@@ -2423,16 +2495,16 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -2464,14 +2536,20 @@
       <c r="N14">
         <v>0.5</v>
       </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s">
+        <v>81</v>
+      </c>
       <c r="Z14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC14">
         <v>4</v>
@@ -2479,16 +2557,16 @@
     </row>
     <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2520,14 +2598,20 @@
       <c r="N15">
         <v>0.5</v>
       </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="s">
+        <v>81</v>
+      </c>
       <c r="Z15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AA15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB15" t="s">
         <v>94</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>92</v>
       </c>
       <c r="AC15">
         <v>4</v>
@@ -2535,16 +2619,16 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2576,14 +2660,20 @@
       <c r="N16">
         <v>0.5</v>
       </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" t="s">
+        <v>81</v>
+      </c>
       <c r="Z16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AA16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB16" t="s">
         <v>98</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>96</v>
       </c>
       <c r="AC16">
         <v>6</v>
@@ -2591,16 +2681,16 @@
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -2632,14 +2722,20 @@
       <c r="N17">
         <v>0.5</v>
       </c>
+      <c r="O17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" t="s">
+        <v>81</v>
+      </c>
       <c r="Z17" t="s">
         <v>63</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AC17">
         <v>6</v>
@@ -2647,16 +2743,16 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -2688,14 +2784,20 @@
       <c r="N18">
         <v>0.5</v>
       </c>
+      <c r="O18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" t="s">
+        <v>81</v>
+      </c>
       <c r="Z18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AB18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AC18">
         <v>4</v>
@@ -2711,41 +2813,43 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
-    <col min="8" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
-    <col min="12" max="12" width="7.125" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
-    <col min="15" max="17" width="8.375" customWidth="1"/>
-    <col min="18" max="18" width="4.5" customWidth="1"/>
-    <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="7.375" style="2" customWidth="1"/>
-    <col min="21" max="22" width="8.5" style="2" customWidth="1"/>
-    <col min="23" max="23" width="7.875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="16" customWidth="1"/>
-    <col min="32" max="32" width="9.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="9" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="7.125" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="15" width="8.25" customWidth="1"/>
+    <col min="16" max="18" width="8.375" customWidth="1"/>
+    <col min="19" max="19" width="4.5" customWidth="1"/>
+    <col min="20" max="20" width="8" customWidth="1"/>
+    <col min="21" max="21" width="7.375" style="2" customWidth="1"/>
+    <col min="22" max="23" width="8.5" style="2" customWidth="1"/>
+    <col min="24" max="24" width="7.875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="16" customWidth="1"/>
+    <col min="33" max="33" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2753,97 +2857,103 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
-        <v>118</v>
-      </c>
       <c r="S1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="T1" t="s">
+        <v>122</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="X1" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="Y1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Z1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AA1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AB1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AE1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
+        <v>133</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2851,85 +2961,85 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
         <v>29</v>
       </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>136</v>
-      </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
       </c>
       <c r="P2" t="s">
         <v>31</v>
       </c>
       <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
       </c>
       <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="X2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" t="s">
-        <v>125</v>
-      </c>
       <c r="Z2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA2" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" t="s">
-        <v>140</v>
-      </c>
       <c r="AB2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC2" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="AD2" t="s">
         <v>29</v>
@@ -2937,721 +3047,891 @@
       <c r="AE2" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AH2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M3" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="L3" t="s">
+        <v>154</v>
       </c>
       <c r="N3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="R3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="S3" t="s">
-        <v>156</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="T3" t="s">
+        <v>161</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="X3" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="Y3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Z3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AA3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AB3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AC3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AD3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AE3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>172</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K4" t="s">
-        <v>174</v>
-      </c>
-      <c r="L4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M4">
+      <c r="K5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="R4">
+      <c r="S5">
         <v>2</v>
       </c>
-      <c r="Y4" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="Z5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA5" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB4">
+      <c r="AB5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC5">
         <v>0.8</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
         <v>178</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" t="s">
+        <v>182</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>3</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC6">
+        <v>60</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>180</v>
       </c>
-      <c r="B5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="L7" t="s">
         <v>181</v>
       </c>
-      <c r="E5" t="s">
+      <c r="M7" t="s">
         <v>182</v>
       </c>
-      <c r="F5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5">
+      <c r="N7">
+        <v>0.45</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" t="s">
-        <v>175</v>
-      </c>
-      <c r="M5">
+      <c r="K8" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N8">
+        <v>1.6</v>
+      </c>
+      <c r="S8">
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
         <v>3</v>
       </c>
-      <c r="R5">
-        <v>0.2</v>
-      </c>
-      <c r="S5">
-        <v>0.2</v>
-      </c>
-      <c r="T5" s="2">
+      <c r="AH8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="U5" s="2">
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
         <v>3</v>
       </c>
-      <c r="V5" s="2">
+      <c r="X10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>3</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="S14">
         <v>2</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" t="s">
         <v>181</v>
       </c>
-      <c r="Y5" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>173</v>
-      </c>
-      <c r="K6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L6" t="s">
-        <v>175</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>3</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>10</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>3</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>10</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2">
-        <v>3</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>195</v>
-      </c>
-      <c r="K13" t="s">
-        <v>174</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" t="s">
-        <v>172</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>195</v>
-      </c>
-      <c r="K14" t="s">
-        <v>174</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>173</v>
-      </c>
-      <c r="K15" t="s">
-        <v>198</v>
-      </c>
-      <c r="L15" t="s">
-        <v>188</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" t="s">
-        <v>172</v>
+        <v>178</v>
+      </c>
+      <c r="G16" t="s">
+        <v>209</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="J16" t="s">
-        <v>200</v>
+      <c r="I16">
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>188</v>
-      </c>
-      <c r="M16">
+        <v>210</v>
+      </c>
+      <c r="M16" t="s">
+        <v>211</v>
+      </c>
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2</v>
       </c>
-      <c r="Y16" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>213</v>
+      </c>
+      <c r="L17" t="s">
+        <v>214</v>
+      </c>
+      <c r="M17" t="s">
+        <v>211</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="J17" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" t="s">
-        <v>203</v>
-      </c>
-      <c r="L17" t="s">
-        <v>188</v>
-      </c>
-      <c r="M17">
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>216</v>
+      </c>
+      <c r="M18" t="s">
+        <v>211</v>
+      </c>
+      <c r="N18">
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="P18">
         <v>1</v>
       </c>
-      <c r="P17">
+      <c r="Q18">
         <v>0.5</v>
       </c>
-      <c r="R17">
+      <c r="S18">
         <v>2</v>
       </c>
-      <c r="Y17" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="Z18" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
-      <c r="A19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19">
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="J19" t="s">
-        <v>173</v>
-      </c>
-      <c r="L19" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19">
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="s">
+        <v>211</v>
+      </c>
+      <c r="N20">
         <v>1</v>
       </c>
-      <c r="R19">
+      <c r="S20">
         <v>1</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>173</v>
-      </c>
-      <c r="K20" t="s">
-        <v>206</v>
-      </c>
-      <c r="L20" t="s">
-        <v>188</v>
-      </c>
-      <c r="M20">
-        <v>0.8</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>179</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>173</v>
-      </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" t="s">
+        <v>211</v>
+      </c>
+      <c r="N21">
+        <v>0.8</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" t="s">
         <v>188</v>
       </c>
-      <c r="M21">
+      <c r="E22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" t="s">
+        <v>211</v>
+      </c>
+      <c r="N22">
         <v>1.6</v>
       </c>
-      <c r="N21">
+      <c r="O22">
         <v>6</v>
       </c>
-      <c r="R21">
+      <c r="S22">
         <v>2</v>
       </c>
-      <c r="S21">
+      <c r="T22">
         <v>20</v>
       </c>
-      <c r="T21" s="2">
+      <c r="U22" s="2">
         <v>35</v>
       </c>
-      <c r="U21" s="2">
+      <c r="V22" s="2">
         <v>40</v>
       </c>
-      <c r="V21" s="2">
+      <c r="W22" s="2">
         <v>1</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="X22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23"/>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" t="s">
         <v>181</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="M32" t="s">
+        <v>182</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>0.2</v>
+      </c>
+      <c r="T32">
+        <v>0.2</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>3</v>
+      </c>
+      <c r="W32" s="2">
+        <v>2</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
-      <c r="A22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" t="s">
+    <row r="33" spans="1:27">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>180</v>
+      </c>
+      <c r="L33" t="s">
+        <v>181</v>
+      </c>
+      <c r="M33" t="s">
+        <v>182</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>3</v>
+      </c>
+      <c r="W33" s="2">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H22">
+      <c r="Z33" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>-0.7</v>
-      </c>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22"/>
+      <c r="K34" t="s">
+        <v>226</v>
+      </c>
+      <c r="M34" t="s">
+        <v>211</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3685,10 +3965,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3705,7 +3985,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3715,10 +3995,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3726,55 +4006,55 @@
         <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3861,13 +4141,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -3875,13 +4155,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3912,19 +4192,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3935,16 +4215,16 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3952,10 +4232,10 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3963,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -3972,10 +4252,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3983,7 +4263,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -3992,10 +4272,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4003,7 +4283,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -4012,10 +4292,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4023,7 +4303,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -4032,10 +4312,10 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4043,7 +4323,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
@@ -4052,10 +4332,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4063,7 +4343,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -4072,10 +4352,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4083,7 +4363,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -4092,10 +4372,10 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F10" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4103,7 +4383,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -4112,10 +4392,10 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F11" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4123,7 +4403,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -4132,10 +4412,10 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F12" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4143,7 +4423,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -4152,10 +4432,10 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27570" windowHeight="14310"/>
+    <workbookView windowWidth="24150" windowHeight="12120" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="274">
   <si>
     <t>_Id</t>
   </si>
@@ -192,6 +192,12 @@
     <t>狗攻击</t>
   </si>
   <si>
+    <t>盾</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -204,7 +210,7 @@
     <t>amiya</t>
   </si>
   <si>
-    <t>阿米娅攻击,战术咏唱·γ型,精神爆发,奇美拉</t>
+    <t>阿米娅攻击</t>
   </si>
   <si>
     <t>战术咏唱·γ型,精神爆发,奇美拉</t>
@@ -237,21 +243,24 @@
     <t>银灰</t>
   </si>
   <si>
+    <t>hsguma</t>
+  </si>
+  <si>
+    <t>银灰远攻,银灰攻击</t>
+  </si>
+  <si>
+    <t>真银斩</t>
+  </si>
+  <si>
+    <t>近卫</t>
+  </si>
+  <si>
+    <t>SilverAsh_head</t>
+  </si>
+  <si>
     <t>aprl</t>
   </si>
   <si>
-    <t>银灰远攻,银灰攻击,真银斩,真银斩降防</t>
-  </si>
-  <si>
-    <t>真银斩</t>
-  </si>
-  <si>
-    <t>近卫</t>
-  </si>
-  <si>
-    <t>aprl_head</t>
-  </si>
-  <si>
     <t>12f</t>
   </si>
   <si>
@@ -261,42 +270,48 @@
     <t>12F</t>
   </si>
   <si>
-    <t>阿米娅攻击,战术咏唱·γ型</t>
+    <t>加费</t>
+  </si>
+  <si>
+    <t>12fce_head</t>
+  </si>
+  <si>
+    <t>陈</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>近战,近战远攻</t>
   </si>
   <si>
     <t>战术咏唱·γ型</t>
   </si>
   <si>
+    <t>chen_head</t>
+  </si>
+  <si>
+    <t>煌</t>
+  </si>
+  <si>
+    <t>huang</t>
+  </si>
+  <si>
+    <t>huang_head</t>
+  </si>
+  <si>
+    <t>杰西卡</t>
+  </si>
+  <si>
+    <t>jesica</t>
+  </si>
+  <si>
+    <t>群狙</t>
+  </si>
+  <si>
     <t>狙击</t>
   </si>
   <si>
-    <t>12fce_head</t>
-  </si>
-  <si>
-    <t>陈</t>
-  </si>
-  <si>
-    <t>chen</t>
-  </si>
-  <si>
-    <t>chen_head</t>
-  </si>
-  <si>
-    <t>煌</t>
-  </si>
-  <si>
-    <t>huang</t>
-  </si>
-  <si>
-    <t>huang_head</t>
-  </si>
-  <si>
-    <t>杰西卡</t>
-  </si>
-  <si>
-    <t>jesica</t>
-  </si>
-  <si>
     <t>jesica_head</t>
   </si>
   <si>
@@ -306,6 +321,9 @@
     <t>kroos</t>
   </si>
   <si>
+    <t>减速攻击</t>
+  </si>
+  <si>
     <t>妨碍</t>
   </si>
   <si>
@@ -315,9 +333,6 @@
     <t>星熊</t>
   </si>
   <si>
-    <t>hsguma</t>
-  </si>
-  <si>
     <t>重装</t>
   </si>
   <si>
@@ -339,6 +354,12 @@
     <t>sora</t>
   </si>
   <si>
+    <t>大范围自动加血</t>
+  </si>
+  <si>
+    <t>大范围减速</t>
+  </si>
+  <si>
     <t>sora_head</t>
   </si>
   <si>
@@ -384,6 +405,9 @@
     <t>AreaDamage</t>
   </si>
   <si>
+    <t>ExSkills</t>
+  </si>
+  <si>
     <t>Cooldown</t>
   </si>
   <si>
@@ -501,6 +525,9 @@
     <t>关联技能</t>
   </si>
   <si>
+    <t>附加技能</t>
+  </si>
+  <si>
     <t>冷却</t>
   </si>
   <si>
@@ -552,9 +579,6 @@
     <t>#阿米娅</t>
   </si>
   <si>
-    <t>阿米娅攻击</t>
-  </si>
-  <si>
     <t>普通技能</t>
   </si>
   <si>
@@ -573,118 +597,163 @@
     <t>阿米娅子弹</t>
   </si>
   <si>
+    <t>攻击速度+60</t>
+  </si>
+  <si>
+    <t>特技激活</t>
+  </si>
+  <si>
+    <t>被动</t>
+  </si>
+  <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>自动</t>
+  </si>
+  <si>
+    <t>攻速提升</t>
+  </si>
+  <si>
+    <t>强力击·γ型</t>
+  </si>
+  <si>
+    <t>精神爆发</t>
+  </si>
+  <si>
+    <t>伤害连发</t>
+  </si>
+  <si>
+    <t>每次攻击变为45%的7连发,随机攻击范围里的目标。</t>
+  </si>
+  <si>
+    <t>手动</t>
+  </si>
+  <si>
+    <t>箭矢·散逸</t>
+  </si>
+  <si>
+    <t>奇美拉</t>
+  </si>
+  <si>
+    <t>攻击力+160%，攻击范围扩大,伤害类型变为真实。</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>焰淬匕首</t>
+  </si>
+  <si>
+    <t>激活攻速提升</t>
+  </si>
+  <si>
+    <t>攻击提升</t>
+  </si>
+  <si>
+    <t>奶</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>群奶</t>
+  </si>
+  <si>
+    <t>可以治疗多个友军单位</t>
+  </si>
+  <si>
+    <t>冲锋号令</t>
+  </si>
+  <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>阻挡</t>
+  </si>
+  <si>
+    <t>0,0#1,0</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>近战远攻</t>
+  </si>
+  <si>
+    <t>射击</t>
+  </si>
+  <si>
+    <t>优先攻击飞行单位。</t>
+  </si>
+  <si>
+    <t>飞行</t>
+  </si>
+  <si>
+    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
+  </si>
+  <si>
+    <t>攻击会造成溅射,对周围单位造成伤害。</t>
+  </si>
+  <si>
+    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
+  </si>
+  <si>
+    <t>主动</t>
+  </si>
+  <si>
+    <t>蓄力</t>
+  </si>
+  <si>
+    <t>击中1</t>
+  </si>
+  <si>
+    <t>箭矢·追猎</t>
+  </si>
+  <si>
+    <t>获得费用</t>
+  </si>
+  <si>
+    <t>立刻获得10费用。</t>
+  </si>
+  <si>
+    <t>银灰攻击</t>
+  </si>
+  <si>
+    <t>银灰远攻</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#3,0</t>
+  </si>
+  <si>
+    <t>攻击范围扩大，攻击力提高60%，自身防御下降70%，攻击6个目标。</t>
+  </si>
+  <si>
+    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1#-2,0</t>
+  </si>
+  <si>
+    <t>真银斩降防</t>
+  </si>
+  <si>
+    <t>击中2</t>
+  </si>
+  <si>
+    <t>防御提升</t>
+  </si>
+  <si>
+    <t>攻击可以减缓目标移速。</t>
+  </si>
+  <si>
     <t>减速</t>
   </si>
   <si>
-    <t>蓄力</t>
-  </si>
-  <si>
-    <t>击中1</t>
-  </si>
-  <si>
-    <t>攻击速度+60</t>
-  </si>
-  <si>
-    <t>特技激活</t>
-  </si>
-  <si>
-    <t>被动</t>
-  </si>
-  <si>
-    <t>自己</t>
-  </si>
-  <si>
-    <t>自动</t>
-  </si>
-  <si>
-    <t>攻速提升</t>
-  </si>
-  <si>
-    <t>强力击·γ型</t>
-  </si>
-  <si>
-    <t>精神爆发</t>
-  </si>
-  <si>
-    <t>每次攻击变为45%的7连发,随机攻击范围里的目标。</t>
-  </si>
-  <si>
-    <t>箭矢·散逸</t>
-  </si>
-  <si>
-    <t>奇美拉</t>
-  </si>
-  <si>
-    <t>攻击力+160%，攻击范围扩大,伤害类型变为真实。</t>
-  </si>
-  <si>
-    <t>手动</t>
-  </si>
-  <si>
-    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>焰淬匕首</t>
-  </si>
-  <si>
-    <t>激活攻速提升</t>
-  </si>
-  <si>
-    <t>攻击提升</t>
-  </si>
-  <si>
-    <t>奶</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>群奶</t>
-  </si>
-  <si>
-    <t>近战</t>
-  </si>
-  <si>
-    <t>阻挡</t>
-  </si>
-  <si>
-    <t>0,0#1,0</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>射击</t>
-  </si>
-  <si>
-    <t>飞行</t>
-  </si>
-  <si>
-    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
-  </si>
-  <si>
-    <t>群狙</t>
-  </si>
-  <si>
-    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
-  </si>
-  <si>
-    <t>银灰攻击</t>
-  </si>
-  <si>
-    <t>银灰远攻</t>
-  </si>
-  <si>
-    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#3,0</t>
-  </si>
-  <si>
-    <t>真银斩降防</t>
-  </si>
-  <si>
-    <t>防御提升</t>
+    <t>广范围减速敌人</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#-1,0#2,0#1,1#1,-1#0,2#0,-2#-1,1#-1,-1#-2,0#3,0#2,1#2,-1#1,2#1,-2#0,3#0,-3#-1,2#-1,-2#-2,-1#-2,1#-3,0</t>
   </si>
   <si>
     <t>阿米娅强力击</t>
@@ -726,6 +795,9 @@
     <t>"t":["DefenceRate"]</t>
   </si>
   <si>
+    <t>蓝色子弹</t>
+  </si>
+  <si>
     <t>testBullet</t>
   </si>
   <si>
@@ -765,7 +837,10 @@
     <t>TestMap</t>
   </si>
   <si>
-    <t>0,3#8,1#1,1</t>
+    <t>0,1#9,1</t>
+  </si>
+  <si>
+    <t>0,0</t>
   </si>
 </sst>
 </file>
@@ -773,8 +848,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -808,20 +883,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -837,7 +898,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,6 +913,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -859,16 +981,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,75 +1025,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -960,13 +1035,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,121 +1185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,25 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,6 +1213,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1151,6 +1226,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1184,17 +1270,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,11 +1288,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,19 +1321,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1259,10 +1334,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,133 +1346,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1765,14 +1840,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2069,7 +2144,7 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2090,164 +2165,69 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0.3</v>
+      </c>
+      <c r="X6">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>18</v>
-      </c>
-      <c r="J8">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-      <c r="M8">
-        <v>0.2</v>
-      </c>
-      <c r="N8">
-        <v>0.5</v>
-      </c>
-      <c r="O8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>0.49</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
-      <c r="J9">
-        <v>20</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
-      <c r="M9">
-        <v>0.2</v>
-      </c>
-      <c r="N9">
-        <v>0.5</v>
-      </c>
-      <c r="O9" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>0.49</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC9">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -2262,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J10">
         <v>20</v>
@@ -2280,45 +2260,45 @@
         <v>0.5</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
-      </c>
-      <c r="S10">
+        <v>64</v>
+      </c>
+      <c r="R10">
         <v>1</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>0.49</v>
       </c>
       <c r="Z10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>66</v>
       </c>
       <c r="AB10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AC10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -2351,19 +2331,28 @@
         <v>0.5</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0.49</v>
       </c>
       <c r="Z11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>72</v>
       </c>
       <c r="AB11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="AC11">
         <v>4</v>
@@ -2371,16 +2360,16 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -2413,19 +2402,28 @@
         <v>0.5</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>0.49</v>
       </c>
       <c r="Z12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AC12">
         <v>6</v>
@@ -2433,16 +2431,16 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2475,36 +2473,42 @@
         <v>0.5</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB13" t="s">
         <v>81</v>
       </c>
-      <c r="Z13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>88</v>
-      </c>
       <c r="AC13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -2537,36 +2541,42 @@
         <v>0.5</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
       </c>
       <c r="Z14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AB14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AC14">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2599,36 +2609,42 @@
         <v>0.5</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
       </c>
       <c r="Z15" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AB15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AC15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2661,36 +2677,42 @@
         <v>0.5</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P16" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
       </c>
       <c r="Z16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AB16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AC16">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -2723,36 +2745,42 @@
         <v>0.5</v>
       </c>
       <c r="O17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
       </c>
       <c r="Z17" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AC17">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -2785,21 +2813,163 @@
         <v>0.5</v>
       </c>
       <c r="O18" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
       </c>
       <c r="Z18" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AA18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="AB18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC18">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.2</v>
+      </c>
+      <c r="N19">
+        <v>0.5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.2</v>
+      </c>
+      <c r="N20">
+        <v>0.5</v>
+      </c>
+      <c r="O20" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC20">
         <v>4</v>
       </c>
     </row>
@@ -2813,14 +2983,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2839,17 +3009,17 @@
     <col min="13" max="13" width="7.125" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="8.25" customWidth="1"/>
-    <col min="16" max="18" width="8.375" customWidth="1"/>
-    <col min="19" max="19" width="4.5" customWidth="1"/>
-    <col min="20" max="20" width="8" customWidth="1"/>
-    <col min="21" max="21" width="7.375" style="2" customWidth="1"/>
-    <col min="22" max="23" width="8.5" style="2" customWidth="1"/>
-    <col min="24" max="24" width="7.875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="16" customWidth="1"/>
-    <col min="33" max="33" width="9.5" style="3" customWidth="1"/>
+    <col min="16" max="19" width="8.375" customWidth="1"/>
+    <col min="20" max="20" width="4.5" customWidth="1"/>
+    <col min="21" max="21" width="8" customWidth="1"/>
+    <col min="22" max="22" width="7.375" style="2" customWidth="1"/>
+    <col min="23" max="24" width="8.5" style="2" customWidth="1"/>
+    <col min="25" max="25" width="7.875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="16" customWidth="1"/>
+    <col min="34" max="34" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2857,103 +3027,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="P1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R1" t="s">
         <v>14</v>
       </c>
       <c r="S1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="T1" t="s">
-        <v>122</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="U1" t="s">
+        <v>130</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>127</v>
+        <v>133</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="Z1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AA1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AB1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="AC1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AD1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AE1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AF1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
+        <v>141</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2964,16 +3137,16 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -2985,13 +3158,13 @@
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="L2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -3009,40 +3182,40 @@
         <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z2" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" t="s">
-        <v>128</v>
-      </c>
       <c r="AA2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB2" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" t="s">
-        <v>144</v>
-      </c>
       <c r="AC2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AD2" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="AE2" t="s">
         <v>29</v>
@@ -3050,243 +3223,240 @@
       <c r="AF2" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="N3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="O3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="R3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="S3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="T3" t="s">
-        <v>161</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="U3" t="s">
+        <v>170</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>166</v>
+        <v>173</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="Z3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AB3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AC3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AD3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AE3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>175</v>
+        <v>181</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M5" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2</v>
       </c>
-      <c r="Z5" t="s">
-        <v>183</v>
-      </c>
       <c r="AA5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB5" t="s">
         <v>5</v>
       </c>
-      <c r="AB5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC5">
-        <v>0.8</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE5" t="s">
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
-      </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M6" t="s">
-        <v>182</v>
-      </c>
-      <c r="T6">
+        <v>190</v>
+      </c>
+      <c r="U6">
         <v>10</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
         <v>3</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC6">
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD6">
         <v>60</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="L7" t="s">
         <v>189</v>
       </c>
-      <c r="G7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" t="s">
-        <v>181</v>
-      </c>
       <c r="M7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="N7">
         <v>0.45</v>
@@ -3294,224 +3464,261 @@
       <c r="O7">
         <v>7</v>
       </c>
+      <c r="P7"/>
       <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
         <v>10</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>0</v>
       </c>
-      <c r="V7" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="W7" s="2">
+        <v>5</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AB7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>180</v>
-      </c>
       <c r="L8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N8">
         <v>1.6</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>10</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
         <v>3</v>
       </c>
-      <c r="AH8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>10</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>0</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <v>3</v>
       </c>
-      <c r="X10" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC10">
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AI10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>10</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>0</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <v>3</v>
       </c>
-      <c r="X11" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC11">
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AI11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L14" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2</v>
       </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="C15" t="s">
+        <v>214</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L15" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2</v>
       </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AI15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3520,416 +3727,675 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M16" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2</v>
       </c>
-      <c r="Z17" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" t="s">
+        <v>224</v>
+      </c>
+      <c r="M18" t="s">
+        <v>219</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>226</v>
+      </c>
+      <c r="M19" t="s">
+        <v>219</v>
+      </c>
+      <c r="N19">
+        <v>1.5</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>0.8</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1</v>
+      </c>
+      <c r="W19" s="2">
+        <v>2</v>
+      </c>
+      <c r="X19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>195</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20" s="2">
+        <v>7</v>
+      </c>
+      <c r="W20" s="2">
+        <v>10</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="s">
         <v>215</v>
       </c>
-      <c r="B18" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18">
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="s">
+        <v>219</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M23" t="s">
+        <v>219</v>
+      </c>
+      <c r="N23">
+        <v>0.8</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="s">
+        <v>219</v>
+      </c>
+      <c r="N24">
+        <v>1.6</v>
+      </c>
+      <c r="O24">
+        <v>6</v>
+      </c>
+      <c r="S24" t="s">
+        <v>238</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>20</v>
+      </c>
+      <c r="V24" s="2">
+        <v>35</v>
+      </c>
+      <c r="W24" s="2">
+        <v>40</v>
+      </c>
+      <c r="X24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>180</v>
-      </c>
-      <c r="L18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M18" t="s">
-        <v>211</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>0.5</v>
-      </c>
-      <c r="S18">
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" t="s">
+        <v>189</v>
+      </c>
+      <c r="M27" t="s">
+        <v>190</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="T27">
         <v>2</v>
       </c>
-      <c r="Z18" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AA27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" t="s">
+      <c r="AC27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD27">
+        <v>0.8</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" t="s">
+        <v>187</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+      <c r="T29">
+        <v>0.2</v>
+      </c>
+      <c r="U29">
+        <v>10</v>
+      </c>
+      <c r="V29" s="2">
+        <v>40</v>
+      </c>
+      <c r="W29" s="2">
+        <v>50</v>
+      </c>
+      <c r="X29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD29">
+        <v>0.8</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" t="s">
+        <v>195</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="N30">
+        <v>0.1</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+      <c r="T30">
+        <v>0.2</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" t="s">
+        <v>187</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>188</v>
+      </c>
+      <c r="L34" t="s">
+        <v>189</v>
+      </c>
+      <c r="M34" t="s">
+        <v>190</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>0.2</v>
+      </c>
+      <c r="U34">
+        <v>0.2</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>3</v>
+      </c>
+      <c r="X34" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>188</v>
+      </c>
+      <c r="L35" t="s">
+        <v>189</v>
+      </c>
+      <c r="M35" t="s">
+        <v>190</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>10</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>3</v>
+      </c>
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" t="s">
         <v>217</v>
       </c>
-      <c r="B20" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" t="s">
-        <v>209</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>180</v>
-      </c>
-      <c r="M20" t="s">
-        <v>211</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>180</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>249</v>
+      </c>
+      <c r="M36" t="s">
         <v>219</v>
       </c>
-      <c r="M21" t="s">
-        <v>211</v>
-      </c>
-      <c r="N21">
-        <v>0.8</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G22" t="s">
-        <v>179</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>180</v>
-      </c>
-      <c r="L22" t="s">
-        <v>216</v>
-      </c>
-      <c r="M22" t="s">
-        <v>211</v>
-      </c>
-      <c r="N22">
-        <v>1.6</v>
-      </c>
-      <c r="O22">
-        <v>6</v>
-      </c>
-      <c r="S22">
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="T36">
         <v>2</v>
       </c>
-      <c r="T22">
-        <v>20</v>
-      </c>
-      <c r="U22" s="2">
-        <v>35</v>
-      </c>
-      <c r="V22" s="2">
-        <v>40</v>
-      </c>
-      <c r="W22" s="2">
-        <v>1</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33">
-      <c r="A23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" t="s">
-        <v>190</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>-0.7</v>
-      </c>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23"/>
-    </row>
-    <row r="32" spans="1:27">
-      <c r="A32" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" t="s">
-        <v>178</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" t="s">
-        <v>179</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="K32" t="s">
-        <v>180</v>
-      </c>
-      <c r="L32" t="s">
-        <v>181</v>
-      </c>
-      <c r="M32" t="s">
-        <v>182</v>
-      </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="O32">
-        <v>3</v>
-      </c>
-      <c r="S32">
-        <v>0.2</v>
-      </c>
-      <c r="T32">
-        <v>0.2</v>
-      </c>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
-      <c r="V32" s="2">
-        <v>3</v>
-      </c>
-      <c r="W32" s="2">
-        <v>2</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
-      <c r="A33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F33" t="s">
-        <v>223</v>
-      </c>
-      <c r="G33" t="s">
-        <v>179</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
-        <v>180</v>
-      </c>
-      <c r="L33" t="s">
-        <v>181</v>
-      </c>
-      <c r="M33" t="s">
-        <v>182</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>3</v>
-      </c>
-      <c r="S33">
-        <v>2</v>
-      </c>
-      <c r="T33">
-        <v>10</v>
-      </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
-      <c r="V33" s="2">
-        <v>3</v>
-      </c>
-      <c r="W33" s="2">
-        <v>1</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" t="s">
-        <v>209</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>226</v>
-      </c>
-      <c r="M34" t="s">
-        <v>211</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="S34">
-        <v>2</v>
-      </c>
-      <c r="AA34" t="s">
+      <c r="AB36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3965,10 +4431,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3985,76 +4451,76 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4096,8 +4562,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -4136,18 +4602,18 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4155,13 +4621,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4176,10 +4642,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4192,19 +4658,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="E1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="F1" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4215,27 +4681,27 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4243,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -4252,10 +4718,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4263,7 +4729,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -4272,10 +4738,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4283,7 +4749,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -4292,10 +4758,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4303,7 +4769,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -4312,10 +4778,10 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4323,7 +4789,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
@@ -4332,10 +4798,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4343,7 +4809,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -4352,10 +4818,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4363,7 +4829,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -4372,10 +4838,10 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4383,7 +4849,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -4392,10 +4858,10 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4403,7 +4869,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -4412,10 +4878,10 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4423,7 +4889,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -4432,10 +4898,30 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F13" t="s">
-        <v>246</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24150" windowHeight="12120" activeTab="4"/>
+    <workbookView windowWidth="24150" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="274">
   <si>
     <t>_Id</t>
   </si>
@@ -603,54 +603,54 @@
     <t>特技激活</t>
   </si>
   <si>
+    <t>手动</t>
+  </si>
+  <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>自动</t>
+  </si>
+  <si>
+    <t>攻速提升</t>
+  </si>
+  <si>
+    <t>强力击·γ型</t>
+  </si>
+  <si>
+    <t>精神爆发</t>
+  </si>
+  <si>
+    <t>伤害连发</t>
+  </si>
+  <si>
+    <t>每次攻击变为45%的7连发,随机攻击范围里的目标。</t>
+  </si>
+  <si>
+    <t>箭矢·散逸</t>
+  </si>
+  <si>
+    <t>奇美拉</t>
+  </si>
+  <si>
+    <t>攻击力+160%，攻击范围扩大,伤害类型变为真实。</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>焰淬匕首</t>
+  </si>
+  <si>
+    <t>激活攻速提升</t>
+  </si>
+  <si>
     <t>被动</t>
   </si>
   <si>
-    <t>自己</t>
-  </si>
-  <si>
-    <t>自动</t>
-  </si>
-  <si>
-    <t>攻速提升</t>
-  </si>
-  <si>
-    <t>强力击·γ型</t>
-  </si>
-  <si>
-    <t>精神爆发</t>
-  </si>
-  <si>
-    <t>伤害连发</t>
-  </si>
-  <si>
-    <t>每次攻击变为45%的7连发,随机攻击范围里的目标。</t>
-  </si>
-  <si>
-    <t>手动</t>
-  </si>
-  <si>
-    <t>箭矢·散逸</t>
-  </si>
-  <si>
-    <t>奇美拉</t>
-  </si>
-  <si>
-    <t>攻击力+160%，攻击范围扩大,伤害类型变为真实。</t>
-  </si>
-  <si>
-    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>焰淬匕首</t>
-  </si>
-  <si>
-    <t>激活攻速提升</t>
-  </si>
-  <si>
     <t>攻击提升</t>
   </si>
   <si>
@@ -729,6 +729,9 @@
     <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#3,0</t>
   </si>
   <si>
+    <t>阿米娅强力击子弹</t>
+  </si>
+  <si>
     <t>攻击范围扩大，攻击力提高60%，自身防御下降70%，攻击6个目标。</t>
   </si>
   <si>
@@ -760,9 +763,6 @@
   </si>
   <si>
     <t>强力击</t>
-  </si>
-  <si>
-    <t>阿米娅强力击子弹</t>
   </si>
   <si>
     <t>阿米娅手动强力击</t>
@@ -849,9 +849,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -882,48 +882,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -935,7 +898,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,38 +922,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,8 +943,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,6 +987,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1035,157 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,7 +1053,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,7 +1179,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,6 +1226,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1255,54 +1264,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1326,6 +1287,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1334,10 +1334,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1346,133 +1346,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1843,11 +1843,11 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2185,7 +2185,7 @@
         <v>15</v>
       </c>
       <c r="H6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2985,12 +2985,12 @@
   <sheetPr/>
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
+      <selection pane="bottomRight" activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3441,7 +3441,7 @@
         <v>193</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G7" t="s">
         <v>187</v>
@@ -3464,7 +3464,6 @@
       <c r="O7">
         <v>7</v>
       </c>
-      <c r="P7"/>
       <c r="T7">
         <v>2</v>
       </c>
@@ -3487,24 +3486,24 @@
         <v>5</v>
       </c>
       <c r="AI7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
         <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
         <v>193</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G8" t="s">
         <v>187</v>
@@ -3516,10 +3515,10 @@
         <v>188</v>
       </c>
       <c r="L8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" t="s">
         <v>206</v>
-      </c>
-      <c r="M8" t="s">
-        <v>207</v>
       </c>
       <c r="N8">
         <v>1.6</v>
@@ -3543,12 +3542,12 @@
         <v>5</v>
       </c>
       <c r="AI8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>186</v>
@@ -3557,7 +3556,7 @@
         <v>193</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
         <v>195</v>
@@ -3587,7 +3586,7 @@
         <v>100</v>
       </c>
       <c r="AI10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -3601,7 +3600,7 @@
         <v>193</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G11" t="s">
         <v>195</v>
@@ -3631,7 +3630,7 @@
         <v>0.5</v>
       </c>
       <c r="AI11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -3897,7 +3896,7 @@
         <v>232</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
         <v>195</v>
@@ -3991,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="AA23" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="AB23" t="s">
         <v>5</v>
@@ -4005,13 +4004,13 @@
         <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D24" t="s">
         <v>193</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
         <v>187</v>
@@ -4026,7 +4025,7 @@
         <v>188</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s">
         <v>219</v>
@@ -4038,7 +4037,7 @@
         <v>6</v>
       </c>
       <c r="S24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T24">
         <v>2</v>
@@ -4062,7 +4061,7 @@
         <v>5</v>
       </c>
       <c r="AF24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI24" t="s">
         <v>76</v>
@@ -4070,7 +4069,7 @@
     </row>
     <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
         <v>186</v>
@@ -4079,7 +4078,7 @@
         <v>193</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
         <v>195</v>
@@ -4095,7 +4094,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AD25" s="1">
         <v>-0.7</v>
@@ -4105,7 +4104,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25"/>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:35">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G27" t="s">
         <v>187</v>
@@ -4143,7 +4142,7 @@
         <v>5</v>
       </c>
       <c r="AC27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AD27">
         <v>0.8</v>
@@ -4153,6 +4152,9 @@
       </c>
       <c r="AF27" t="s">
         <v>229</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -4163,13 +4165,13 @@
         <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s">
         <v>193</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G29" t="s">
         <v>187</v>
@@ -4181,7 +4183,7 @@
         <v>188</v>
       </c>
       <c r="L29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O29">
         <v>100</v>
@@ -4205,7 +4207,7 @@
         <v>196</v>
       </c>
       <c r="AC29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AD29">
         <v>0.8</v>
@@ -4234,10 +4236,10 @@
         <v>188</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N30">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O30">
         <v>100</v>
@@ -4251,7 +4253,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s">
         <v>186</v>
@@ -4260,7 +4262,7 @@
         <v>196</v>
       </c>
       <c r="F34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
         <v>187</v>
@@ -4302,7 +4304,7 @@
         <v>196</v>
       </c>
       <c r="AA34" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="AB34" t="s">
         <v>5</v>
@@ -4316,10 +4318,10 @@
         <v>186</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
         <v>187</v>
@@ -4361,7 +4363,7 @@
         <v>196</v>
       </c>
       <c r="AA35" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="AB35" t="s">
         <v>5</v>
@@ -4483,7 +4485,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
         <v>253</v>
@@ -4511,7 +4513,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
         <v>253</v>
@@ -4562,8 +4564,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -4621,7 +4623,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>176</v>
@@ -4645,7 +4647,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,24 +4,72 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24150" windowHeight="12120" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="unit" sheetId="1" r:id="rId1"/>
-    <sheet name="skill" sheetId="2" r:id="rId2"/>
-    <sheet name="buff" sheetId="6" r:id="rId3"/>
-    <sheet name="map" sheetId="3" r:id="rId4"/>
-    <sheet name="bullet" sheetId="4" r:id="rId5"/>
-    <sheet name="wave" sheetId="5" r:id="rId6"/>
+    <sheet name="UnitData" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillData" sheetId="2" r:id="rId2"/>
+    <sheet name="BuffData" sheetId="6" r:id="rId3"/>
+    <sheet name="MapData" sheetId="3" r:id="rId4"/>
+    <sheet name="BulletData" sheetId="4" r:id="rId5"/>
+    <sheet name="WaveData" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="274">
-  <si>
-    <t>_Id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="276">
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>复活时间</t>
+  </si>
+  <si>
+    <t>被攻击点</t>
+  </si>
+  <si>
+    <t>发射点</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>主技能</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
+    <t>高台单位？</t>
+  </si>
+  <si>
+    <t>地面</t>
+  </si>
+  <si>
+    <t>阻挡个数</t>
+  </si>
+  <si>
+    <t>终点伤害</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>半径</t>
+  </si>
+  <si>
+    <t>阻挡？</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>稀有</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Type</t>
@@ -117,7 +165,7 @@
     <t>float</t>
   </si>
   <si>
-    <t>Skill[]</t>
+    <t>SkillData[]</t>
   </si>
   <si>
     <t>bool</t>
@@ -126,54 +174,6 @@
     <t>UnitTypeEnum</t>
   </si>
   <si>
-    <t>消耗</t>
-  </si>
-  <si>
-    <t>复活时间</t>
-  </si>
-  <si>
-    <t>被攻击点</t>
-  </si>
-  <si>
-    <t>发射点</t>
-  </si>
-  <si>
-    <t>技能</t>
-  </si>
-  <si>
-    <t>主技能</t>
-  </si>
-  <si>
-    <t>高度</t>
-  </si>
-  <si>
-    <t>高台单位？</t>
-  </si>
-  <si>
-    <t>地面</t>
-  </si>
-  <si>
-    <t>阻挡个数</t>
-  </si>
-  <si>
-    <t>终点伤害</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>半径</t>
-  </si>
-  <si>
-    <t>阻挡？</t>
-  </si>
-  <si>
-    <t>头像</t>
-  </si>
-  <si>
-    <t>稀有</t>
-  </si>
-  <si>
     <t>原石虫</t>
   </si>
   <si>
@@ -363,6 +363,99 @@
     <t>sora_head</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>激活方式</t>
+  </si>
+  <si>
+    <t>使用方式</t>
+  </si>
+  <si>
+    <t>攻击目标</t>
+  </si>
+  <si>
+    <t>攻击阻挡</t>
+  </si>
+  <si>
+    <t>敌对组</t>
+  </si>
+  <si>
+    <t>对空</t>
+  </si>
+  <si>
+    <t>攻击优先级</t>
+  </si>
+  <si>
+    <t>打击点,干员使用</t>
+  </si>
+  <si>
+    <t>倍率</t>
+  </si>
+  <si>
+    <t>攻击数量</t>
+  </si>
+  <si>
+    <t>溅射范围</t>
+  </si>
+  <si>
+    <t>溅射伤害</t>
+  </si>
+  <si>
+    <t>关联技能</t>
+  </si>
+  <si>
+    <t>附加技能</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>初始技力</t>
+  </si>
+  <si>
+    <t>最大技力</t>
+  </si>
+  <si>
+    <t>囤积次数</t>
+  </si>
+  <si>
+    <t>回复方式</t>
+  </si>
+  <si>
+    <t>是否治疗</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>攻击动作</t>
+  </si>
+  <si>
+    <t>关联Buff</t>
+  </si>
+  <si>
+    <t>buff数值</t>
+  </si>
+  <si>
+    <t>启动动画</t>
+  </si>
+  <si>
+    <t>命中动画</t>
+  </si>
+  <si>
+    <t>生效动画</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -468,7 +561,7 @@
     <t>AttackTargetOrderEnum</t>
   </si>
   <si>
-    <t>Vector2Int[]</t>
+    <t>UnityEngine.Vector2Int[]</t>
   </si>
   <si>
     <t>DamageTypeEnum</t>
@@ -477,105 +570,15 @@
     <t>PowerRecoverTypeEnum</t>
   </si>
   <si>
-    <t>Buff[]</t>
+    <t>BulletData</t>
+  </si>
+  <si>
+    <t>BuffData[]</t>
   </si>
   <si>
     <t>float[]</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>激活方式</t>
-  </si>
-  <si>
-    <t>使用方式</t>
-  </si>
-  <si>
-    <t>攻击目标</t>
-  </si>
-  <si>
-    <t>攻击阻挡</t>
-  </si>
-  <si>
-    <t>敌对组</t>
-  </si>
-  <si>
-    <t>对空</t>
-  </si>
-  <si>
-    <t>攻击优先级</t>
-  </si>
-  <si>
-    <t>打击点,干员使用</t>
-  </si>
-  <si>
-    <t>倍率</t>
-  </si>
-  <si>
-    <t>攻击数量</t>
-  </si>
-  <si>
-    <t>溅射范围</t>
-  </si>
-  <si>
-    <t>溅射伤害</t>
-  </si>
-  <si>
-    <t>关联技能</t>
-  </si>
-  <si>
-    <t>附加技能</t>
-  </si>
-  <si>
-    <t>冷却</t>
-  </si>
-  <si>
-    <t>持续时间</t>
-  </si>
-  <si>
-    <t>初始技力</t>
-  </si>
-  <si>
-    <t>最大技力</t>
-  </si>
-  <si>
-    <t>囤积次数</t>
-  </si>
-  <si>
-    <t>回复方式</t>
-  </si>
-  <si>
-    <t>是否治疗</t>
-  </si>
-  <si>
-    <t>子弹</t>
-  </si>
-  <si>
-    <t>攻击动作</t>
-  </si>
-  <si>
-    <t>关联Buff</t>
-  </si>
-  <si>
-    <t>buff数值</t>
-  </si>
-  <si>
-    <t>启动动画</t>
-  </si>
-  <si>
-    <t>命中动画</t>
-  </si>
-  <si>
-    <t>生效动画</t>
-  </si>
-  <si>
-    <t>攻击距离</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
     <t>#阿米娅</t>
   </si>
   <si>
@@ -777,22 +780,25 @@
     <t>Data</t>
   </si>
   <si>
+    <t>System.Collections.Generic.Dictionary&lt;string,object&gt;</t>
+  </si>
+  <si>
     <t>测试Buff</t>
   </si>
   <si>
     <t>数值变化</t>
   </si>
   <si>
-    <t>"t":["Agi"]</t>
-  </si>
-  <si>
-    <t>"t":["SpeedRate"]</t>
-  </si>
-  <si>
-    <t>"t":["AttackRate"]</t>
-  </si>
-  <si>
-    <t>"t":["DefenceRate"]</t>
+    <t>{"t":["Agi"]}</t>
+  </si>
+  <si>
+    <t>{"t":["SpeedRate"]}</t>
+  </si>
+  <si>
+    <t>{"t":["AttackRate"]}</t>
+  </si>
+  <si>
+    <t>{"t":["DefenceRate"]}</t>
   </si>
   <si>
     <t>蓝色子弹</t>
@@ -801,6 +807,12 @@
     <t>testBullet</t>
   </si>
   <si>
+    <t>路径</t>
+  </si>
+  <si>
+    <t>路径停留时间</t>
+  </si>
+  <si>
     <t>Map</t>
   </si>
   <si>
@@ -816,13 +828,7 @@
     <t>PathWait</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>路径</t>
-  </si>
-  <si>
-    <t>路径停留时间</t>
+    <t>UnitData</t>
   </si>
   <si>
     <t>TestMap1</t>
@@ -848,10 +854,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -882,11 +888,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,87 +930,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1006,6 +956,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1014,6 +1012,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1035,7 +1041,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,61 +1107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,7 +1125,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,7 +1155,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,19 +1185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,7 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,43 +1209,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,26 +1232,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1260,30 +1246,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,8 +1283,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1334,10 +1340,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1346,133 +1352,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1843,11 +1849,11 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1861,229 +1867,229 @@
     <col min="16" max="16" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" t="s">
+    <row r="1" spans="9:29">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="V1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="W1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="X1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AC1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
       </c>
       <c r="R2" t="s">
         <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="AC2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="9:29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X3" t="s">
         <v>47</v>
       </c>
       <c r="Y3" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>50</v>
       </c>
       <c r="AA3" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>45</v>
       </c>
       <c r="AC3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -2986,11 +2992,11 @@
   <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA25" sqref="AA25"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3019,13 +3025,7 @@
     <col min="34" max="34" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="3:35">
       <c r="C1" t="s">
         <v>114</v>
       </c>
@@ -3035,9 +3035,6 @@
       <c r="E1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
         <v>117</v>
       </c>
@@ -3056,23 +3053,20 @@
       <c r="L1" t="s">
         <v>122</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>123</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>124</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>125</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>127</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
       </c>
       <c r="S1" t="s">
         <v>128</v>
@@ -3128,212 +3122,221 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" t="s">
-        <v>149</v>
-      </c>
-      <c r="M2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Z2" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="AA2" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="AB2" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="AC2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="AD2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="AE2" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="AF2" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="AG2" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="AI2" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L3" t="s">
-        <v>162</v>
+        <v>180</v>
+      </c>
+      <c r="M3" t="s">
+        <v>181</v>
       </c>
       <c r="N3" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="Q3" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="R3" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="U3" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Z3" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="AA3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AB3" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AD3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AE3" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="AF3" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="AG3" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -3341,22 +3344,22 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3365,10 +3368,10 @@
         <v>2</v>
       </c>
       <c r="AA5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AB5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -3376,31 +3379,31 @@
         <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U6">
         <v>10</v>
@@ -3415,48 +3418,48 @@
         <v>1</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD6">
         <v>60</v>
       </c>
       <c r="AI6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N7">
         <v>0.45</v>
@@ -3480,45 +3483,45 @@
         <v>1</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N8">
         <v>1.6</v>
@@ -3539,27 +3542,27 @@
         <v>1</v>
       </c>
       <c r="AB8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3577,16 +3580,16 @@
         <v>1</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD10">
         <v>100</v>
       </c>
       <c r="AI10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -3594,16 +3597,16 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3621,39 +3624,39 @@
         <v>1</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AD11">
         <v>0.5</v>
       </c>
       <c r="AI11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3665,33 +3668,33 @@
         <v>1</v>
       </c>
       <c r="AB14" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3703,21 +3706,21 @@
         <v>1</v>
       </c>
       <c r="AB15" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3726,13 +3729,13 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3741,33 +3744,33 @@
         <v>2</v>
       </c>
       <c r="AB16" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17" t="s">
+        <v>219</v>
+      </c>
+      <c r="M17" t="s">
         <v>220</v>
-      </c>
-      <c r="B17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" t="s">
-        <v>187</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>188</v>
-      </c>
-      <c r="L17" t="s">
-        <v>218</v>
-      </c>
-      <c r="M17" t="s">
-        <v>219</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3776,33 +3779,33 @@
         <v>2</v>
       </c>
       <c r="AB17" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -3811,10 +3814,10 @@
         <v>2</v>
       </c>
       <c r="AA18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AB18" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -3822,13 +3825,13 @@
         <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3837,13 +3840,13 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N19">
         <v>1.5</v>
@@ -3867,22 +3870,22 @@
         <v>1</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AB19" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -3890,16 +3893,16 @@
         <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N20">
         <v>10</v>
@@ -3917,36 +3920,36 @@
         <v>1</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB20" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -3955,33 +3958,33 @@
         <v>1</v>
       </c>
       <c r="AB22" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N23">
         <v>0.8</v>
@@ -3990,10 +3993,10 @@
         <v>1</v>
       </c>
       <c r="AA23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB23" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -4001,19 +4004,19 @@
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4022,13 +4025,13 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N24">
         <v>1.6</v>
@@ -4037,7 +4040,7 @@
         <v>6</v>
       </c>
       <c r="S24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T24">
         <v>2</v>
@@ -4055,13 +4058,13 @@
         <v>1</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB24" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AI24" t="s">
         <v>76</v>
@@ -4069,19 +4072,19 @@
     </row>
     <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4094,7 +4097,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AD25" s="1">
         <v>-0.7</v>
@@ -4109,25 +4112,25 @@
         <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4136,25 +4139,25 @@
         <v>2</v>
       </c>
       <c r="AA27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AB27" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AD27">
         <v>0.8</v>
       </c>
       <c r="AE27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -4162,28 +4165,28 @@
         <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O29">
         <v>100</v>
@@ -4204,16 +4207,16 @@
         <v>1</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AD29">
         <v>0.8</v>
       </c>
       <c r="AI29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -4221,22 +4224,22 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" t="s">
         <v>196</v>
-      </c>
-      <c r="G30" t="s">
-        <v>195</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N30">
         <v>0.05</v>
@@ -4253,31 +4256,31 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -4301,42 +4304,42 @@
         <v>2</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB34" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" t="s">
         <v>248</v>
       </c>
-      <c r="B35" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F35" t="s">
-        <v>247</v>
-      </c>
       <c r="G35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -4360,13 +4363,13 @@
         <v>1</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB35" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -4374,10 +4377,10 @@
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4386,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4398,7 +4401,7 @@
         <v>2</v>
       </c>
       <c r="AB36" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4414,7 +4417,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -4422,107 +4425,107 @@
     <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4534,22 +4537,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4562,10 +4565,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -4574,48 +4577,43 @@
     <col min="3" max="3" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4623,13 +4621,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4647,7 +4645,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4655,55 +4653,52 @@
     <col min="5" max="5" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="5:6">
+      <c r="E1" t="s">
         <v>262</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>263</v>
-      </c>
-      <c r="F1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
         <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4711,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -4720,10 +4715,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4731,7 +4726,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -4740,10 +4735,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4751,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -4760,10 +4755,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4771,7 +4766,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -4780,10 +4775,10 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4791,7 +4786,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
@@ -4800,10 +4795,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4811,7 +4806,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -4820,10 +4815,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4831,7 +4826,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -4840,10 +4835,10 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4851,7 +4846,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -4860,10 +4855,10 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4871,7 +4866,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -4880,10 +4875,10 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4891,7 +4886,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -4900,10 +4895,10 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4911,7 +4906,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
@@ -4920,10 +4915,10 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="272">
   <si>
     <t>消耗</t>
   </si>
@@ -807,12 +807,12 @@
     <t>testBullet</t>
   </si>
   <si>
+    <t>路径延迟时间</t>
+  </si>
+  <si>
     <t>路径</t>
   </si>
   <si>
-    <t>路径停留时间</t>
-  </si>
-  <si>
     <t>Map</t>
   </si>
   <si>
@@ -825,28 +825,16 @@
     <t>Path</t>
   </si>
   <si>
-    <t>PathWait</t>
-  </si>
-  <si>
     <t>UnitData</t>
   </si>
   <si>
     <t>TestMap1</t>
   </si>
   <si>
-    <t>0,3#8,1#9,1</t>
-  </si>
-  <si>
-    <t>0,1,0</t>
+    <t>P0</t>
   </si>
   <si>
     <t>TestMap</t>
-  </si>
-  <si>
-    <t>0,1#9,1</t>
-  </si>
-  <si>
-    <t>0,0</t>
   </si>
 </sst>
 </file>
@@ -888,15 +876,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,21 +920,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,14 +934,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -954,11 +942,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1019,14 +1006,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,7 +1029,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,31 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,19 +1089,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,43 +1113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,13 +1131,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,13 +1179,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,25 +1203,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,21 +1234,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,6 +1295,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1340,10 +1328,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1352,19 +1340,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1373,112 +1361,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2991,7 +2979,7 @@
   <sheetPr/>
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -4642,26 +4630,26 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:6">
+    <row r="1" spans="4:5">
+      <c r="D1" t="s">
+        <v>262</v>
+      </c>
       <c r="E1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4677,11 +4665,8 @@
       <c r="E2" t="s">
         <v>267</v>
       </c>
-      <c r="F2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -4689,24 +4674,21 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -4715,18 +4697,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -4735,190 +4714,160 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
-      </c>
-      <c r="F9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
-      </c>
-      <c r="F11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
-      </c>
-      <c r="F12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>271</v>
-      </c>
-      <c r="F13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>274</v>
-      </c>
-      <c r="F14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="17445" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="280">
   <si>
     <t>消耗</t>
   </si>
@@ -372,12 +372,18 @@
     <t>使用方式</t>
   </si>
   <si>
+    <t>技能名</t>
+  </si>
+  <si>
     <t>攻击目标</t>
   </si>
   <si>
     <t>攻击阻挡</t>
   </si>
   <si>
+    <t>生效时重取目标</t>
+  </si>
+  <si>
     <t>敌对组</t>
   </si>
   <si>
@@ -390,10 +396,19 @@
     <t>打击点,干员使用</t>
   </si>
   <si>
+    <t>伤害类型</t>
+  </si>
+  <si>
     <t>倍率</t>
   </si>
   <si>
-    <t>攻击数量</t>
+    <t>伤害个数</t>
+  </si>
+  <si>
+    <t>连发次数</t>
+  </si>
+  <si>
+    <t>连发间隔</t>
   </si>
   <si>
     <t>溅射范围</t>
@@ -471,6 +486,9 @@
     <t>AttackStop</t>
   </si>
   <si>
+    <t>RegetTarget</t>
+  </si>
+  <si>
     <t>TargetTeam</t>
   </si>
   <si>
@@ -489,7 +507,13 @@
     <t>DamageRate</t>
   </si>
   <si>
-    <t>HitCount</t>
+    <t>DamageCount</t>
+  </si>
+  <si>
+    <t>BurstCount</t>
+  </si>
+  <si>
+    <t>BurstDelay</t>
   </si>
   <si>
     <t>AreaRange</t>
@@ -842,10 +866,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -876,23 +900,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,14 +915,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,6 +940,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -939,6 +964,22 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -966,14 +1007,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -989,9 +1022,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,14 +1031,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,13 +1053,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,7 +1077,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,37 +1137,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,25 +1167,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,19 +1185,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,31 +1209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,19 +1221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,6 +1244,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1238,6 +1277,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1249,15 +1297,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1295,21 +1334,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1328,10 +1352,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1340,18 +1364,18 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,16 +1385,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1379,94 +1397,100 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2977,14 +3001,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2997,23 +3021,25 @@
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="8.375" customWidth="1"/>
-    <col min="9" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="13.25" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="7.125" customWidth="1"/>
-    <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="15" width="8.25" customWidth="1"/>
-    <col min="16" max="19" width="8.375" customWidth="1"/>
-    <col min="20" max="20" width="4.5" customWidth="1"/>
-    <col min="21" max="21" width="8" customWidth="1"/>
-    <col min="22" max="22" width="7.375" style="2" customWidth="1"/>
-    <col min="23" max="24" width="8.5" style="2" customWidth="1"/>
-    <col min="25" max="25" width="7.875" style="2" customWidth="1"/>
-    <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="34" max="34" width="9.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="11" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="8.5" customWidth="1"/>
+    <col min="17" max="18" width="8.25" customWidth="1"/>
+    <col min="19" max="22" width="8.375" customWidth="1"/>
+    <col min="23" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="8" customWidth="1"/>
+    <col min="25" max="25" width="7.375" style="2" customWidth="1"/>
+    <col min="26" max="27" width="8.5" style="2" customWidth="1"/>
+    <col min="28" max="28" width="7.875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="16" customWidth="1"/>
+    <col min="37" max="37" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:35">
+    <row r="1" spans="3:38">
       <c r="C1" t="s">
         <v>114</v>
       </c>
@@ -3023,92 +3049,107 @@
       <c r="E1" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L1" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="M1" t="s">
+        <v>124</v>
       </c>
       <c r="N1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="U1" t="s">
-        <v>130</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="W1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="V1" t="s">
         <v>133</v>
       </c>
+      <c r="W1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X1" t="s">
+        <v>135</v>
+      </c>
       <c r="Y1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA1" t="s">
         <v>136</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="AA1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="AC1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AD1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AE1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>145</v>
       </c>
       <c r="AI1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
+        <v>146</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3116,106 +3157,115 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="R2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S2" t="s">
+        <v>165</v>
+      </c>
+      <c r="T2" t="s">
+        <v>166</v>
+      </c>
+      <c r="U2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
-        <v>159</v>
-      </c>
-      <c r="T2" t="s">
-        <v>160</v>
-      </c>
-      <c r="U2" t="s">
-        <v>161</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>164</v>
+      <c r="V2" t="s">
+        <v>167</v>
+      </c>
+      <c r="W2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" t="s">
+        <v>169</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="AC2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AE2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AF2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AG2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>179</v>
       </c>
       <c r="AI2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <v>180</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -3226,1169 +3276,1178 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
         <v>49</v>
       </c>
       <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>49</v>
       </c>
-      <c r="K3" t="s">
-        <v>179</v>
-      </c>
       <c r="L3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" t="s">
         <v>47</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>46</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>47</v>
-      </c>
-      <c r="R3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" t="s">
-        <v>48</v>
       </c>
       <c r="T3" t="s">
         <v>47</v>
       </c>
       <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC3" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>184</v>
-      </c>
       <c r="AD3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AE3" t="s">
         <v>45</v>
       </c>
       <c r="AF3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH3" t="s">
         <v>45</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="AI3" t="s">
         <v>45</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M5" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="T5">
+        <v>198</v>
+      </c>
+      <c r="N5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="W5">
         <v>2</v>
       </c>
-      <c r="AA5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
         <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" t="s">
+        <v>199</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG6">
+        <v>60</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O7">
+        <v>0.45</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" t="s">
         <v>195</v>
       </c>
-      <c r="G6" t="s">
+      <c r="C8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" t="s">
         <v>196</v>
       </c>
-      <c r="I6">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" t="s">
+        <v>214</v>
+      </c>
+      <c r="N8" t="s">
+        <v>215</v>
+      </c>
+      <c r="O8">
+        <v>1.6</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="2">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>189</v>
-      </c>
-      <c r="L6" t="s">
-        <v>190</v>
-      </c>
-      <c r="M6" t="s">
-        <v>191</v>
-      </c>
-      <c r="U6">
+      <c r="Z8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>10</v>
       </c>
-      <c r="V6" s="2">
+      <c r="Y10" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Z10" s="2">
         <v>3</v>
       </c>
-      <c r="X6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD6">
-        <v>60</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M7" t="s">
-        <v>191</v>
-      </c>
-      <c r="N7">
-        <v>0.45</v>
-      </c>
-      <c r="O7">
-        <v>7</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>10</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>5</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="AF10" t="s">
         <v>206</v>
       </c>
-      <c r="M8" t="s">
-        <v>207</v>
-      </c>
-      <c r="N8">
-        <v>1.6</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>10</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>3</v>
-      </c>
-      <c r="X8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
-      <c r="A10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>10</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>3</v>
-      </c>
-      <c r="X10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD10">
+      <c r="AG10">
         <v>100</v>
       </c>
-      <c r="AI10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AL10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG11">
+        <v>0.5</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" t="s">
         <v>196</v>
       </c>
-      <c r="I11">
+      <c r="J14">
         <v>0</v>
       </c>
-      <c r="U11">
-        <v>10</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="L14" t="s">
+        <v>221</v>
+      </c>
+      <c r="M14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="W11" s="2">
-        <v>3</v>
-      </c>
-      <c r="X11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="2" t="s">
+      <c r="L15" t="s">
+        <v>221</v>
+      </c>
+      <c r="M15" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>197</v>
       </c>
-      <c r="AC11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD11">
-        <v>0.5</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="M16" t="s">
+        <v>227</v>
+      </c>
+      <c r="N16" t="s">
+        <v>228</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" t="s">
+        <v>196</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>197</v>
       </c>
-      <c r="G14" t="s">
-        <v>188</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" t="s">
-        <v>190</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="T14">
+      <c r="M17" t="s">
+        <v>227</v>
+      </c>
+      <c r="N17" t="s">
+        <v>228</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="W17">
         <v>2</v>
       </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="s">
+      <c r="AE17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
-      <c r="A15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>213</v>
-      </c>
-      <c r="L15" t="s">
-        <v>190</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="T15">
+    <row r="18" spans="1:31">
+      <c r="A18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>232</v>
+      </c>
+      <c r="M18" t="s">
+        <v>233</v>
+      </c>
+      <c r="N18" t="s">
+        <v>228</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="W18">
         <v>2</v>
       </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="AD18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE18" t="s">
         <v>21</v>
       </c>
-      <c r="AI15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L16" t="s">
-        <v>219</v>
-      </c>
-      <c r="M16" t="s">
-        <v>220</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" t="s">
-        <v>188</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>189</v>
-      </c>
-      <c r="L17" t="s">
-        <v>219</v>
-      </c>
-      <c r="M17" t="s">
-        <v>220</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" t="s">
-        <v>188</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>224</v>
-      </c>
-      <c r="L18" t="s">
-        <v>225</v>
-      </c>
-      <c r="M18" t="s">
-        <v>220</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
+    </row>
+    <row r="19" spans="1:38">
       <c r="A19" t="s">
         <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G19" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>189</v>
+      <c r="J19">
+        <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s">
-        <v>220</v>
-      </c>
-      <c r="N19">
+        <v>235</v>
+      </c>
+      <c r="N19" t="s">
+        <v>228</v>
+      </c>
+      <c r="O19">
         <v>1.5</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>2</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>0.8</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>2</v>
       </c>
-      <c r="V19" s="2">
-        <v>1</v>
-      </c>
-      <c r="W19" s="2">
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="2">
         <v>2</v>
       </c>
-      <c r="X19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB19" t="s">
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE19" t="s">
         <v>21</v>
       </c>
-      <c r="AE19" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>230</v>
+      <c r="AH19" t="s">
+        <v>237</v>
       </c>
       <c r="AI19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35">
+        <v>238</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
       <c r="A20" t="s">
         <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="X20">
+        <v>0.5</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
         <v>195</v>
       </c>
-      <c r="G20" t="s">
+      <c r="E22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="N22" t="s">
+        <v>228</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
         <v>196</v>
       </c>
-      <c r="N20">
-        <v>10</v>
-      </c>
-      <c r="U20">
-        <v>0.5</v>
-      </c>
-      <c r="V20" s="2">
-        <v>7</v>
-      </c>
-      <c r="W20" s="2">
-        <v>10</v>
-      </c>
-      <c r="X20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="2" t="s">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
         <v>197</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="M23" t="s">
+        <v>244</v>
+      </c>
+      <c r="N23" t="s">
+        <v>228</v>
+      </c>
+      <c r="O23">
+        <v>0.8</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE23" t="s">
         <v>21</v>
       </c>
-      <c r="AI20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" t="s">
-        <v>218</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>189</v>
-      </c>
-      <c r="M22" t="s">
-        <v>220</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" t="s">
-        <v>235</v>
-      </c>
-      <c r="B23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" t="s">
-        <v>188</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>189</v>
-      </c>
-      <c r="L23" t="s">
-        <v>236</v>
-      </c>
-      <c r="M23" t="s">
-        <v>220</v>
-      </c>
-      <c r="N23">
-        <v>0.8</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35">
+    </row>
+    <row r="24" spans="1:38">
       <c r="A24" t="s">
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="s">
+        <v>247</v>
+      </c>
+      <c r="N24" t="s">
+        <v>228</v>
+      </c>
+      <c r="O24">
+        <v>1.6</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="V24" t="s">
+        <v>248</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" t="s">
         <v>195</v>
       </c>
-      <c r="G24" t="s">
-        <v>188</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>189</v>
-      </c>
-      <c r="L24" t="s">
-        <v>239</v>
-      </c>
-      <c r="M24" t="s">
-        <v>220</v>
-      </c>
-      <c r="N24">
-        <v>1.6</v>
-      </c>
-      <c r="O24">
-        <v>6</v>
-      </c>
-      <c r="S24" t="s">
-        <v>240</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>20</v>
-      </c>
-      <c r="V24" s="2">
-        <v>35</v>
-      </c>
-      <c r="W24" s="2">
-        <v>40</v>
-      </c>
-      <c r="X24" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>241</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" t="s">
-        <v>187</v>
-      </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>196</v>
-      </c>
-      <c r="I25">
+        <v>204</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
       <c r="Y25"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD25" s="1">
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG25" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25"/>
-    </row>
-    <row r="27" spans="1:35">
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25"/>
+    </row>
+    <row r="27" spans="1:38">
       <c r="A27" t="s">
         <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s">
-        <v>191</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="T27">
+        <v>198</v>
+      </c>
+      <c r="N27" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="W27">
         <v>2</v>
       </c>
-      <c r="AA27" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB27" t="s">
+      <c r="AD27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE27" t="s">
         <v>21</v>
       </c>
-      <c r="AC27" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD27">
+      <c r="AF27" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG27">
         <v>0.8</v>
       </c>
-      <c r="AE27" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>230</v>
+      <c r="AH27" t="s">
+        <v>237</v>
       </c>
       <c r="AI27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35">
+        <v>238</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
       <c r="A29" t="s">
         <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>246</v>
-      </c>
-      <c r="O29">
+        <v>197</v>
+      </c>
+      <c r="M29" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q29">
         <v>100</v>
       </c>
-      <c r="T29">
+      <c r="W29">
         <v>0.2</v>
       </c>
-      <c r="U29">
+      <c r="X29">
         <v>10</v>
       </c>
-      <c r="V29" s="2">
+      <c r="Y29" s="2">
         <v>40</v>
       </c>
-      <c r="W29" s="2">
+      <c r="Z29" s="2">
         <v>50</v>
       </c>
-      <c r="X29" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD29">
+      <c r="AA29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG29">
         <v>0.8</v>
       </c>
-      <c r="AI29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AL29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" t="s">
+        <v>204</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
         <v>197</v>
       </c>
-      <c r="G30" t="s">
+      <c r="M30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30">
+        <v>0.05</v>
+      </c>
+      <c r="Q30">
+        <v>100</v>
+      </c>
+      <c r="W30">
+        <v>0.2</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" t="s">
         <v>196</v>
       </c>
-      <c r="I30">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>197</v>
+      </c>
+      <c r="M34" t="s">
+        <v>198</v>
+      </c>
+      <c r="N34" t="s">
+        <v>199</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>0.2</v>
+      </c>
+      <c r="X34">
+        <v>0.2</v>
+      </c>
+      <c r="Y34" s="2">
         <v>0</v>
       </c>
-      <c r="K30" t="s">
-        <v>189</v>
-      </c>
-      <c r="L30" t="s">
-        <v>246</v>
-      </c>
-      <c r="N30">
-        <v>0.05</v>
-      </c>
-      <c r="O30">
-        <v>100</v>
-      </c>
-      <c r="T30">
-        <v>0.2</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
-      <c r="A34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="Z34" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
         <v>197</v>
       </c>
-      <c r="F34" t="s">
-        <v>248</v>
-      </c>
-      <c r="G34" t="s">
-        <v>188</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>189</v>
-      </c>
-      <c r="L34" t="s">
-        <v>190</v>
-      </c>
-      <c r="M34" t="s">
-        <v>191</v>
-      </c>
-      <c r="N34">
+      <c r="M35" t="s">
+        <v>198</v>
+      </c>
+      <c r="N35" t="s">
+        <v>199</v>
+      </c>
+      <c r="O35">
         <v>2</v>
       </c>
-      <c r="O34">
+      <c r="Q35">
         <v>3</v>
       </c>
-      <c r="T34">
-        <v>0.2</v>
-      </c>
-      <c r="U34">
-        <v>0.2</v>
-      </c>
-      <c r="V34" s="2">
+      <c r="W35">
+        <v>2</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="2">
         <v>0</v>
       </c>
-      <c r="W34" s="2">
+      <c r="Z35" s="2">
         <v>3</v>
       </c>
-      <c r="X34" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB34" t="s">
+      <c r="AA35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
-      <c r="A35" t="s">
-        <v>249</v>
-      </c>
-      <c r="B35" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F35" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" t="s">
-        <v>188</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="K35" t="s">
-        <v>189</v>
-      </c>
-      <c r="L35" t="s">
-        <v>190</v>
-      </c>
-      <c r="M35" t="s">
-        <v>191</v>
-      </c>
-      <c r="N35">
-        <v>2</v>
-      </c>
-      <c r="O35">
-        <v>3</v>
-      </c>
-      <c r="T35">
-        <v>2</v>
-      </c>
-      <c r="U35">
-        <v>10</v>
-      </c>
-      <c r="V35" s="2">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2">
-        <v>3</v>
-      </c>
-      <c r="X35" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G36" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36" t="s">
-        <v>250</v>
-      </c>
-      <c r="M36" t="s">
-        <v>220</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="T36">
+      <c r="L36" t="s">
+        <v>258</v>
+      </c>
+      <c r="N36" t="s">
+        <v>228</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="W36">
         <v>2</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AE36" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4429,10 +4488,10 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4449,71 +4508,71 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4595,13 +4654,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4609,13 +4668,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4632,7 +4691,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -4643,10 +4702,10 @@
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4654,16 +4713,16 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4674,7 +4733,7 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
@@ -4688,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -4697,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4705,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -4714,7 +4773,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4722,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -4731,7 +4790,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4739,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -4748,7 +4807,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4756,7 +4815,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
@@ -4765,7 +4824,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4773,7 +4832,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -4782,7 +4841,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4790,7 +4849,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -4799,7 +4858,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4807,7 +4866,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -4816,7 +4875,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4824,7 +4883,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -4833,7 +4892,7 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4841,7 +4900,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -4850,7 +4909,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4858,7 +4917,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
@@ -4867,7 +4926,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17445" windowHeight="7590" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="283">
   <si>
     <t>消耗</t>
   </si>
@@ -393,6 +393,9 @@
     <t>攻击优先级</t>
   </si>
   <si>
+    <t>攻击优先级2</t>
+  </si>
+  <si>
     <t>打击点,干员使用</t>
   </si>
   <si>
@@ -498,6 +501,9 @@
     <t>AttackOrder</t>
   </si>
   <si>
+    <t>AttackOrder2</t>
+  </si>
+  <si>
     <t>AttackPoints</t>
   </si>
   <si>
@@ -585,6 +591,9 @@
     <t>AttackTargetOrderEnum</t>
   </si>
   <si>
+    <t>AttackTargetOrder2Enum</t>
+  </si>
+  <si>
     <t>UnityEngine.Vector2Int[]</t>
   </si>
   <si>
@@ -612,7 +621,7 @@
     <t>敌对</t>
   </si>
   <si>
-    <t>离家近</t>
+    <t>终点距离</t>
   </si>
   <si>
     <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
@@ -684,7 +693,7 @@
     <t>奶</t>
   </si>
   <si>
-    <t>血量</t>
+    <t>血量比例升序</t>
   </si>
   <si>
     <t>群奶</t>
@@ -717,7 +726,7 @@
     <t>优先攻击飞行单位。</t>
   </si>
   <si>
-    <t>飞行</t>
+    <t>飞行优先</t>
   </si>
   <si>
     <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
@@ -795,7 +804,7 @@
     <t>阿米娅手动强力击</t>
   </si>
   <si>
-    <t>放置顺序</t>
+    <t>放置降序</t>
   </si>
   <si>
     <t>LastTime</t>
@@ -866,10 +875,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -901,20 +910,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -923,14 +918,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,10 +946,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -964,22 +966,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1007,6 +993,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1014,16 +1008,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,7 +1040,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,7 +1062,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,7 +1110,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,25 +1182,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,13 +1200,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,67 +1224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,37 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,21 +1253,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1277,11 +1271,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1305,7 +1305,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1333,17 +1353,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1352,145 +1361,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1868,15 +1877,15 @@
       <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="10" max="10" width="9.75" customWidth="1"/>
-    <col min="11" max="11" width="6.125" customWidth="1"/>
+    <col min="10" max="10" width="9.75454545454545" customWidth="1"/>
+    <col min="11" max="11" width="6.12727272727273" customWidth="1"/>
     <col min="12" max="12" width="5.5" customWidth="1"/>
-    <col min="13" max="13" width="5.875" customWidth="1"/>
-    <col min="14" max="14" width="6.25" customWidth="1"/>
+    <col min="13" max="13" width="5.87272727272727" customWidth="1"/>
+    <col min="14" max="14" width="6.25454545454545" customWidth="1"/>
     <col min="15" max="15" width="34.5" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="9:29">
@@ -3001,45 +3010,46 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="8.375" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="11" width="8.625" customWidth="1"/>
-    <col min="12" max="12" width="13.25" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
-    <col min="14" max="14" width="7.125" customWidth="1"/>
-    <col min="15" max="15" width="7" customWidth="1"/>
-    <col min="16" max="16" width="8.5" customWidth="1"/>
-    <col min="17" max="18" width="8.25" customWidth="1"/>
-    <col min="19" max="22" width="8.375" customWidth="1"/>
-    <col min="23" max="23" width="4.5" customWidth="1"/>
-    <col min="24" max="24" width="8" customWidth="1"/>
-    <col min="25" max="25" width="7.375" style="2" customWidth="1"/>
-    <col min="26" max="27" width="8.5" style="2" customWidth="1"/>
-    <col min="28" max="28" width="7.875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="16" customWidth="1"/>
-    <col min="37" max="37" width="9.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.2545454545455" customWidth="1"/>
+    <col min="2" max="2" width="7.75454545454545" customWidth="1"/>
+    <col min="3" max="3" width="13.6272727272727" customWidth="1"/>
+    <col min="4" max="4" width="7.75454545454545" customWidth="1"/>
+    <col min="5" max="5" width="8.37272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75454545454545" customWidth="1"/>
+    <col min="7" max="7" width="13.2545454545455" customWidth="1"/>
+    <col min="8" max="8" width="8.37272727272727" customWidth="1"/>
+    <col min="9" max="9" width="10.6272727272727" customWidth="1"/>
+    <col min="10" max="11" width="8.62727272727273" customWidth="1"/>
+    <col min="12" max="12" width="13.2545454545455" customWidth="1"/>
+    <col min="13" max="13" width="11.9090909090909" customWidth="1"/>
+    <col min="14" max="14" width="14.7545454545455" customWidth="1"/>
+    <col min="15" max="15" width="7.12727272727273" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="19" width="8.25454545454545" customWidth="1"/>
+    <col min="20" max="23" width="8.37272727272727" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="25" max="25" width="8" customWidth="1"/>
+    <col min="26" max="26" width="7.37272727272727" style="2" customWidth="1"/>
+    <col min="27" max="28" width="8.5" style="2" customWidth="1"/>
+    <col min="29" max="29" width="7.87272727272727" style="2" customWidth="1"/>
+    <col min="32" max="32" width="16" customWidth="1"/>
+    <col min="38" max="38" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:38">
+    <row r="1" spans="3:39">
       <c r="C1" t="s">
         <v>114</v>
       </c>
@@ -3106,7 +3116,7 @@
       <c r="X1" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" t="s">
         <v>136</v>
       </c>
       <c r="Z1" s="2" t="s">
@@ -3118,7 +3128,7 @@
       <c r="AB1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>140</v>
       </c>
       <c r="AD1" t="s">
@@ -3142,14 +3152,17 @@
       <c r="AJ1" t="s">
         <v>147</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" t="s">
         <v>148</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:38">
+      <c r="AM1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3157,115 +3170,118 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U2" t="s">
+        <v>168</v>
+      </c>
+      <c r="V2" t="s">
         <v>30</v>
       </c>
-      <c r="V2" t="s">
-        <v>167</v>
-      </c>
       <c r="W2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X2" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y2" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="Y2" t="s">
+        <v>171</v>
+      </c>
       <c r="Z2" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC2" t="s">
         <v>174</v>
       </c>
+      <c r="AC2" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="AD2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AE2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AH2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AI2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AJ2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AK2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="3" spans="1:38">
+      <c r="AL2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -3276,16 +3292,16 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H3" t="s">
         <v>49</v>
@@ -3300,25 +3316,25 @@
         <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" t="s">
         <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>46</v>
       </c>
       <c r="Q3" t="s">
         <v>46</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
         <v>47</v>
@@ -3327,19 +3343,19 @@
         <v>47</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V3" t="s">
         <v>48</v>
       </c>
       <c r="W3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X3" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>46</v>
+      <c r="Y3" t="s">
+        <v>47</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>46</v>
@@ -3348,25 +3364,25 @@
         <v>46</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD3" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" t="s">
-        <v>191</v>
-      </c>
       <c r="AE3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF3" t="s">
         <v>45</v>
       </c>
-      <c r="AF3" t="s">
-        <v>192</v>
-      </c>
       <c r="AG3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AH3" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="AI3" t="s">
         <v>45</v>
@@ -3374,511 +3390,547 @@
       <c r="AJ3" t="s">
         <v>45</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="W5">
+        <v>201</v>
+      </c>
+      <c r="O5" t="s">
+        <v>202</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>2</v>
       </c>
-      <c r="AD5" t="s">
-        <v>200</v>
-      </c>
       <c r="AE5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
         <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>197</v>
-      </c>
-      <c r="M6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O6" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH6">
+        <v>60</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>200</v>
+      </c>
+      <c r="N7" t="s">
+        <v>201</v>
+      </c>
+      <c r="O7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P7">
+        <v>0.45</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s">
         <v>198</v>
       </c>
-      <c r="N6" t="s">
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" t="s">
         <v>199</v>
       </c>
-      <c r="X6">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N8" t="s">
+        <v>217</v>
+      </c>
+      <c r="O8" t="s">
+        <v>218</v>
+      </c>
+      <c r="P8">
+        <v>1.6</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
         <v>10</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Z8" s="2">
         <v>0</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AA8" s="2">
         <v>3</v>
       </c>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" t="s">
         <v>205</v>
       </c>
-      <c r="AF6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG6">
-        <v>60</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="E10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="A7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N7" t="s">
-        <v>199</v>
-      </c>
-      <c r="O7">
-        <v>0.45</v>
-      </c>
-      <c r="Q7">
-        <v>7</v>
-      </c>
-      <c r="W7">
-        <v>2</v>
-      </c>
-      <c r="X7">
-        <v>10</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>197</v>
-      </c>
-      <c r="M8" t="s">
-        <v>214</v>
-      </c>
-      <c r="N8" t="s">
-        <v>215</v>
-      </c>
-      <c r="O8">
-        <v>1.6</v>
-      </c>
-      <c r="W8">
-        <v>2</v>
-      </c>
-      <c r="X8">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="A10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G10" t="s">
-        <v>204</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="X10">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
         <v>10</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Z10" s="2">
         <v>0</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AA10" s="2">
         <v>3</v>
       </c>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG10">
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH10">
         <v>100</v>
       </c>
-      <c r="AL10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="AM10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="X11">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
         <v>10</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Z11" s="2">
         <v>0</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AA11" s="2">
         <v>3</v>
       </c>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH11">
+        <v>0.5</v>
+      </c>
+      <c r="AM11" t="s">
         <v>219</v>
       </c>
-      <c r="AG11">
-        <v>0.5</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>221</v>
-      </c>
-      <c r="M14" t="s">
+        <v>224</v>
+      </c>
+      <c r="N14" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" t="s">
         <v>198</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>2</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
-      <c r="A15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" t="s">
-        <v>195</v>
-      </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>221</v>
-      </c>
-      <c r="M15" t="s">
+        <v>224</v>
+      </c>
+      <c r="N15" t="s">
+        <v>201</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
         <v>198</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="W15">
+      <c r="G16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>200</v>
+      </c>
+      <c r="N16" t="s">
+        <v>230</v>
+      </c>
+      <c r="O16" t="s">
+        <v>231</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="X16">
         <v>2</v>
       </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="s">
+      <c r="AF16" t="s">
         <v>21</v>
       </c>
-      <c r="AL15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" t="s">
-        <v>226</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>197</v>
-      </c>
-      <c r="M16" t="s">
-        <v>227</v>
-      </c>
-      <c r="N16" t="s">
-        <v>228</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="W16">
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" t="s">
+        <v>199</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>200</v>
+      </c>
+      <c r="N17" t="s">
+        <v>230</v>
+      </c>
+      <c r="O17" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="X17">
         <v>2</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" t="s">
-        <v>196</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>197</v>
-      </c>
-      <c r="M17" t="s">
-        <v>227</v>
-      </c>
-      <c r="N17" t="s">
-        <v>228</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="W17">
+    <row r="18" spans="1:32">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" t="s">
+        <v>199</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>235</v>
+      </c>
+      <c r="N18" t="s">
+        <v>236</v>
+      </c>
+      <c r="O18" t="s">
+        <v>231</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="X18">
         <v>2</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" t="s">
-        <v>231</v>
-      </c>
-      <c r="G18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>232</v>
-      </c>
-      <c r="M18" t="s">
-        <v>233</v>
-      </c>
-      <c r="N18" t="s">
-        <v>228</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>2</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
         <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G19" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3887,183 +3939,195 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s">
-        <v>228</v>
-      </c>
-      <c r="O19">
+        <v>238</v>
+      </c>
+      <c r="O19" t="s">
+        <v>231</v>
+      </c>
+      <c r="P19">
         <v>1.5</v>
       </c>
-      <c r="S19">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="T19">
         <v>2</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.8</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>2</v>
       </c>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
       <c r="Z19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="2">
         <v>2</v>
       </c>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>200</v>
+      <c r="AB19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="AE19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF19" t="s">
         <v>21</v>
       </c>
-      <c r="AH19" t="s">
-        <v>237</v>
-      </c>
       <c r="AI19" t="s">
-        <v>238</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38">
+        <v>240</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
         <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>204</v>
-      </c>
-      <c r="O20">
+        <v>207</v>
+      </c>
+      <c r="P20">
         <v>10</v>
       </c>
-      <c r="X20">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
         <v>0.5</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Z20" s="2">
         <v>7</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="AA20" s="2">
         <v>10</v>
       </c>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF20" t="s">
         <v>21</v>
       </c>
-      <c r="AL20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AM20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
-      </c>
-      <c r="N22" t="s">
-        <v>228</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="AE22" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" t="s">
+        <v>231</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
-      </c>
-      <c r="M23" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="N23" t="s">
-        <v>228</v>
-      </c>
-      <c r="O23">
+        <v>247</v>
+      </c>
+      <c r="O23" t="s">
+        <v>231</v>
+      </c>
+      <c r="P23">
         <v>0.8</v>
       </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>245</v>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
       </c>
       <c r="AE23" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G24" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -4072,362 +4136,383 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>197</v>
-      </c>
-      <c r="M24" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="N24" t="s">
-        <v>228</v>
-      </c>
-      <c r="O24">
+        <v>250</v>
+      </c>
+      <c r="O24" t="s">
+        <v>231</v>
+      </c>
+      <c r="P24">
         <v>1.6</v>
       </c>
       <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
         <v>6</v>
       </c>
-      <c r="V24" t="s">
-        <v>248</v>
-      </c>
-      <c r="W24">
+      <c r="W24" t="s">
+        <v>251</v>
+      </c>
+      <c r="X24">
         <v>2</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>20</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="Z24" s="2">
         <v>35</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="AA24" s="2">
         <v>40</v>
       </c>
-      <c r="AA24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="2" t="s">
+      <c r="AB24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
+      <c r="A25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" t="s">
         <v>205</v>
       </c>
-      <c r="AE24" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>249</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37">
-      <c r="A25" t="s">
-        <v>248</v>
-      </c>
-      <c r="B25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" t="s">
-        <v>202</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="Y25"/>
+      <c r="Q25">
+        <v>1</v>
+      </c>
       <c r="Z25"/>
       <c r="AA25"/>
       <c r="AB25"/>
-      <c r="AC25" s="1"/>
+      <c r="AC25"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-      <c r="AF25" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG25" s="1">
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH25" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
-      <c r="AK25"/>
-    </row>
-    <row r="27" spans="1:38">
+      <c r="AK25" s="1"/>
+      <c r="AL25"/>
+    </row>
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
         <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>197</v>
-      </c>
-      <c r="M27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N27" t="s">
-        <v>199</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="W27">
+        <v>201</v>
+      </c>
+      <c r="O27" t="s">
+        <v>202</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="X27">
         <v>2</v>
       </c>
-      <c r="AD27" t="s">
-        <v>200</v>
-      </c>
       <c r="AE27" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF27" t="s">
         <v>21</v>
       </c>
-      <c r="AF27" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG27">
+      <c r="AG27" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH27">
         <v>0.8</v>
       </c>
-      <c r="AH27" t="s">
-        <v>237</v>
-      </c>
       <c r="AI27" t="s">
-        <v>238</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38">
+        <v>240</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
         <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>197</v>
-      </c>
-      <c r="M29" t="s">
-        <v>254</v>
+        <v>200</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
       </c>
       <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
         <v>100</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.2</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>10</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="Z29" s="2">
         <v>40</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="AA29" s="2">
         <v>50</v>
       </c>
-      <c r="AA29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG29">
+      <c r="AB29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH29">
         <v>0.8</v>
       </c>
-      <c r="AL29" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AM29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>197</v>
-      </c>
-      <c r="M30" t="s">
-        <v>254</v>
-      </c>
-      <c r="O30">
+        <v>200</v>
+      </c>
+      <c r="N30" t="s">
+        <v>257</v>
+      </c>
+      <c r="P30">
         <v>0.05</v>
       </c>
       <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
         <v>100</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.2</v>
       </c>
-      <c r="AC30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AD30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>197</v>
-      </c>
-      <c r="M34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N34" t="s">
-        <v>199</v>
-      </c>
-      <c r="O34">
+        <v>201</v>
+      </c>
+      <c r="O34" t="s">
+        <v>202</v>
+      </c>
+      <c r="P34">
         <v>2</v>
       </c>
       <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
         <v>3</v>
-      </c>
-      <c r="W34">
-        <v>0.2</v>
       </c>
       <c r="X34">
         <v>0.2</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Y34">
+        <v>0.2</v>
+      </c>
+      <c r="Z34" s="2">
         <v>0</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="AA34" s="2">
         <v>3</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AB34" s="2">
         <v>2</v>
       </c>
-      <c r="AB34" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>245</v>
+      <c r="AC34" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="AE34" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F35" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G35" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>197</v>
-      </c>
-      <c r="M35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N35" t="s">
-        <v>199</v>
-      </c>
-      <c r="O35">
+        <v>201</v>
+      </c>
+      <c r="O35" t="s">
+        <v>202</v>
+      </c>
+      <c r="P35">
         <v>2</v>
       </c>
       <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
         <v>3</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>2</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>10</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="Z35" s="2">
         <v>0</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="AA35" s="2">
         <v>3</v>
       </c>
-      <c r="AA35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>245</v>
+      <c r="AB35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="AE35" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4436,18 +4521,21 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
-      </c>
-      <c r="N36" t="s">
-        <v>228</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="W36">
+        <v>261</v>
+      </c>
+      <c r="O36" t="s">
+        <v>231</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="X36">
         <v>2</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AF36" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4467,9 +4555,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="12.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4488,10 +4576,10 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4508,71 +4596,71 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4590,7 +4678,7 @@
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -4618,10 +4706,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="15.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="12.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -4654,13 +4742,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4668,13 +4756,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4695,17 +4783,17 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="30.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4713,16 +4801,16 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4733,7 +4821,7 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
@@ -4747,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -4756,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4764,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -4773,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4781,7 +4869,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -4790,7 +4878,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4798,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -4807,7 +4895,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4815,7 +4903,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
@@ -4824,7 +4912,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4832,7 +4920,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -4841,7 +4929,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4849,7 +4937,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -4858,7 +4946,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4866,7 +4954,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -4875,7 +4963,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4883,7 +4971,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -4892,7 +4980,7 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4900,7 +4988,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -4909,7 +4997,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4917,7 +5005,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
@@ -4926,7 +5014,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" activeTab="1"/>
+    <workbookView windowWidth="18465" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="287">
+  <si>
+    <t>重量</t>
+  </si>
   <si>
     <t>消耗</t>
   </si>
@@ -27,6 +30,9 @@
     <t>复活时间</t>
   </si>
   <si>
+    <t>仇恨等级</t>
+  </si>
+  <si>
     <t>被攻击点</t>
   </si>
   <si>
@@ -93,12 +99,18 @@
     <t>MagicDefence</t>
   </si>
   <si>
+    <t>Weight</t>
+  </si>
+  <si>
     <t>Cost</t>
   </si>
   <si>
     <t>ResetTime</t>
   </si>
   <si>
+    <t>Hatred</t>
+  </si>
+  <si>
     <t>HitPointX</t>
   </si>
   <si>
@@ -156,6 +168,9 @@
     <t>Rare</t>
   </si>
   <si>
+    <t>Tags</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -174,6 +189,9 @@
     <t>UnitTypeEnum</t>
   </si>
   <si>
+    <t>string[]</t>
+  </si>
+  <si>
     <t>原石虫</t>
   </si>
   <si>
@@ -375,15 +393,18 @@
     <t>技能名</t>
   </si>
   <si>
-    <t>攻击目标</t>
-  </si>
-  <si>
     <t>攻击阻挡</t>
   </si>
   <si>
     <t>生效时重取目标</t>
   </si>
   <si>
+    <t>阻挡时打断</t>
+  </si>
+  <si>
+    <t>使用时打断其他</t>
+  </si>
+  <si>
     <t>敌对组</t>
   </si>
   <si>
@@ -483,15 +504,18 @@
     <t>UseType</t>
   </si>
   <si>
-    <t>AttackTarget</t>
-  </si>
-  <si>
     <t>AttackStop</t>
   </si>
   <si>
     <t>RegetTarget</t>
   </si>
   <si>
+    <t>StopBreak</t>
+  </si>
+  <si>
+    <t>StopOtherSkill</t>
+  </si>
+  <si>
     <t>TargetTeam</t>
   </si>
   <si>
@@ -585,9 +609,6 @@
     <t>SkillUseTypeEnum</t>
   </si>
   <si>
-    <t>AttackTargetEnum</t>
-  </si>
-  <si>
     <t>AttackTargetOrderEnum</t>
   </si>
   <si>
@@ -618,9 +639,6 @@
     <t>普通技能</t>
   </si>
   <si>
-    <t>敌对</t>
-  </si>
-  <si>
     <t>终点距离</t>
   </si>
   <si>
@@ -642,9 +660,6 @@
     <t>手动</t>
   </si>
   <si>
-    <t>自己</t>
-  </si>
-  <si>
     <t>自动</t>
   </si>
   <si>
@@ -706,9 +721,6 @@
   </si>
   <si>
     <t>近战</t>
-  </si>
-  <si>
-    <t>阻挡</t>
   </si>
   <si>
     <t>0,0#1,0</t>
@@ -877,8 +889,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -909,6 +921,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -918,9 +938,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -946,10 +966,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -966,6 +986,21 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -993,7 +1028,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1001,31 +1036,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,14 +1059,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,7 +1074,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1104,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,127 +1224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,12 +1249,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,6 +1298,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1305,27 +1326,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,6 +1354,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1361,10 +1373,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1373,133 +1385,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1867,28 +1879,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="10" max="10" width="9.75454545454545" customWidth="1"/>
-    <col min="11" max="11" width="6.12727272727273" customWidth="1"/>
-    <col min="12" max="12" width="5.5" customWidth="1"/>
-    <col min="13" max="13" width="5.87272727272727" customWidth="1"/>
-    <col min="14" max="14" width="6.25454545454545" customWidth="1"/>
-    <col min="15" max="15" width="34.5" customWidth="1"/>
-    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
+    <col min="11" max="12" width="9.75833333333333" customWidth="1"/>
+    <col min="13" max="13" width="6.125" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="15" width="5.875" customWidth="1"/>
+    <col min="16" max="16" width="6.25833333333333" customWidth="1"/>
+    <col min="17" max="17" width="34.5" customWidth="1"/>
+    <col min="18" max="18" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:29">
+    <row r="1" spans="9:31">
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -1898,13 +1910,13 @@
       <c r="K1" t="s">
         <v>2</v>
       </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
         <v>5</v>
       </c>
       <c r="Q1" t="s">
@@ -1919,10 +1931,10 @@
       <c r="T1" t="s">
         <v>9</v>
       </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
       <c r="V1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" t="s">
         <v>11</v>
       </c>
       <c r="X1" t="s">
@@ -1931,197 +1943,221 @@
       <c r="Y1" t="s">
         <v>13</v>
       </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
       <c r="AA1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="U3" t="s">
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="X3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Y3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Z3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="AD3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -2135,31 +2171,31 @@
       <c r="H4">
         <v>50</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.1</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
         <v>0.5</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -2173,34 +2209,34 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.2</v>
       </c>
-      <c r="O5" t="s">
-        <v>56</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
+      <c r="Q5" t="s">
+        <v>62</v>
       </c>
       <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
         <v>0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -2214,47 +2250,47 @@
       <c r="H6">
         <v>50</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.3</v>
       </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
+      <c r="Q6" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
         <v>0.3</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>0.49</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -2268,64 +2304,64 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>18</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>20</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-      <c r="M10">
-        <v>0.2</v>
       </c>
       <c r="N10">
         <v>0.5</v>
       </c>
-      <c r="O10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
+      <c r="O10">
+        <v>0.2</v>
+      </c>
+      <c r="P10">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" t="s">
+        <v>70</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
-      <c r="X10">
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
         <v>0.49</v>
       </c>
-      <c r="Z10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>66</v>
-      </c>
       <c r="AB10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC10">
+        <v>71</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -2339,64 +2375,64 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>15</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>20</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.2</v>
       </c>
       <c r="N11">
         <v>0.5</v>
       </c>
-      <c r="O11" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
+      <c r="O11">
+        <v>0.2</v>
+      </c>
+      <c r="P11">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>76</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
-      <c r="X11">
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
         <v>0.49</v>
       </c>
-      <c r="Z11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>72</v>
-      </c>
       <c r="AB11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC11">
+        <v>77</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -2410,64 +2446,64 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>15</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>20</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0.5</v>
-      </c>
-      <c r="M12">
-        <v>0.2</v>
       </c>
       <c r="N12">
         <v>0.5</v>
       </c>
-      <c r="O12" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" t="s">
-        <v>76</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
+      <c r="O12">
+        <v>0.2</v>
+      </c>
+      <c r="P12">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" t="s">
+        <v>82</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
         <v>2</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>0.49</v>
       </c>
-      <c r="Z12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="AB12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC12">
+        <v>83</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2481,61 +2517,61 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>15</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>20</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0.5</v>
-      </c>
-      <c r="M13">
-        <v>0.2</v>
       </c>
       <c r="N13">
         <v>0.5</v>
       </c>
-      <c r="O13" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
+      <c r="O13">
+        <v>0.2</v>
+      </c>
+      <c r="P13">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" t="s">
+        <v>89</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
-      <c r="Z13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>84</v>
+      <c r="V13">
+        <v>1</v>
       </c>
       <c r="AB13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC13">
+        <v>71</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -2549,61 +2585,61 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>15</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>20</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.2</v>
       </c>
       <c r="N14">
         <v>0.5</v>
       </c>
-      <c r="O14" t="s">
-        <v>87</v>
-      </c>
-      <c r="P14" t="s">
-        <v>88</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
+      <c r="O14">
+        <v>0.2</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" t="s">
+        <v>94</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
         <v>2</v>
       </c>
-      <c r="Z14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AB14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC14">
+        <v>83</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2617,61 +2653,61 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>15</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>20</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-      <c r="M15">
-        <v>0.2</v>
       </c>
       <c r="N15">
         <v>0.5</v>
       </c>
-      <c r="O15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" t="s">
-        <v>88</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
+      <c r="O15">
+        <v>0.2</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>93</v>
+      </c>
+      <c r="R15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
         <v>2</v>
       </c>
-      <c r="Z15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="AB15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC15">
+        <v>83</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2685,61 +2721,61 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>15</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>20</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0.5</v>
-      </c>
-      <c r="M16">
-        <v>0.2</v>
       </c>
       <c r="N16">
         <v>0.5</v>
       </c>
-      <c r="O16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" t="s">
-        <v>95</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
+      <c r="O16">
+        <v>0.2</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" t="s">
+        <v>101</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
-      <c r="Z16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>97</v>
+      <c r="V16">
+        <v>1</v>
       </c>
       <c r="AB16" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC16">
+        <v>102</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -2753,61 +2789,61 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>15</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>20</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.2</v>
       </c>
       <c r="N17">
         <v>0.5</v>
       </c>
-      <c r="O17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" t="s">
-        <v>100</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
+      <c r="O17">
+        <v>0.2</v>
+      </c>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" t="s">
+        <v>106</v>
       </c>
       <c r="T17">
         <v>1</v>
       </c>
-      <c r="Z17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>102</v>
+      <c r="V17">
+        <v>1</v>
       </c>
       <c r="AB17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC17">
+        <v>107</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -2821,61 +2857,61 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>15</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>20</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.5</v>
-      </c>
-      <c r="M18">
-        <v>0.2</v>
       </c>
       <c r="N18">
         <v>0.5</v>
       </c>
-      <c r="O18" t="s">
-        <v>87</v>
-      </c>
-      <c r="P18" t="s">
-        <v>88</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
+      <c r="O18">
+        <v>0.2</v>
+      </c>
+      <c r="P18">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>93</v>
+      </c>
+      <c r="R18" t="s">
+        <v>94</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
         <v>3</v>
       </c>
-      <c r="Z18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="AB18" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC18">
+        <v>110</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -2889,61 +2925,61 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>15</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>20</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0.5</v>
-      </c>
-      <c r="M19">
-        <v>0.2</v>
       </c>
       <c r="N19">
         <v>0.5</v>
       </c>
-      <c r="O19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" t="s">
-        <v>88</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
+      <c r="O19">
+        <v>0.2</v>
+      </c>
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" t="s">
+        <v>94</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
-      <c r="Z19" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>108</v>
+      <c r="V19">
+        <v>1</v>
       </c>
       <c r="AB19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC19">
+        <v>71</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -2957,46 +2993,46 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>15</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>20</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0.5</v>
-      </c>
-      <c r="M20">
-        <v>0.2</v>
       </c>
       <c r="N20">
         <v>0.5</v>
       </c>
-      <c r="O20" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" t="s">
-        <v>112</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
+      <c r="O20">
+        <v>0.2</v>
+      </c>
+      <c r="P20">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>117</v>
+      </c>
+      <c r="R20" t="s">
+        <v>118</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
-      <c r="Z20" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA20" s="4" t="s">
-        <v>113</v>
+      <c r="V20">
+        <v>1</v>
       </c>
       <c r="AB20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC20">
+        <v>77</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE20">
         <v>4</v>
       </c>
     </row>
@@ -3010,1533 +3046,1476 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.2545454545455" customWidth="1"/>
-    <col min="2" max="2" width="7.75454545454545" customWidth="1"/>
-    <col min="3" max="3" width="13.6272727272727" customWidth="1"/>
-    <col min="4" max="4" width="7.75454545454545" customWidth="1"/>
-    <col min="5" max="5" width="8.37272727272727" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75454545454545" customWidth="1"/>
-    <col min="7" max="7" width="13.2545454545455" customWidth="1"/>
-    <col min="8" max="8" width="8.37272727272727" customWidth="1"/>
-    <col min="9" max="9" width="10.6272727272727" customWidth="1"/>
-    <col min="10" max="11" width="8.62727272727273" customWidth="1"/>
-    <col min="12" max="12" width="13.2545454545455" customWidth="1"/>
-    <col min="13" max="13" width="11.9090909090909" customWidth="1"/>
-    <col min="14" max="14" width="14.7545454545455" customWidth="1"/>
-    <col min="15" max="15" width="7.12727272727273" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="8.5" customWidth="1"/>
-    <col min="18" max="19" width="8.25454545454545" customWidth="1"/>
-    <col min="20" max="23" width="8.37272727272727" customWidth="1"/>
-    <col min="24" max="24" width="4.5" customWidth="1"/>
-    <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="26" width="7.37272727272727" style="2" customWidth="1"/>
-    <col min="27" max="28" width="8.5" style="2" customWidth="1"/>
-    <col min="29" max="29" width="7.87272727272727" style="2" customWidth="1"/>
-    <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="38" max="38" width="9.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.2583333333333" customWidth="1"/>
+    <col min="2" max="2" width="7.75833333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="7.75833333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75833333333333" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="13.2583333333333" customWidth="1"/>
+    <col min="14" max="14" width="11.9083333333333" customWidth="1"/>
+    <col min="15" max="15" width="14.7583333333333" customWidth="1"/>
+    <col min="16" max="16" width="7.125" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="8.5" customWidth="1"/>
+    <col min="19" max="20" width="8.25833333333333" customWidth="1"/>
+    <col min="21" max="24" width="8.375" customWidth="1"/>
+    <col min="25" max="25" width="4.5" customWidth="1"/>
+    <col min="26" max="26" width="8" customWidth="1"/>
+    <col min="27" max="27" width="7.375" style="2" customWidth="1"/>
+    <col min="28" max="29" width="8.5" style="2" customWidth="1"/>
+    <col min="30" max="30" width="7.875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="16" customWidth="1"/>
+    <col min="39" max="39" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:39">
+    <row r="1" spans="3:40">
       <c r="C1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="N1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="R1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="T1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="U1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="V1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="W1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="X1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Y1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>143</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="AE1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AF1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AG1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AH1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AI1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AJ1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AK1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
+        <v>154</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="O2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="S2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="T2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="U2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="V2" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="W2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Y2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>179</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>176</v>
+        <v>182</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="AE2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AF2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AG2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AH2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AI2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AJ2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AK2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
+        <v>190</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="O3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="V3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="W3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="X3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="AE3" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="AF3" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="AG3" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="AH3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AI3" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="AJ3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>200</v>
-      </c>
-      <c r="N5" t="s">
-        <v>201</v>
+        <v>205</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>206</v>
       </c>
       <c r="O5" t="s">
-        <v>202</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
+        <v>207</v>
+      </c>
+      <c r="P5" t="s">
+        <v>208</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
-      <c r="X5">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
         <v>2</v>
       </c>
-      <c r="AE5" t="s">
-        <v>203</v>
-      </c>
       <c r="AF5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
+        <v>209</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>206</v>
+      </c>
+      <c r="O6" t="s">
+        <v>207</v>
+      </c>
+      <c r="P6" t="s">
+        <v>208</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI6">
+        <v>60</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>206</v>
+      </c>
+      <c r="O7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q7">
+        <v>0.45</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>0.01</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>206</v>
       </c>
-      <c r="G6" t="s">
+      <c r="O8" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q8">
+        <v>1.6</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI10">
+        <v>100</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI11">
+        <v>0.5</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>229</v>
+      </c>
+      <c r="O14" t="s">
         <v>207</v>
       </c>
-      <c r="J6">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K15">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
-        <v>200</v>
-      </c>
-      <c r="N6" t="s">
-        <v>201</v>
-      </c>
-      <c r="O6" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
+      <c r="M15" t="s">
+        <v>229</v>
+      </c>
+      <c r="O15" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>206</v>
+      </c>
+      <c r="O16" t="s">
+        <v>234</v>
+      </c>
+      <c r="P16" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>206</v>
+      </c>
+      <c r="O17" t="s">
+        <v>234</v>
+      </c>
+      <c r="P17" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>239</v>
+      </c>
+      <c r="O18" t="s">
+        <v>240</v>
+      </c>
+      <c r="P18" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>206</v>
+      </c>
+      <c r="O19" t="s">
+        <v>242</v>
+      </c>
+      <c r="P19" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q19">
+        <v>1.5</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>0.8</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q20">
         <v>10</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0.5</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>206</v>
+      </c>
+      <c r="P22" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>251</v>
+      </c>
+      <c r="P23" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q23">
+        <v>0.8</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>254</v>
+      </c>
+      <c r="P24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q24">
+        <v>1.6</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="X24" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>20</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25">
         <v>0</v>
       </c>
-      <c r="AA6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH6">
-        <v>60</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>200</v>
-      </c>
-      <c r="N7" t="s">
-        <v>201</v>
-      </c>
-      <c r="O7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P7">
-        <v>0.45</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>7</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
-      <c r="Y7">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" t="s">
-        <v>199</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>200</v>
-      </c>
-      <c r="N8" t="s">
-        <v>217</v>
-      </c>
-      <c r="O8" t="s">
-        <v>218</v>
-      </c>
-      <c r="P8">
-        <v>1.6</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>2</v>
-      </c>
-      <c r="Y8">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="A10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" t="s">
-        <v>207</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH10">
-        <v>100</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH11">
-        <v>0.5</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>224</v>
-      </c>
-      <c r="N14" t="s">
-        <v>201</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>2</v>
-      </c>
-      <c r="AD14">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15" t="s">
-        <v>199</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>224</v>
-      </c>
-      <c r="N15" t="s">
-        <v>201</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>2</v>
-      </c>
-      <c r="AD15">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>200</v>
-      </c>
-      <c r="N16" t="s">
-        <v>230</v>
-      </c>
-      <c r="O16" t="s">
-        <v>231</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>2</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" t="s">
-        <v>199</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>200</v>
-      </c>
-      <c r="N17" t="s">
-        <v>230</v>
-      </c>
-      <c r="O17" t="s">
-        <v>231</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>2</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32">
-      <c r="A18" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" t="s">
-        <v>199</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>235</v>
-      </c>
-      <c r="N18" t="s">
-        <v>236</v>
-      </c>
-      <c r="O18" t="s">
-        <v>231</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>2</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" t="s">
-        <v>199</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>200</v>
-      </c>
-      <c r="N19" t="s">
-        <v>238</v>
-      </c>
-      <c r="O19" t="s">
-        <v>231</v>
-      </c>
-      <c r="P19">
-        <v>1.5</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19">
-        <v>0.8</v>
-      </c>
-      <c r="X19">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>240</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" t="s">
-        <v>207</v>
-      </c>
-      <c r="P20">
-        <v>10</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>0.5</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>7</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>10</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32">
-      <c r="A22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" t="s">
-        <v>229</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>200</v>
-      </c>
-      <c r="O22" t="s">
-        <v>231</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32">
-      <c r="A23" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G23" t="s">
-        <v>199</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>200</v>
-      </c>
-      <c r="N23" t="s">
-        <v>247</v>
-      </c>
-      <c r="O23" t="s">
-        <v>231</v>
-      </c>
-      <c r="P23">
-        <v>0.8</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" t="s">
-        <v>205</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G24" t="s">
-        <v>199</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>200</v>
-      </c>
-      <c r="N24" t="s">
-        <v>250</v>
-      </c>
-      <c r="O24" t="s">
-        <v>231</v>
-      </c>
-      <c r="P24">
-        <v>1.6</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>6</v>
-      </c>
-      <c r="W24" t="s">
-        <v>251</v>
-      </c>
-      <c r="X24">
-        <v>2</v>
-      </c>
-      <c r="Y24">
-        <v>20</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>252</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38">
-      <c r="A25" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" t="s">
-        <v>205</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G25" t="s">
-        <v>207</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="Z25"/>
+      <c r="R25">
+        <v>1</v>
+      </c>
       <c r="AA25"/>
       <c r="AB25"/>
       <c r="AC25"/>
-      <c r="AD25" s="1"/>
+      <c r="AD25"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH25" s="1">
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI25" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
-      <c r="AL25"/>
-    </row>
-    <row r="27" spans="1:39">
+      <c r="AL25" s="1"/>
+      <c r="AM25"/>
+    </row>
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" t="s">
+        <v>207</v>
+      </c>
+      <c r="P27" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>2</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI27">
+        <v>0.8</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O29" t="s">
+        <v>261</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
         <v>100</v>
       </c>
-      <c r="B27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" t="s">
-        <v>254</v>
-      </c>
-      <c r="G27" t="s">
-        <v>199</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>200</v>
-      </c>
-      <c r="N27" t="s">
-        <v>201</v>
-      </c>
-      <c r="O27" t="s">
-        <v>202</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="X27">
+      <c r="Y29">
+        <v>0.2</v>
+      </c>
+      <c r="Z29">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>50</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI29">
+        <v>0.8</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>206</v>
+      </c>
+      <c r="O30" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q30">
+        <v>0.05</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>100</v>
+      </c>
+      <c r="Y30">
+        <v>0.2</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" t="s">
+        <v>263</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>206</v>
+      </c>
+      <c r="O34" t="s">
+        <v>207</v>
+      </c>
+      <c r="P34" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q34">
         <v>2</v>
       </c>
-      <c r="AE27" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH27">
-        <v>0.8</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>240</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" t="s">
-        <v>205</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G29" t="s">
-        <v>199</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>200</v>
-      </c>
-      <c r="N29" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>100</v>
-      </c>
-      <c r="X29">
-        <v>0.2</v>
-      </c>
-      <c r="Y29">
-        <v>10</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>50</v>
-      </c>
-      <c r="AB29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH29">
-        <v>0.8</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="A30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" t="s">
-        <v>207</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>200</v>
-      </c>
-      <c r="N30" t="s">
-        <v>257</v>
-      </c>
-      <c r="P30">
-        <v>0.05</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30">
-        <v>100</v>
-      </c>
-      <c r="X30">
-        <v>0.2</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32">
-      <c r="A34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B34" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" t="s">
-        <v>259</v>
-      </c>
-      <c r="G34" t="s">
-        <v>199</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>200</v>
-      </c>
-      <c r="N34" t="s">
-        <v>201</v>
-      </c>
-      <c r="O34" t="s">
-        <v>202</v>
-      </c>
-      <c r="P34">
-        <v>2</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
       <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
         <v>3</v>
-      </c>
-      <c r="X34">
-        <v>0.2</v>
       </c>
       <c r="Y34">
         <v>0.2</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="Z34">
+        <v>0.2</v>
+      </c>
+      <c r="AA34" s="2">
         <v>0</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AB34" s="2">
         <v>3</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AC34" s="2">
         <v>2</v>
       </c>
-      <c r="AC34" s="2" t="s">
+      <c r="AD34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="A35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" t="s">
+        <v>263</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O35" t="s">
+        <v>207</v>
+      </c>
+      <c r="P35" t="s">
         <v>208</v>
       </c>
-      <c r="AE34" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32">
-      <c r="A35" t="s">
-        <v>260</v>
-      </c>
-      <c r="B35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" t="s">
-        <v>259</v>
-      </c>
-      <c r="G35" t="s">
-        <v>199</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>200</v>
-      </c>
-      <c r="N35" t="s">
-        <v>201</v>
-      </c>
-      <c r="O35" t="s">
-        <v>202</v>
-      </c>
-      <c r="P35">
+      <c r="Q35">
         <v>2</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
       <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
         <v>3</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>2</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>10</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="AA35" s="2">
         <v>0</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AB35" s="2">
         <v>3</v>
       </c>
-      <c r="AB35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>248</v>
+      <c r="AC35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="AF35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32">
+        <v>252</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" t="s">
-        <v>229</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="J36">
+        <v>205</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="K36">
         <v>0</v>
       </c>
-      <c r="L36" t="s">
-        <v>261</v>
-      </c>
-      <c r="O36" t="s">
-        <v>231</v>
-      </c>
-      <c r="P36">
-        <v>1</v>
+      <c r="M36" t="s">
+        <v>265</v>
+      </c>
+      <c r="P36" t="s">
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
-      <c r="X36">
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
         <v>2</v>
       </c>
-      <c r="AF36" t="s">
-        <v>21</v>
+      <c r="AG36" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4555,112 +4534,112 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="12.8727272727273" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4678,16 +4657,16 @@
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4706,49 +4685,49 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.2545454545455" customWidth="1"/>
-    <col min="3" max="3" width="12.6272727272727" customWidth="1"/>
+    <col min="1" max="1" width="15.2583333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4756,13 +4735,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4783,51 +4762,51 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="30.6272727272727" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4835,16 +4814,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4852,16 +4831,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4869,16 +4848,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4886,16 +4865,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4903,16 +4882,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4920,16 +4899,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4937,16 +4916,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4954,16 +4933,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4971,16 +4950,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4988,16 +4967,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5005,16 +4984,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="7590" activeTab="1"/>
+    <workbookView windowWidth="21240" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="286">
   <si>
     <t>重量</t>
   </si>
@@ -36,9 +36,6 @@
     <t>被攻击点</t>
   </si>
   <si>
-    <t>发射点</t>
-  </si>
-  <si>
     <t>技能</t>
   </si>
   <si>
@@ -111,16 +108,7 @@
     <t>Hatred</t>
   </si>
   <si>
-    <t>HitPointX</t>
-  </si>
-  <si>
-    <t>HitPointY</t>
-  </si>
-  <si>
-    <t>AttackPointX</t>
-  </si>
-  <si>
-    <t>AttackPointY</t>
+    <t>HitPointName</t>
   </si>
   <si>
     <t>Skills</t>
@@ -177,12 +165,12 @@
     <t>int</t>
   </si>
   <si>
+    <t>SkillData[]</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
-    <t>SkillData[]</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -468,10 +456,13 @@
     <t>是否治疗</t>
   </si>
   <si>
+    <t>攻击动作</t>
+  </si>
+  <si>
     <t>子弹</t>
   </si>
   <si>
-    <t>攻击动作</t>
+    <t>子弹起始点</t>
   </si>
   <si>
     <t>关联Buff</t>
@@ -576,10 +567,13 @@
     <t>IfHeal</t>
   </si>
   <si>
+    <t>ModelAnimation</t>
+  </si>
+  <si>
     <t>Bullet</t>
   </si>
   <si>
-    <t>ModelAnimation</t>
+    <t>ShootPoint</t>
   </si>
   <si>
     <t>Buffs</t>
@@ -649,6 +643,9 @@
   </si>
   <si>
     <t>阿米娅子弹</t>
+  </si>
+  <si>
+    <t>F_R_Hand</t>
   </si>
   <si>
     <t>攻击速度+60</t>
@@ -921,9 +918,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,28 +963,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,38 +985,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1027,6 +1001,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1035,9 +1025,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,6 +1039,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1059,7 +1049,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,7 +1071,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,67 +1131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,19 +1155,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,31 +1191,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,19 +1215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,7 +1233,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,17 +1280,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1346,6 +1339,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1354,17 +1362,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1373,145 +1370,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1879,28 +1876,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF20"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="11" max="12" width="9.75833333333333" customWidth="1"/>
     <col min="13" max="13" width="6.125" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="5.875" customWidth="1"/>
-    <col min="16" max="16" width="6.25833333333333" customWidth="1"/>
-    <col min="17" max="17" width="34.5" customWidth="1"/>
-    <col min="18" max="18" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="34.5" customWidth="1"/>
+    <col min="15" max="15" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:31">
+    <row r="1" spans="9:28">
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -1916,248 +1910,227 @@
       <c r="M1" t="s">
         <v>4</v>
       </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
       <c r="O1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
       </c>
       <c r="Q1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>13</v>
       </c>
       <c r="X1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AB1" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>39</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" t="s">
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
+      <c r="Q3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
+      <c r="R3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="Y3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="Z3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" t="s">
         <v>52</v>
       </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" t="s">
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="R3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="C4" t="s">
         <v>55</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -2171,31 +2144,25 @@
       <c r="H4">
         <v>50</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>0.5</v>
       </c>
-      <c r="Z4">
+      <c r="W4">
         <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -2209,34 +2176,28 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0.2</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>62</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
         <v>0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -2250,47 +2211,41 @@
       <c r="H6">
         <v>50</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
         <v>0.3</v>
       </c>
-      <c r="Q6" t="s">
-        <v>62</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>0.3</v>
-      </c>
-      <c r="Z6">
+      <c r="W6">
         <v>0.49</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -2310,58 +2265,46 @@
       <c r="K10">
         <v>20</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0.5</v>
-      </c>
-      <c r="O10">
-        <v>0.2</v>
-      </c>
-      <c r="P10">
-        <v>0.5</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0.49</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" t="s">
         <v>69</v>
       </c>
-      <c r="R10" t="s">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
         <v>70</v>
       </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>0.49</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -2381,58 +2324,46 @@
       <c r="K11">
         <v>20</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0.5</v>
-      </c>
-      <c r="O11">
-        <v>0.2</v>
-      </c>
-      <c r="P11">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0.49</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
         <v>75</v>
       </c>
-      <c r="R11" t="s">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
         <v>76</v>
       </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>0.49</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -2452,58 +2383,46 @@
       <c r="K12">
         <v>20</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0.5</v>
-      </c>
-      <c r="O12">
-        <v>0.2</v>
-      </c>
-      <c r="P12">
-        <v>0.5</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>0.49</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s">
         <v>81</v>
       </c>
-      <c r="R12" t="s">
+      <c r="AB12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
         <v>82</v>
       </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="Z12">
-        <v>0.49</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
         <v>83</v>
       </c>
-      <c r="AC12" s="4" t="s">
+      <c r="D13" t="s">
         <v>84</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2523,55 +2442,43 @@
       <c r="K13">
         <v>20</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0.5</v>
-      </c>
-      <c r="O13">
-        <v>0.2</v>
-      </c>
-      <c r="P13">
-        <v>0.5</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>69</v>
-      </c>
-      <c r="R13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="N13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" t="s">
         <v>87</v>
       </c>
-      <c r="AE13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -2591,55 +2498,43 @@
       <c r="K14">
         <v>20</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0.5</v>
-      </c>
-      <c r="O14">
-        <v>0.2</v>
-      </c>
-      <c r="P14">
-        <v>0.5</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="R14" t="s">
-        <v>94</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD14" t="s">
+      <c r="D15" t="s">
         <v>92</v>
-      </c>
-      <c r="AE14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" t="s">
-        <v>96</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2659,55 +2554,43 @@
       <c r="K15">
         <v>20</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0.5</v>
-      </c>
-      <c r="O15">
-        <v>0.2</v>
-      </c>
-      <c r="P15">
-        <v>0.5</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="N15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA15" t="s">
         <v>93</v>
       </c>
-      <c r="R15" t="s">
-        <v>94</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE15">
+      <c r="AB15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2727,55 +2610,43 @@
       <c r="K16">
         <v>20</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0.5</v>
-      </c>
-      <c r="O16">
-        <v>0.2</v>
-      </c>
-      <c r="P16">
-        <v>0.5</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>69</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="N16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
         <v>101</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="D17" t="s">
         <v>100</v>
-      </c>
-      <c r="AE16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -2795,55 +2666,43 @@
       <c r="K17">
         <v>20</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0.5</v>
-      </c>
-      <c r="O17">
-        <v>0.2</v>
-      </c>
-      <c r="P17">
-        <v>0.5</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>69</v>
-      </c>
-      <c r="R17" t="s">
-        <v>106</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD17" t="s">
+      <c r="N17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" t="s">
         <v>105</v>
       </c>
-      <c r="AE17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>109</v>
-      </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -2863,55 +2722,43 @@
       <c r="K18">
         <v>20</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0.5</v>
-      </c>
-      <c r="O18">
-        <v>0.2</v>
-      </c>
-      <c r="P18">
-        <v>0.5</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>93</v>
-      </c>
-      <c r="R18" t="s">
-        <v>94</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
+      <c r="N18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
         <v>3</v>
       </c>
-      <c r="AB18" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE18">
+      <c r="Y18" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -2931,55 +2778,43 @@
       <c r="K19">
         <v>20</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0.5</v>
-      </c>
-      <c r="O19">
-        <v>0.2</v>
-      </c>
-      <c r="P19">
-        <v>0.5</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>69</v>
-      </c>
-      <c r="R19" t="s">
-        <v>94</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE19">
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -2999,40 +2834,28 @@
       <c r="K20">
         <v>20</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0.5</v>
-      </c>
-      <c r="O20">
-        <v>0.2</v>
-      </c>
-      <c r="P20">
-        <v>0.5</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>117</v>
-      </c>
-      <c r="R20" t="s">
-        <v>118</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE20">
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB20">
         <v>4</v>
       </c>
     </row>
@@ -3046,14 +2869,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3081,393 +2904,403 @@
     <col min="27" max="27" width="7.375" style="2" customWidth="1"/>
     <col min="28" max="29" width="8.5" style="2" customWidth="1"/>
     <col min="30" max="30" width="7.875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="16" customWidth="1"/>
-    <col min="39" max="39" width="9.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="16" customWidth="1"/>
+    <col min="34" max="34" width="16" customWidth="1"/>
+    <col min="40" max="40" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:40">
+    <row r="1" spans="3:41">
       <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" t="s">
         <v>122</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>123</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>127</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>128</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>129</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>130</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>131</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>132</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>134</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>135</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>136</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>137</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>138</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>139</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AE1" t="s">
         <v>144</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>145</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AG1" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AH1" t="s">
         <v>147</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>148</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>149</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>150</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>151</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>152</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>154</v>
       </c>
-      <c r="AL1" t="s">
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>155</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="D2" t="s">
         <v>156</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="E2" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>158</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" t="s">
         <v>160</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>161</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>162</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>163</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>164</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>165</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>166</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>167</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>168</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>169</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>171</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>172</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>173</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" t="s">
         <v>174</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>175</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>176</v>
       </c>
-      <c r="W2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AE2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AF2" t="s">
         <v>182</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AG2" t="s">
         <v>183</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>184</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>185</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>186</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>187</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>188</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>189</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>191</v>
       </c>
-      <c r="AM2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
         <v>192</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="E3" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="N3" t="s">
         <v>195</v>
       </c>
-      <c r="F3" t="s">
+      <c r="O3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" t="s">
-        <v>196</v>
-      </c>
-      <c r="N3" t="s">
-        <v>197</v>
-      </c>
-      <c r="O3" t="s">
-        <v>198</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="AF3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" t="s">
         <v>199</v>
       </c>
-      <c r="Q3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AH3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" t="s">
         <v>200</v>
       </c>
-      <c r="AE3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AJ3" t="s">
         <v>201</v>
       </c>
-      <c r="AG3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>50</v>
-      </c>
       <c r="AK3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="O5" t="s">
         <v>205</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>206</v>
-      </c>
-      <c r="O5" t="s">
-        <v>207</v>
-      </c>
-      <c r="P5" t="s">
-        <v>208</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -3479,39 +3312,42 @@
         <v>2</v>
       </c>
       <c r="AF5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
         <v>209</v>
       </c>
-      <c r="AG5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>210</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>204</v>
+      </c>
+      <c r="O6" t="s">
+        <v>205</v>
+      </c>
+      <c r="P6" t="s">
         <v>206</v>
-      </c>
-      <c r="O6" t="s">
-        <v>207</v>
-      </c>
-      <c r="P6" t="s">
-        <v>208</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -3529,45 +3365,48 @@
         <v>1</v>
       </c>
       <c r="AD6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI6" t="s">
         <v>213</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AJ6">
+        <v>60</v>
+      </c>
+      <c r="AO6" t="s">
         <v>214</v>
       </c>
-      <c r="AI6">
-        <v>60</v>
-      </c>
-      <c r="AN6" t="s">
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>216</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>217</v>
       </c>
-      <c r="C7" t="s">
-        <v>218</v>
-      </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
+        <v>204</v>
+      </c>
+      <c r="O7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P7" t="s">
         <v>206</v>
-      </c>
-      <c r="O7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P7" t="s">
-        <v>208</v>
       </c>
       <c r="Q7">
         <v>0.45</v>
@@ -3579,7 +3418,7 @@
         <v>7</v>
       </c>
       <c r="T7">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Y7">
         <v>2</v>
@@ -3597,42 +3436,51 @@
         <v>1</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>22</v>
       </c>
       <c r="AG7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
         <v>220</v>
       </c>
-      <c r="B8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" t="s">
-        <v>221</v>
-      </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O8" t="s">
+        <v>221</v>
+      </c>
+      <c r="P8" t="s">
         <v>222</v>
-      </c>
-      <c r="P8" t="s">
-        <v>223</v>
       </c>
       <c r="Q8">
         <v>1.6</v>
@@ -3655,25 +3503,25 @@
       <c r="AC8" s="2">
         <v>1</v>
       </c>
-      <c r="AG8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN8" t="s">
+      <c r="AF8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3694,30 +3542,30 @@
         <v>1</v>
       </c>
       <c r="AD10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI10" t="s">
         <v>213</v>
       </c>
-      <c r="AH10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>100</v>
       </c>
-      <c r="AN10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="AO10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3738,36 +3586,36 @@
         <v>1</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ11">
+        <v>0.5</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" t="s">
         <v>227</v>
       </c>
-      <c r="AI11">
-        <v>0.5</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" t="s">
-        <v>228</v>
-      </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -3781,31 +3629,31 @@
       <c r="AE14">
         <v>1</v>
       </c>
-      <c r="AG14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+      <c r="AF14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" t="s">
         <v>230</v>
       </c>
-      <c r="B15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" t="s">
-        <v>231</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3819,34 +3667,34 @@
       <c r="AE15">
         <v>1</v>
       </c>
-      <c r="AG15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN15" t="s">
+      <c r="AF15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O16" t="s">
         <v>233</v>
       </c>
-      <c r="B16" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>206</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>234</v>
-      </c>
-      <c r="P16" t="s">
-        <v>235</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -3857,31 +3705,31 @@
       <c r="Y16">
         <v>2</v>
       </c>
-      <c r="AG16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AF16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O17" t="s">
+        <v>233</v>
+      </c>
+      <c r="P17" t="s">
         <v>234</v>
-      </c>
-      <c r="P17" t="s">
-        <v>235</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -3892,31 +3740,31 @@
       <c r="Y17">
         <v>2</v>
       </c>
-      <c r="AG17" t="s">
-        <v>23</v>
+      <c r="AF17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" t="s">
         <v>237</v>
       </c>
-      <c r="B18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>238</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>239</v>
       </c>
-      <c r="O18" t="s">
-        <v>240</v>
-      </c>
       <c r="P18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -3928,21 +3776,21 @@
         <v>2</v>
       </c>
       <c r="AF18" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3951,13 +3799,13 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -3984,36 +3832,36 @@
         <v>1</v>
       </c>
       <c r="AD19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK19" t="s">
         <v>243</v>
       </c>
-      <c r="AF19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ19" t="s">
+      <c r="AL19" t="s">
         <v>244</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AO19" t="s">
         <v>245</v>
       </c>
-      <c r="AN19" t="s">
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>247</v>
       </c>
-      <c r="C20" t="s">
-        <v>248</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>10</v>
@@ -4034,33 +3882,33 @@
         <v>1</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33">
+        <v>212</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -4071,31 +3919,31 @@
       <c r="Y22">
         <v>1</v>
       </c>
-      <c r="AG22" t="s">
-        <v>23</v>
+      <c r="AF22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:33">
       <c r="A23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
         <v>250</v>
       </c>
-      <c r="B23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>206</v>
-      </c>
-      <c r="O23" t="s">
-        <v>251</v>
-      </c>
       <c r="P23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q23">
         <v>0.8</v>
@@ -4107,42 +3955,42 @@
         <v>1</v>
       </c>
       <c r="AF23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" t="s">
         <v>252</v>
       </c>
-      <c r="AG23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>204</v>
+      </c>
+      <c r="O24" t="s">
         <v>253</v>
       </c>
-      <c r="D24" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>206</v>
-      </c>
-      <c r="O24" t="s">
-        <v>254</v>
-      </c>
       <c r="P24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q24">
         <v>1.6</v>
@@ -4154,7 +4002,7 @@
         <v>6</v>
       </c>
       <c r="X24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y24">
         <v>2</v>
@@ -4172,30 +4020,30 @@
         <v>1</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>256</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39">
+        <v>212</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -4210,38 +4058,39 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI25" s="1">
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ25" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
-      <c r="AM25"/>
-    </row>
-    <row r="27" spans="1:40">
+      <c r="AM25" s="1"/>
+      <c r="AN25"/>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>204</v>
+      </c>
+      <c r="O27" t="s">
         <v>205</v>
       </c>
-      <c r="C27" t="s">
-        <v>258</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="P27" t="s">
         <v>206</v>
-      </c>
-      <c r="O27" t="s">
-        <v>207</v>
-      </c>
-      <c r="P27" t="s">
-        <v>208</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -4253,51 +4102,51 @@
         <v>2</v>
       </c>
       <c r="AF27" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH27" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ27">
+        <v>0.8</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" t="s">
         <v>259</v>
       </c>
-      <c r="AI27">
-        <v>0.8</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>244</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>204</v>
+      </c>
+      <c r="O29" t="s">
         <v>260</v>
-      </c>
-      <c r="D29" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
-        <v>206</v>
-      </c>
-      <c r="O29" t="s">
-        <v>261</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -4321,36 +4170,36 @@
         <v>1</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI29">
+        <v>212</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ29">
         <v>0.8</v>
       </c>
-      <c r="AN29" t="s">
-        <v>232</v>
+      <c r="AO29" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q30">
         <v>0.05</v>
@@ -4370,28 +4219,28 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" t="s">
         <v>262</v>
       </c>
-      <c r="B34" t="s">
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>204</v>
+      </c>
+      <c r="O34" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F34" t="s">
-        <v>263</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="P34" t="s">
         <v>206</v>
-      </c>
-      <c r="O34" t="s">
-        <v>207</v>
-      </c>
-      <c r="P34" t="s">
-        <v>208</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -4418,39 +4267,39 @@
         <v>2</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF34" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="AG34" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>204</v>
+      </c>
+      <c r="O35" t="s">
         <v>205</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F35" t="s">
-        <v>263</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="P35" t="s">
         <v>206</v>
-      </c>
-      <c r="O35" t="s">
-        <v>207</v>
-      </c>
-      <c r="P35" t="s">
-        <v>208</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -4477,21 +4326,21 @@
         <v>1</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF35" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="AG35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -4500,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -4514,8 +4363,8 @@
       <c r="Y36">
         <v>2</v>
       </c>
-      <c r="AG36" t="s">
-        <v>23</v>
+      <c r="AF36" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4541,105 +4390,105 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" t="s">
         <v>266</v>
-      </c>
-      <c r="E2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4661,12 +4510,12 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4693,41 +4542,41 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4735,13 +4584,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4769,44 +4618,44 @@
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" t="s">
         <v>277</v>
-      </c>
-      <c r="E1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" t="s">
         <v>279</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>280</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>281</v>
-      </c>
-      <c r="E2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4814,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>284</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4831,16 +4680,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4848,16 +4697,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4865,16 +4714,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4882,16 +4731,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4899,16 +4748,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4916,16 +4765,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4933,16 +4782,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4950,16 +4799,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4967,16 +4816,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4984,16 +4833,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D14">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="291">
   <si>
     <t>重量</t>
   </si>
@@ -669,9 +669,6 @@
     <t>精神爆发</t>
   </si>
   <si>
-    <t>伤害连发</t>
-  </si>
-  <si>
     <t>每次攻击变为45%的7连发,随机攻击范围里的目标。</t>
   </si>
   <si>
@@ -747,9 +744,6 @@
     <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
   </si>
   <si>
-    <t>主动</t>
-  </si>
-  <si>
     <t>蓄力</t>
   </si>
   <si>
@@ -877,19 +871,41 @@
   </si>
   <si>
     <t>TestMap</t>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackModeEnum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackMode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定间隔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟随攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,345 +934,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1264,255 +964,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1528,58 +986,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1870,17 +1284,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
@@ -1888,13 +1301,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="11" max="12" width="9.75833333333333" customWidth="1"/>
+    <col min="11" max="12" width="9.75" customWidth="1"/>
     <col min="13" max="13" width="6.125" customWidth="1"/>
     <col min="14" max="14" width="34.5" customWidth="1"/>
     <col min="15" max="15" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:28">
+    <row r="1" spans="1:29">
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +1535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -2154,7 +1567,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2189,7 +1602,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -2224,17 +1637,17 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -2293,7 +1706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2352,7 +1765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2411,7 +1824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2467,7 +1880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -2523,7 +1936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -2579,7 +1992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -2860,56 +2273,55 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AO36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.2583333333333" customWidth="1"/>
-    <col min="2" max="2" width="7.75833333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="7.75833333333333" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75833333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="8.375" customWidth="1"/>
     <col min="8" max="8" width="10.625" customWidth="1"/>
     <col min="9" max="10" width="8.375" customWidth="1"/>
     <col min="11" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="13.2583333333333" customWidth="1"/>
-    <col min="14" max="14" width="11.9083333333333" customWidth="1"/>
-    <col min="15" max="15" width="14.7583333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="14.75" customWidth="1"/>
     <col min="16" max="16" width="7.125" customWidth="1"/>
     <col min="17" max="17" width="7" customWidth="1"/>
     <col min="18" max="18" width="8.5" customWidth="1"/>
-    <col min="19" max="20" width="8.25833333333333" customWidth="1"/>
+    <col min="19" max="20" width="8.25" customWidth="1"/>
     <col min="21" max="24" width="8.375" customWidth="1"/>
     <col min="25" max="25" width="4.5" customWidth="1"/>
     <col min="26" max="26" width="8" customWidth="1"/>
     <col min="27" max="27" width="7.375" style="2" customWidth="1"/>
     <col min="28" max="29" width="8.5" style="2" customWidth="1"/>
     <col min="30" max="30" width="7.875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="34" max="34" width="16" customWidth="1"/>
-    <col min="40" max="40" width="9.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="13.5" customWidth="1"/>
+    <col min="33" max="33" width="9" style="5" customWidth="1"/>
+    <col min="35" max="35" width="16" customWidth="1"/>
+    <col min="41" max="41" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:41">
+    <row r="1" spans="1:42">
       <c r="C1" t="s">
         <v>116</v>
       </c>
@@ -3000,35 +2412,38 @@
       <c r="AF1" t="s">
         <v>145</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH1" t="s">
         <v>146</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>147</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>148</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>149</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>150</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>151</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>152</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3125,35 +2540,38 @@
       <c r="AF2" t="s">
         <v>182</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="AH2" t="s">
         <v>183</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>184</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>185</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>186</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>187</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>188</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>189</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3250,20 +2668,20 @@
       <c r="AF3" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH3" t="s">
         <v>199</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>46</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>200</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>201</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>46</v>
       </c>
       <c r="AL3" t="s">
         <v>46</v>
@@ -3271,19 +2689,22 @@
       <c r="AM3" t="s">
         <v>46</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:42">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3309,19 +2730,22 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="s">
         <v>22</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH5" t="s">
         <v>207</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:42">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -3367,31 +2791,31 @@
       <c r="AD6" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>213</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>60</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42">
       <c r="A7" t="s">
         <v>215</v>
       </c>
       <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" t="s">
         <v>216</v>
-      </c>
-      <c r="C7" t="s">
-        <v>217</v>
       </c>
       <c r="D7" t="s">
         <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3421,13 +2845,13 @@
         <v>0.03</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>10</v>
       </c>
       <c r="AA7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="2">
         <v>5</v>
@@ -3438,28 +2862,28 @@
       <c r="AD7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AF7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AF7" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH7" t="s">
         <v>207</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>208</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>219</v>
       </c>
       <c r="B8" t="s">
         <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
         <v>210</v>
@@ -3477,10 +2901,10 @@
         <v>204</v>
       </c>
       <c r="O8" t="s">
+        <v>220</v>
+      </c>
+      <c r="P8" t="s">
         <v>221</v>
-      </c>
-      <c r="P8" t="s">
-        <v>222</v>
       </c>
       <c r="Q8">
         <v>1.6</v>
@@ -3489,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>10</v>
@@ -3503,16 +2927,24 @@
       <c r="AC8" s="2">
         <v>1</v>
       </c>
-      <c r="AF8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO8" t="s">
+      <c r="AF8" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="AG9" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>224</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
@@ -3521,7 +2953,7 @@
         <v>210</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3544,17 +2976,17 @@
       <c r="AD10" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>213</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>100</v>
       </c>
-      <c r="AO10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41">
+      <c r="AP10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -3565,7 +2997,7 @@
         <v>210</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3588,19 +3020,19 @@
       <c r="AD11" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK11">
+        <v>0.5</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" t="s">
         <v>226</v>
-      </c>
-      <c r="AJ11">
-        <v>0.5</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>227</v>
       </c>
       <c r="B14" t="s">
         <v>203</v>
@@ -3612,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O14" t="s">
         <v>205</v>
@@ -3633,15 +3065,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
         <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>212</v>
@@ -3650,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O15" t="s">
         <v>205</v>
@@ -3670,13 +3102,13 @@
       <c r="AF15" t="s">
         <v>22</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>232</v>
       </c>
       <c r="B16" t="s">
         <v>203</v>
@@ -3691,10 +3123,10 @@
         <v>204</v>
       </c>
       <c r="O16" t="s">
+        <v>232</v>
+      </c>
+      <c r="P16" t="s">
         <v>233</v>
-      </c>
-      <c r="P16" t="s">
-        <v>234</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -3709,9 +3141,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:42">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
         <v>203</v>
@@ -3726,10 +3158,10 @@
         <v>204</v>
       </c>
       <c r="O17" t="s">
+        <v>232</v>
+      </c>
+      <c r="P17" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" t="s">
-        <v>234</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -3744,27 +3176,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
         <v>203</v>
       </c>
       <c r="C18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>237</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>238</v>
       </c>
-      <c r="O18" t="s">
-        <v>239</v>
-      </c>
       <c r="P18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -3778,11 +3210,11 @@
       <c r="AF18" t="s">
         <v>22</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:42">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -3790,7 +3222,7 @@
         <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3802,10 +3234,10 @@
         <v>204</v>
       </c>
       <c r="O19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -3832,33 +3264,33 @@
         <v>1</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="AF19" t="s">
         <v>22</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>207</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP19" t="s">
         <v>243</v>
       </c>
-      <c r="AL19" t="s">
-        <v>244</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41">
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" t="s">
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>211</v>
@@ -3887,13 +3319,13 @@
       <c r="AF20" t="s">
         <v>22</v>
       </c>
-      <c r="AO20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AP20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
       <c r="A22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s">
         <v>203</v>
@@ -3908,7 +3340,7 @@
         <v>204</v>
       </c>
       <c r="P22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -3923,9 +3355,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:42">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
         <v>203</v>
@@ -3940,10 +3372,10 @@
         <v>204</v>
       </c>
       <c r="O23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q23">
         <v>0.8</v>
@@ -3957,11 +3389,11 @@
       <c r="AF23" t="s">
         <v>22</v>
       </c>
-      <c r="AG23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41">
+      <c r="AH23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -3969,7 +3401,7 @@
         <v>203</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D24" t="s">
         <v>210</v>
@@ -3987,10 +3419,10 @@
         <v>204</v>
       </c>
       <c r="O24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q24">
         <v>1.6</v>
@@ -4002,7 +3434,7 @@
         <v>6</v>
       </c>
       <c r="X24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Y24">
         <v>2</v>
@@ -4025,16 +3457,16 @@
       <c r="AF24" t="s">
         <v>22</v>
       </c>
-      <c r="AL24" t="s">
-        <v>255</v>
-      </c>
-      <c r="AO24" t="s">
+      <c r="AM24" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:42">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s">
         <v>203</v>
@@ -4043,7 +3475,7 @@
         <v>210</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -4057,20 +3489,20 @@
       <c r="AD25"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
-      <c r="AI25" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AJ25" s="1">
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK25" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
-      <c r="AN25"/>
-    </row>
-    <row r="27" spans="1:41">
+      <c r="AN25" s="1"/>
+      <c r="AO25"/>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -4078,7 +3510,7 @@
         <v>203</v>
       </c>
       <c r="C27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -4104,26 +3536,26 @@
       <c r="AF27" t="s">
         <v>22</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>207</v>
       </c>
-      <c r="AI27" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ27">
+      <c r="AJ27" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK27">
         <v>0.8</v>
       </c>
-      <c r="AK27" t="s">
-        <v>243</v>
-      </c>
       <c r="AL27" t="s">
-        <v>244</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41">
+        <v>241</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -4131,7 +3563,7 @@
         <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D29" t="s">
         <v>210</v>
@@ -4146,7 +3578,7 @@
         <v>204</v>
       </c>
       <c r="O29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -4172,17 +3604,17 @@
       <c r="AD29" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AI29" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ29">
+      <c r="AJ29" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK29">
         <v>0.8</v>
       </c>
-      <c r="AO29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AP29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -4199,7 +3631,7 @@
         <v>204</v>
       </c>
       <c r="O30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q30">
         <v>0.05</v>
@@ -4217,9 +3649,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s">
         <v>203</v>
@@ -4228,7 +3660,7 @@
         <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -4272,13 +3704,13 @@
       <c r="AF34" t="s">
         <v>22</v>
       </c>
-      <c r="AG34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33">
+      <c r="AH34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
       <c r="A35" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s">
         <v>203</v>
@@ -4287,7 +3719,7 @@
         <v>211</v>
       </c>
       <c r="F35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -4331,11 +3763,11 @@
       <c r="AF35" t="s">
         <v>22</v>
       </c>
-      <c r="AG35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AH35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -4349,10 +3781,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -4368,27 +3800,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -4404,10 +3835,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4424,15 +3855,15 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4440,73 +3871,72 @@
         <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -4519,24 +3949,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.2583333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4576,7 +4005,7 @@
         <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4584,44 +4013,43 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
         <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5">
+    <row r="1" spans="1:5">
       <c r="D1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4629,16 +4057,16 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" t="s">
         <v>278</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>279</v>
-      </c>
-      <c r="D2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4649,7 +4077,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -4663,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
@@ -4672,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4680,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -4689,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4697,7 +4125,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
@@ -4706,7 +4134,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4714,7 +4142,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
@@ -4723,7 +4151,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4731,7 +4159,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
         <v>56</v>
@@ -4740,7 +4168,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4748,7 +4176,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
@@ -4757,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4765,7 +4193,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
         <v>56</v>
@@ -4774,7 +4202,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4782,7 +4210,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -4791,7 +4219,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4799,7 +4227,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
@@ -4808,7 +4236,7 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4816,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
@@ -4825,7 +4253,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4833,7 +4261,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -4842,11 +4270,11 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="9300" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="296">
   <si>
     <t>重量</t>
   </si>
@@ -423,6 +423,9 @@
     <t>连发间隔</t>
   </si>
   <si>
+    <t>连发重新索敌</t>
+  </si>
+  <si>
     <t>溅射范围</t>
   </si>
   <si>
@@ -459,6 +462,12 @@
     <t>攻击动作</t>
   </si>
   <si>
+    <t>覆盖动作</t>
+  </si>
+  <si>
+    <t>攻击模式</t>
+  </si>
+  <si>
     <t>子弹</t>
   </si>
   <si>
@@ -537,6 +546,9 @@
     <t>BurstDelay</t>
   </si>
   <si>
+    <t>BurstFind</t>
+  </si>
+  <si>
     <t>AreaRange</t>
   </si>
   <si>
@@ -570,6 +582,12 @@
     <t>ModelAnimation</t>
   </si>
   <si>
+    <t>OverwriteAnimation</t>
+  </si>
+  <si>
+    <t>AttackMode</t>
+  </si>
+  <si>
     <t>Bullet</t>
   </si>
   <si>
@@ -618,6 +636,9 @@
     <t>PowerRecoverTypeEnum</t>
   </si>
   <si>
+    <t>AttackModeEnum</t>
+  </si>
+  <si>
     <t>BulletData</t>
   </si>
   <si>
@@ -642,6 +663,9 @@
     <t>Magic</t>
   </si>
   <si>
+    <t>跟随攻击</t>
+  </si>
+  <si>
     <t>阿米娅子弹</t>
   </si>
   <si>
@@ -672,6 +696,12 @@
     <t>每次攻击变为45%的7连发,随机攻击范围里的目标。</t>
   </si>
   <si>
+    <t>随机</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
     <t>箭矢·散逸</t>
   </si>
   <si>
@@ -690,6 +720,9 @@
     <t>焰淬匕首</t>
   </si>
   <si>
+    <t>固定间隔</t>
+  </si>
+  <si>
     <t>激活攻速提升</t>
   </si>
   <si>
@@ -744,6 +777,9 @@
     <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
   </si>
   <si>
+    <t>攻击</t>
+  </si>
+  <si>
     <t>蓄力</t>
   </si>
   <si>
@@ -871,41 +907,19 @@
   </si>
   <si>
     <t>TestMap</t>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackModeEnum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackMode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定间隔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟随攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,35 +942,358 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -964,9 +1301,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,17 +1562,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1284,16 +1910,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
@@ -1307,7 +1934,7 @@
     <col min="15" max="15" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="9:28">
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +2162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1567,7 +2194,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1602,7 +2229,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1637,17 +2264,17 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1706,7 +2333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1765,7 +2392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -1814,7 +2441,7 @@
       <c r="Y12" t="s">
         <v>79</v>
       </c>
-      <c r="Z12" s="4" t="s">
+      <c r="Z12" s="5" t="s">
         <v>80</v>
       </c>
       <c r="AA12" t="s">
@@ -1824,7 +2451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -1870,7 +2497,7 @@
       <c r="Y13" t="s">
         <v>67</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="Z13" s="5" t="s">
         <v>86</v>
       </c>
       <c r="AA13" t="s">
@@ -1880,7 +2507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -1926,7 +2553,7 @@
       <c r="Y14" t="s">
         <v>79</v>
       </c>
-      <c r="Z14" s="4" t="s">
+      <c r="Z14" s="5" t="s">
         <v>91</v>
       </c>
       <c r="AA14" t="s">
@@ -1936,7 +2563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -1982,7 +2609,7 @@
       <c r="Y15" t="s">
         <v>79</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="Z15" s="5" t="s">
         <v>94</v>
       </c>
       <c r="AA15" t="s">
@@ -1992,7 +2619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -2038,7 +2665,7 @@
       <c r="Y16" t="s">
         <v>98</v>
       </c>
-      <c r="Z16" s="4" t="s">
+      <c r="Z16" s="5" t="s">
         <v>99</v>
       </c>
       <c r="AA16" t="s">
@@ -2094,7 +2721,7 @@
       <c r="Y17" t="s">
         <v>103</v>
       </c>
-      <c r="Z17" s="4" t="s">
+      <c r="Z17" s="5" t="s">
         <v>104</v>
       </c>
       <c r="AA17" t="s">
@@ -2150,7 +2777,7 @@
       <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="Z18" s="4" t="s">
+      <c r="Z18" s="5" t="s">
         <v>107</v>
       </c>
       <c r="AA18" t="s">
@@ -2206,7 +2833,7 @@
       <c r="Y19" t="s">
         <v>67</v>
       </c>
-      <c r="Z19" s="4" t="s">
+      <c r="Z19" s="5" t="s">
         <v>110</v>
       </c>
       <c r="AA19" t="s">
@@ -2262,7 +2889,7 @@
       <c r="Y20" t="s">
         <v>73</v>
       </c>
-      <c r="Z20" s="4" t="s">
+      <c r="Z20" s="5" t="s">
         <v>115</v>
       </c>
       <c r="AA20" t="s">
@@ -2273,21 +2900,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2308,20 +2937,21 @@
     <col min="16" max="16" width="7.125" customWidth="1"/>
     <col min="17" max="17" width="7" customWidth="1"/>
     <col min="18" max="18" width="8.5" customWidth="1"/>
-    <col min="19" max="20" width="8.25" customWidth="1"/>
-    <col min="21" max="24" width="8.375" customWidth="1"/>
-    <col min="25" max="25" width="4.5" customWidth="1"/>
-    <col min="26" max="26" width="8" customWidth="1"/>
-    <col min="27" max="27" width="7.375" style="2" customWidth="1"/>
-    <col min="28" max="29" width="8.5" style="2" customWidth="1"/>
-    <col min="30" max="30" width="7.875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="13.5" customWidth="1"/>
-    <col min="33" max="33" width="9" style="5" customWidth="1"/>
-    <col min="35" max="35" width="16" customWidth="1"/>
-    <col min="41" max="41" width="9.5" style="3" customWidth="1"/>
+    <col min="19" max="21" width="8.25" customWidth="1"/>
+    <col min="22" max="25" width="8.375" customWidth="1"/>
+    <col min="26" max="26" width="4.5" customWidth="1"/>
+    <col min="27" max="27" width="8" customWidth="1"/>
+    <col min="28" max="28" width="7.375" style="2" customWidth="1"/>
+    <col min="29" max="30" width="8.5" style="2" customWidth="1"/>
+    <col min="31" max="31" width="7.875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="13.5" customWidth="1"/>
+    <col min="34" max="34" width="10" customWidth="1"/>
+    <col min="35" max="35" width="9" style="3" customWidth="1"/>
+    <col min="37" max="37" width="16" customWidth="1"/>
+    <col min="43" max="43" width="9.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="3:44">
       <c r="C1" t="s">
         <v>116</v>
       </c>
@@ -2394,7 +3024,7 @@
       <c r="Z1" t="s">
         <v>139</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" t="s">
         <v>140</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -2406,44 +3036,50 @@
       <c r="AD1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>144</v>
       </c>
       <c r="AF1" t="s">
         <v>145</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>288</v>
+      <c r="AG1" t="s">
+        <v>146</v>
       </c>
       <c r="AH1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI1" t="s">
         <v>147</v>
       </c>
+      <c r="AI1" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="AJ1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO1" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="AO1" t="s">
+        <v>154</v>
+      </c>
       <c r="AP1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42">
+        <v>155</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2451,127 +3087,133 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="T2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="U2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="V2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="W2" t="s">
+        <v>177</v>
+      </c>
+      <c r="X2" t="s">
         <v>30</v>
       </c>
-      <c r="X2" t="s">
-        <v>174</v>
-      </c>
       <c r="Y2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Z2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>180</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="AF2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>287</v>
+        <v>185</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>186</v>
       </c>
       <c r="AH2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>184</v>
+        <v>187</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="AJ2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AK2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AL2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AM2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AN2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>194</v>
       </c>
       <c r="AP2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42">
+        <v>195</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2582,10 +3224,10 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2609,16 +3251,16 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q3" t="s">
         <v>49</v>
@@ -2633,25 +3275,25 @@
         <v>49</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
         <v>49</v>
       </c>
       <c r="W3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X3" t="s">
         <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z3" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>47</v>
+      <c r="AA3" t="s">
+        <v>49</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>47</v>
@@ -2660,68 +3302,74 @@
         <v>47</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF3" t="s">
         <v>50</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="5" t="s">
-        <v>286</v>
-      </c>
       <c r="AH3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI3" t="s">
         <v>46</v>
       </c>
+      <c r="AI3" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="AJ3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AK3" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="AM3" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="AN3" t="s">
         <v>46</v>
       </c>
-      <c r="AO3" s="3" t="s">
-        <v>49</v>
+      <c r="AO3" t="s">
+        <v>46</v>
       </c>
       <c r="AP3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:42">
+      <c r="AQ3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2729,108 +3377,108 @@
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>22</v>
       </c>
-      <c r="AG5" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
+      <c r="AI5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
       <c r="A6" t="s">
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O6" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>10</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <v>0</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AC6" s="2">
         <v>3</v>
       </c>
-      <c r="AC6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AD6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM6">
+        <v>60</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>225</v>
+      </c>
+      <c r="O7" t="s">
         <v>212</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="P7" t="s">
         <v>213</v>
-      </c>
-      <c r="AK6">
-        <v>60</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42">
-      <c r="A7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>204</v>
-      </c>
-      <c r="O7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P7" t="s">
-        <v>206</v>
       </c>
       <c r="Q7">
         <v>0.45</v>
@@ -2844,52 +3492,58 @@
       <c r="T7">
         <v>0.03</v>
       </c>
-      <c r="Y7">
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
         <v>0</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>10</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>5</v>
       </c>
       <c r="AB7" s="2">
         <v>5</v>
       </c>
       <c r="AC7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>208</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
       <c r="A8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
         <v>218</v>
       </c>
-      <c r="B8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" t="s">
-        <v>210</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -2898,13 +3552,13 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O8" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="Q8">
         <v>1.6</v>
@@ -2912,48 +3566,49 @@
       <c r="R8">
         <v>1</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>0</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>10</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <v>0</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AC8" s="2">
         <v>3</v>
       </c>
-      <c r="AC8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42">
-      <c r="AG9" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42">
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="35:35">
+      <c r="AI9" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2961,43 +3616,43 @@
       <c r="R10">
         <v>1</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>10</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AB10" s="2">
         <v>0</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AC10" s="2">
         <v>3</v>
       </c>
-      <c r="AC10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK10">
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM10">
         <v>100</v>
       </c>
-      <c r="AP10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42">
+      <c r="AR10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
       <c r="A11" t="s">
         <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3005,49 +3660,49 @@
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>10</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AB11" s="2">
         <v>0</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AC11" s="2">
         <v>3</v>
       </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK11">
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM11">
         <v>0.5</v>
       </c>
-      <c r="AP11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42">
+      <c r="AR11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="O14" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -3055,37 +3710,37 @@
       <c r="R14">
         <v>1</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>2</v>
       </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="s">
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="O15" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3093,25 +3748,25 @@
       <c r="R15">
         <v>1</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2</v>
       </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="s">
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="s">
         <v>22</v>
       </c>
-      <c r="AP15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42">
+      <c r="AR15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -3120,13 +3775,13 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O16" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -3134,34 +3789,34 @@
       <c r="R16">
         <v>1</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>2</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O17" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -3169,34 +3824,34 @@
       <c r="R17">
         <v>1</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:36">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="O18" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="P18" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -3204,25 +3859,25 @@
       <c r="R18">
         <v>1</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>2</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>22</v>
       </c>
-      <c r="AH18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42">
+      <c r="AJ18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
       <c r="A19" t="s">
         <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3231,13 +3886,13 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="P19" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -3245,55 +3900,55 @@
       <c r="R19">
         <v>1</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.8</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2</v>
       </c>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
       <c r="AB19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="2">
         <v>2</v>
       </c>
-      <c r="AC19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AF19" t="s">
+      <c r="AD19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG19" t="s">
         <v>22</v>
       </c>
-      <c r="AH19" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42">
+      <c r="AJ19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
       <c r="A20" t="s">
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>10</v>
@@ -3301,46 +3956,46 @@
       <c r="R20">
         <v>1</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.5</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AB20" s="2">
         <v>7</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AC20" s="2">
         <v>10</v>
       </c>
-      <c r="AC20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF20" t="s">
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG20" t="s">
         <v>22</v>
       </c>
-      <c r="AP20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42">
+      <c r="AR20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -3348,34 +4003,34 @@
       <c r="R22">
         <v>1</v>
       </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="s">
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:36">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="P23" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>0.8</v>
@@ -3383,46 +4038,46 @@
       <c r="R23">
         <v>1</v>
       </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="AF23" t="s">
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="s">
         <v>22</v>
       </c>
-      <c r="AH23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42">
+      <c r="AJ23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44">
       <c r="A24" t="s">
         <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
         <v>211</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>204</v>
-      </c>
       <c r="O24" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="P24" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>1.6</v>
@@ -3433,49 +4088,49 @@
       <c r="S24">
         <v>6</v>
       </c>
-      <c r="X24" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y24">
+      <c r="Y24" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z24">
         <v>2</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>20</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AB24" s="2">
         <v>35</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AC24" s="2">
         <v>40</v>
       </c>
-      <c r="AC24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF24" t="s">
+      <c r="AD24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG24" t="s">
         <v>22</v>
       </c>
-      <c r="AM24" t="s">
-        <v>253</v>
-      </c>
-      <c r="AP24" t="s">
+      <c r="AO24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3483,46 +4138,47 @@
       <c r="R25">
         <v>1</v>
       </c>
-      <c r="AA25"/>
       <c r="AB25"/>
       <c r="AC25"/>
       <c r="AD25"/>
-      <c r="AE25" s="1"/>
+      <c r="AE25"/>
       <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK25" s="1">
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM25" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
-      <c r="AO25"/>
-    </row>
-    <row r="27" spans="1:42">
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25"/>
+    </row>
+    <row r="27" spans="1:44">
       <c r="A27" t="s">
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O27" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -3530,55 +4186,55 @@
       <c r="R27">
         <v>1</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>22</v>
       </c>
-      <c r="AH27" t="s">
-        <v>207</v>
-      </c>
       <c r="AJ27" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK27">
+        <v>215</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM27">
         <v>0.8</v>
       </c>
-      <c r="AL27" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42">
+      <c r="AN27" t="s">
+        <v>253</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C29" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
         <v>211</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
-        <v>204</v>
-      </c>
       <c r="O29" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -3586,52 +4242,52 @@
       <c r="S29">
         <v>100</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.2</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>10</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AB29" s="2">
         <v>40</v>
       </c>
-      <c r="AB29" s="2">
+      <c r="AC29" s="2">
         <v>50</v>
       </c>
-      <c r="AC29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK29">
+      <c r="AD29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM29">
         <v>0.8</v>
       </c>
-      <c r="AP29" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42">
+      <c r="AR29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
         <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O30" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="Q30">
         <v>0.05</v>
@@ -3642,37 +4298,37 @@
       <c r="S30">
         <v>100</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.2</v>
       </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
+      <c r="AF30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36">
       <c r="A34" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>211</v>
+      </c>
+      <c r="O34" t="s">
         <v>212</v>
       </c>
-      <c r="F34" t="s">
-        <v>260</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="M34" t="s">
-        <v>204</v>
-      </c>
-      <c r="O34" t="s">
-        <v>205</v>
-      </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -3683,55 +4339,55 @@
       <c r="S34">
         <v>3</v>
       </c>
-      <c r="Y34">
-        <v>0.2</v>
-      </c>
       <c r="Z34">
         <v>0.2</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AA34">
+        <v>0.2</v>
+      </c>
+      <c r="AB34" s="2">
         <v>0</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AC34" s="2">
         <v>3</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AD34" s="2">
         <v>2</v>
       </c>
-      <c r="AD34" s="2" t="s">
+      <c r="AE34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36">
+      <c r="A35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>211</v>
+      </c>
+      <c r="O35" t="s">
         <v>212</v>
       </c>
-      <c r="AF34" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
-      <c r="A35" t="s">
-        <v>261</v>
-      </c>
-      <c r="B35" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F35" t="s">
-        <v>260</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="M35" t="s">
-        <v>204</v>
-      </c>
-      <c r="O35" t="s">
-        <v>205</v>
-      </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -3742,37 +4398,37 @@
       <c r="S35">
         <v>3</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>2</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>10</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AB35" s="2">
         <v>0</v>
       </c>
-      <c r="AB35" s="2">
+      <c r="AC35" s="2">
         <v>3</v>
       </c>
-      <c r="AC35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF35" t="s">
+      <c r="AD35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG35" t="s">
         <v>22</v>
       </c>
-      <c r="AH35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
+      <c r="AJ35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
         <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3781,10 +4437,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -3792,34 +4448,35 @@
       <c r="R36">
         <v>1</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>2</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AG36" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -3835,10 +4492,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3855,88 +4512,89 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -3949,21 +4607,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
@@ -3999,13 +4658,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4013,43 +4672,44 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="4:5">
       <c r="D1" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="E1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4057,16 +4717,16 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4077,7 +4737,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -4091,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
@@ -4100,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4108,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -4117,7 +4777,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4125,16 +4785,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4142,16 +4802,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4159,16 +4819,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
         <v>56</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4176,16 +4836,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4193,16 +4853,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
         <v>56</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4210,16 +4870,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4227,16 +4887,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4244,16 +4904,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4261,20 +4921,20 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="302">
   <si>
     <t>重量</t>
   </si>
@@ -327,499 +327,517 @@
     <t>kroos</t>
   </si>
   <si>
+    <t>克洛斯攻击</t>
+  </si>
+  <si>
+    <t>克洛斯技能</t>
+  </si>
+  <si>
+    <t>kroos_head</t>
+  </si>
+  <si>
+    <t>星熊</t>
+  </si>
+  <si>
+    <t>重装</t>
+  </si>
+  <si>
+    <t>hsguma_head</t>
+  </si>
+  <si>
+    <t>莫斯提马</t>
+  </si>
+  <si>
+    <t>mostma</t>
+  </si>
+  <si>
+    <t>mostma_head</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>sora</t>
+  </si>
+  <si>
+    <t>大范围自动加血</t>
+  </si>
+  <si>
+    <t>大范围减速</t>
+  </si>
+  <si>
+    <t>sora_head</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>激活方式</t>
+  </si>
+  <si>
+    <t>使用方式</t>
+  </si>
+  <si>
+    <t>自动开启</t>
+  </si>
+  <si>
+    <t>技能名</t>
+  </si>
+  <si>
+    <t>攻击阻挡</t>
+  </si>
+  <si>
+    <t>生效时重取目标</t>
+  </si>
+  <si>
+    <t>阻挡时打断</t>
+  </si>
+  <si>
+    <t>使用时打断其他</t>
+  </si>
+  <si>
+    <t>敌对组</t>
+  </si>
+  <si>
+    <t>对空</t>
+  </si>
+  <si>
+    <t>攻击优先级</t>
+  </si>
+  <si>
+    <t>攻击优先级2</t>
+  </si>
+  <si>
+    <t>打击点,干员使用</t>
+  </si>
+  <si>
+    <t>伤害类型</t>
+  </si>
+  <si>
+    <t>倍率</t>
+  </si>
+  <si>
+    <t>伤害个数</t>
+  </si>
+  <si>
+    <t>连发次数</t>
+  </si>
+  <si>
+    <t>连发间隔</t>
+  </si>
+  <si>
+    <t>连发重新索敌</t>
+  </si>
+  <si>
+    <t>溅射范围</t>
+  </si>
+  <si>
+    <t>溅射伤害</t>
+  </si>
+  <si>
+    <t>关联技能</t>
+  </si>
+  <si>
+    <t>附加技能</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>初始技力</t>
+  </si>
+  <si>
+    <t>最大技力</t>
+  </si>
+  <si>
+    <t>囤积次数</t>
+  </si>
+  <si>
+    <t>回复方式</t>
+  </si>
+  <si>
+    <t>是否治疗</t>
+  </si>
+  <si>
+    <t>攻击动作</t>
+  </si>
+  <si>
+    <t>覆盖动作</t>
+  </si>
+  <si>
+    <t>攻击模式</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>子弹起始点</t>
+  </si>
+  <si>
+    <t>关联Buff</t>
+  </si>
+  <si>
+    <t>buff数值</t>
+  </si>
+  <si>
+    <t>启动动画</t>
+  </si>
+  <si>
+    <t>命中动画</t>
+  </si>
+  <si>
+    <t>生效动画</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>ReadyType</t>
+  </si>
+  <si>
+    <t>UseType</t>
+  </si>
+  <si>
+    <t>AutoUse</t>
+  </si>
+  <si>
+    <t>AttackStop</t>
+  </si>
+  <si>
+    <t>RegetTarget</t>
+  </si>
+  <si>
+    <t>StopBreak</t>
+  </si>
+  <si>
+    <t>StopOtherSkill</t>
+  </si>
+  <si>
+    <t>TargetTeam</t>
+  </si>
+  <si>
+    <t>AttackFly</t>
+  </si>
+  <si>
+    <t>AttackOrder</t>
+  </si>
+  <si>
+    <t>AttackOrder2</t>
+  </si>
+  <si>
+    <t>AttackPoints</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>DamageRate</t>
+  </si>
+  <si>
+    <t>DamageCount</t>
+  </si>
+  <si>
+    <t>BurstCount</t>
+  </si>
+  <si>
+    <t>BurstDelay</t>
+  </si>
+  <si>
+    <t>BurstFind</t>
+  </si>
+  <si>
+    <t>AreaRange</t>
+  </si>
+  <si>
+    <t>AreaDamage</t>
+  </si>
+  <si>
+    <t>ExSkills</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>OpenTime</t>
+  </si>
+  <si>
+    <t>StartPower</t>
+  </si>
+  <si>
+    <t>MaxPower</t>
+  </si>
+  <si>
+    <t>PowerCount</t>
+  </si>
+  <si>
+    <t>PowerType</t>
+  </si>
+  <si>
+    <t>IfHeal</t>
+  </si>
+  <si>
+    <t>ModelAnimation</t>
+  </si>
+  <si>
+    <t>OverwriteAnimation</t>
+  </si>
+  <si>
+    <t>AttackMode</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>ShootPoint</t>
+  </si>
+  <si>
+    <t>Buffs</t>
+  </si>
+  <si>
+    <t>BuffData</t>
+  </si>
+  <si>
+    <t>StartEffect</t>
+  </si>
+  <si>
+    <t>HitEffect</t>
+  </si>
+  <si>
+    <t>EffectEffect</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>SkillReadyEnum</t>
+  </si>
+  <si>
+    <t>SkillUseTypeEnum</t>
+  </si>
+  <si>
+    <t>AttackTargetOrderEnum</t>
+  </si>
+  <si>
+    <t>AttackTargetOrder2Enum</t>
+  </si>
+  <si>
+    <t>UnityEngine.Vector2Int[]</t>
+  </si>
+  <si>
+    <t>DamageTypeEnum</t>
+  </si>
+  <si>
+    <t>PowerRecoverTypeEnum</t>
+  </si>
+  <si>
+    <t>AttackModeEnum</t>
+  </si>
+  <si>
+    <t>BulletData</t>
+  </si>
+  <si>
+    <t>BuffData[]</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>#阿米娅</t>
+  </si>
+  <si>
+    <t>普通技能</t>
+  </si>
+  <si>
+    <t>终点距离</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>跟随攻击</t>
+  </si>
+  <si>
+    <t>阿米娅子弹</t>
+  </si>
+  <si>
+    <t>L_Hand</t>
+  </si>
+  <si>
+    <t>攻击速度+60</t>
+  </si>
+  <si>
+    <t>特技激活</t>
+  </si>
+  <si>
+    <t>手动</t>
+  </si>
+  <si>
+    <t>自动</t>
+  </si>
+  <si>
+    <t>攻速提升</t>
+  </si>
+  <si>
+    <t>强力击·γ型</t>
+  </si>
+  <si>
+    <t>精神爆发</t>
+  </si>
+  <si>
+    <t>每次攻击变为45%的7连发,随机攻击范围里的目标。</t>
+  </si>
+  <si>
+    <t>随机</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>箭矢·散逸</t>
+  </si>
+  <si>
+    <t>奇美拉</t>
+  </si>
+  <si>
+    <t>攻击力+160%，攻击范围扩大,伤害类型变为真实。</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Skill_2</t>
+  </si>
+  <si>
+    <t>R_Hand</t>
+  </si>
+  <si>
+    <t>焰淬匕首</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>充能释放</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>激活攻速提升</t>
+  </si>
+  <si>
+    <t>被动</t>
+  </si>
+  <si>
+    <t>攻击提升</t>
+  </si>
+  <si>
+    <t>奶</t>
+  </si>
+  <si>
+    <t>血量比例升序</t>
+  </si>
+  <si>
+    <t>群奶</t>
+  </si>
+  <si>
+    <t>可以治疗多个友军单位</t>
+  </si>
+  <si>
+    <t>冲锋号令</t>
+  </si>
+  <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>0,0#1,0</t>
+  </si>
+  <si>
+    <t>近战远攻</t>
+  </si>
+  <si>
+    <t>射击</t>
+  </si>
+  <si>
+    <t>优先攻击飞行单位。</t>
+  </si>
+  <si>
+    <t>飞行优先</t>
+  </si>
+  <si>
+    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
+  </si>
+  <si>
+    <t>攻击会造成溅射,对周围单位造成伤害。</t>
+  </si>
+  <si>
+    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
+  </si>
+  <si>
+    <t>蓄力</t>
+  </si>
+  <si>
+    <t>击中1</t>
+  </si>
+  <si>
+    <t>箭矢·追猎</t>
+  </si>
+  <si>
+    <t>获得费用</t>
+  </si>
+  <si>
+    <t>立刻获得10费用。</t>
+  </si>
+  <si>
+    <t>银灰攻击</t>
+  </si>
+  <si>
+    <t>银灰远攻</t>
+  </si>
+  <si>
+    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#3,0</t>
+  </si>
+  <si>
+    <t>阿米娅强力击子弹</t>
+  </si>
+  <si>
+    <t>攻击范围扩大，攻击力提高60%，自身防御下降70%，攻击6个目标。</t>
+  </si>
+  <si>
+    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1#-2,0</t>
+  </si>
+  <si>
+    <t>真银斩降防</t>
+  </si>
+  <si>
+    <t>击中2</t>
+  </si>
+  <si>
+    <t>防御提升</t>
+  </si>
+  <si>
     <t>减速攻击</t>
-  </si>
-  <si>
-    <t>妨碍</t>
-  </si>
-  <si>
-    <t>kroos_head</t>
-  </si>
-  <si>
-    <t>星熊</t>
-  </si>
-  <si>
-    <t>重装</t>
-  </si>
-  <si>
-    <t>hsguma_head</t>
-  </si>
-  <si>
-    <t>莫斯提马</t>
-  </si>
-  <si>
-    <t>mostma</t>
-  </si>
-  <si>
-    <t>mostma_head</t>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>sora</t>
-  </si>
-  <si>
-    <t>大范围自动加血</t>
-  </si>
-  <si>
-    <t>大范围减速</t>
-  </si>
-  <si>
-    <t>sora_head</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>激活方式</t>
-  </si>
-  <si>
-    <t>使用方式</t>
-  </si>
-  <si>
-    <t>技能名</t>
-  </si>
-  <si>
-    <t>攻击阻挡</t>
-  </si>
-  <si>
-    <t>生效时重取目标</t>
-  </si>
-  <si>
-    <t>阻挡时打断</t>
-  </si>
-  <si>
-    <t>使用时打断其他</t>
-  </si>
-  <si>
-    <t>敌对组</t>
-  </si>
-  <si>
-    <t>对空</t>
-  </si>
-  <si>
-    <t>攻击优先级</t>
-  </si>
-  <si>
-    <t>攻击优先级2</t>
-  </si>
-  <si>
-    <t>打击点,干员使用</t>
-  </si>
-  <si>
-    <t>伤害类型</t>
-  </si>
-  <si>
-    <t>倍率</t>
-  </si>
-  <si>
-    <t>伤害个数</t>
-  </si>
-  <si>
-    <t>连发次数</t>
-  </si>
-  <si>
-    <t>连发间隔</t>
-  </si>
-  <si>
-    <t>连发重新索敌</t>
-  </si>
-  <si>
-    <t>溅射范围</t>
-  </si>
-  <si>
-    <t>溅射伤害</t>
-  </si>
-  <si>
-    <t>关联技能</t>
-  </si>
-  <si>
-    <t>附加技能</t>
-  </si>
-  <si>
-    <t>冷却</t>
-  </si>
-  <si>
-    <t>持续时间</t>
-  </si>
-  <si>
-    <t>初始技力</t>
-  </si>
-  <si>
-    <t>最大技力</t>
-  </si>
-  <si>
-    <t>囤积次数</t>
-  </si>
-  <si>
-    <t>回复方式</t>
-  </si>
-  <si>
-    <t>是否治疗</t>
-  </si>
-  <si>
-    <t>攻击动作</t>
-  </si>
-  <si>
-    <t>覆盖动作</t>
-  </si>
-  <si>
-    <t>攻击模式</t>
-  </si>
-  <si>
-    <t>子弹</t>
-  </si>
-  <si>
-    <t>子弹起始点</t>
-  </si>
-  <si>
-    <t>关联Buff</t>
-  </si>
-  <si>
-    <t>buff数值</t>
-  </si>
-  <si>
-    <t>启动动画</t>
-  </si>
-  <si>
-    <t>命中动画</t>
-  </si>
-  <si>
-    <t>生效动画</t>
-  </si>
-  <si>
-    <t>攻击距离</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>ReadyType</t>
-  </si>
-  <si>
-    <t>UseType</t>
-  </si>
-  <si>
-    <t>AttackStop</t>
-  </si>
-  <si>
-    <t>RegetTarget</t>
-  </si>
-  <si>
-    <t>StopBreak</t>
-  </si>
-  <si>
-    <t>StopOtherSkill</t>
-  </si>
-  <si>
-    <t>TargetTeam</t>
-  </si>
-  <si>
-    <t>AttackFly</t>
-  </si>
-  <si>
-    <t>AttackOrder</t>
-  </si>
-  <si>
-    <t>AttackOrder2</t>
-  </si>
-  <si>
-    <t>AttackPoints</t>
-  </si>
-  <si>
-    <t>DamageType</t>
-  </si>
-  <si>
-    <t>DamageRate</t>
-  </si>
-  <si>
-    <t>DamageCount</t>
-  </si>
-  <si>
-    <t>BurstCount</t>
-  </si>
-  <si>
-    <t>BurstDelay</t>
-  </si>
-  <si>
-    <t>BurstFind</t>
-  </si>
-  <si>
-    <t>AreaRange</t>
-  </si>
-  <si>
-    <t>AreaDamage</t>
-  </si>
-  <si>
-    <t>ExSkills</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>OpenTime</t>
-  </si>
-  <si>
-    <t>StartPower</t>
-  </si>
-  <si>
-    <t>MaxPower</t>
-  </si>
-  <si>
-    <t>PowerCount</t>
-  </si>
-  <si>
-    <t>PowerType</t>
-  </si>
-  <si>
-    <t>IfHeal</t>
-  </si>
-  <si>
-    <t>ModelAnimation</t>
-  </si>
-  <si>
-    <t>OverwriteAnimation</t>
-  </si>
-  <si>
-    <t>AttackMode</t>
-  </si>
-  <si>
-    <t>Bullet</t>
-  </si>
-  <si>
-    <t>ShootPoint</t>
-  </si>
-  <si>
-    <t>Buffs</t>
-  </si>
-  <si>
-    <t>BuffData</t>
-  </si>
-  <si>
-    <t>StartEffect</t>
-  </si>
-  <si>
-    <t>HitEffect</t>
-  </si>
-  <si>
-    <t>EffectEffect</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>SkillReadyEnum</t>
-  </si>
-  <si>
-    <t>SkillUseTypeEnum</t>
-  </si>
-  <si>
-    <t>AttackTargetOrderEnum</t>
-  </si>
-  <si>
-    <t>AttackTargetOrder2Enum</t>
-  </si>
-  <si>
-    <t>UnityEngine.Vector2Int[]</t>
-  </si>
-  <si>
-    <t>DamageTypeEnum</t>
-  </si>
-  <si>
-    <t>PowerRecoverTypeEnum</t>
-  </si>
-  <si>
-    <t>AttackModeEnum</t>
-  </si>
-  <si>
-    <t>BulletData</t>
-  </si>
-  <si>
-    <t>BuffData[]</t>
-  </si>
-  <si>
-    <t>float[]</t>
-  </si>
-  <si>
-    <t>#阿米娅</t>
-  </si>
-  <si>
-    <t>普通技能</t>
-  </si>
-  <si>
-    <t>终点距离</t>
-  </si>
-  <si>
-    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>跟随攻击</t>
-  </si>
-  <si>
-    <t>阿米娅子弹</t>
-  </si>
-  <si>
-    <t>F_R_Hand</t>
-  </si>
-  <si>
-    <t>攻击速度+60</t>
-  </si>
-  <si>
-    <t>特技激活</t>
-  </si>
-  <si>
-    <t>手动</t>
-  </si>
-  <si>
-    <t>自动</t>
-  </si>
-  <si>
-    <t>攻速提升</t>
-  </si>
-  <si>
-    <t>强力击·γ型</t>
-  </si>
-  <si>
-    <t>精神爆发</t>
-  </si>
-  <si>
-    <t>每次攻击变为45%的7连发,随机攻击范围里的目标。</t>
-  </si>
-  <si>
-    <t>随机</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>箭矢·散逸</t>
-  </si>
-  <si>
-    <t>奇美拉</t>
-  </si>
-  <si>
-    <t>攻击力+160%，攻击范围扩大,伤害类型变为真实。</t>
-  </si>
-  <si>
-    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>焰淬匕首</t>
-  </si>
-  <si>
-    <t>固定间隔</t>
-  </si>
-  <si>
-    <t>激活攻速提升</t>
-  </si>
-  <si>
-    <t>被动</t>
-  </si>
-  <si>
-    <t>攻击提升</t>
-  </si>
-  <si>
-    <t>奶</t>
-  </si>
-  <si>
-    <t>血量比例升序</t>
-  </si>
-  <si>
-    <t>群奶</t>
-  </si>
-  <si>
-    <t>可以治疗多个友军单位</t>
-  </si>
-  <si>
-    <t>冲锋号令</t>
-  </si>
-  <si>
-    <t>近战</t>
-  </si>
-  <si>
-    <t>0,0#1,0</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>近战远攻</t>
-  </si>
-  <si>
-    <t>射击</t>
-  </si>
-  <si>
-    <t>优先攻击飞行单位。</t>
-  </si>
-  <si>
-    <t>飞行优先</t>
-  </si>
-  <si>
-    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0</t>
-  </si>
-  <si>
-    <t>攻击会造成溅射,对周围单位造成伤害。</t>
-  </si>
-  <si>
-    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>蓄力</t>
-  </si>
-  <si>
-    <t>击中1</t>
-  </si>
-  <si>
-    <t>箭矢·追猎</t>
-  </si>
-  <si>
-    <t>获得费用</t>
-  </si>
-  <si>
-    <t>立刻获得10费用。</t>
-  </si>
-  <si>
-    <t>银灰攻击</t>
-  </si>
-  <si>
-    <t>银灰远攻</t>
-  </si>
-  <si>
-    <t>0,0#0,1#0,-1#1,0#2,0#1,1#1,-1#3,0</t>
-  </si>
-  <si>
-    <t>阿米娅强力击子弹</t>
-  </si>
-  <si>
-    <t>攻击范围扩大，攻击力提高60%，自身防御下降70%，攻击6个目标。</t>
-  </si>
-  <si>
-    <t>0,0#1,0#2,0#1,1#1,-1#2,1#2,-1#3,0#3,1#3,-1#-2,0</t>
-  </si>
-  <si>
-    <t>真银斩降防</t>
-  </si>
-  <si>
-    <t>击中2</t>
-  </si>
-  <si>
-    <t>防御提升</t>
   </si>
   <si>
     <t>攻击可以减缓目标移速。</t>
@@ -914,12 +932,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -942,22 +960,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,6 +994,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -985,8 +1064,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,90 +1096,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -1093,7 +1104,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,13 +1119,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,13 +1167,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,133 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,7 +1215,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,6 +1310,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1326,17 +1376,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,30 +1392,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,15 +1410,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1407,10 +1418,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1419,133 +1430,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1559,10 +1570,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1919,11 +1930,11 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2707,10 +2718,10 @@
         <v>20</v>
       </c>
       <c r="N17" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="O17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -2719,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="Y17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Z17" s="5" t="s">
         <v>104</v>
@@ -2909,14 +2920,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR36"/>
+  <dimension ref="A1:AS39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB14" sqref="AB14"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2925,33 +2936,33 @@
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="10" width="8.375" customWidth="1"/>
-    <col min="11" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
-    <col min="15" max="15" width="14.75" customWidth="1"/>
-    <col min="16" max="16" width="7.125" customWidth="1"/>
-    <col min="17" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="8.5" customWidth="1"/>
-    <col min="19" max="21" width="8.25" customWidth="1"/>
-    <col min="22" max="25" width="8.375" customWidth="1"/>
-    <col min="26" max="26" width="4.5" customWidth="1"/>
-    <col min="27" max="27" width="8" customWidth="1"/>
-    <col min="28" max="28" width="7.375" style="2" customWidth="1"/>
-    <col min="29" max="30" width="8.5" style="2" customWidth="1"/>
-    <col min="31" max="31" width="7.875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="13.5" customWidth="1"/>
-    <col min="34" max="34" width="10" customWidth="1"/>
-    <col min="35" max="35" width="9" style="3" customWidth="1"/>
-    <col min="37" max="37" width="16" customWidth="1"/>
-    <col min="43" max="43" width="9.5" style="4" customWidth="1"/>
+    <col min="5" max="6" width="8.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="11" width="8.375" customWidth="1"/>
+    <col min="12" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="14.75" customWidth="1"/>
+    <col min="17" max="17" width="7.125" customWidth="1"/>
+    <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="8.5" customWidth="1"/>
+    <col min="20" max="22" width="8.25" customWidth="1"/>
+    <col min="23" max="26" width="8.375" customWidth="1"/>
+    <col min="27" max="27" width="4.5" customWidth="1"/>
+    <col min="28" max="28" width="8" customWidth="1"/>
+    <col min="29" max="29" width="7.375" style="2" customWidth="1"/>
+    <col min="30" max="31" width="8.5" style="2" customWidth="1"/>
+    <col min="32" max="32" width="7.875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="13.5" customWidth="1"/>
+    <col min="35" max="35" width="10" customWidth="1"/>
+    <col min="36" max="36" width="9" style="3" customWidth="1"/>
+    <col min="38" max="38" width="16" customWidth="1"/>
+    <col min="44" max="44" width="9.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:44">
+    <row r="1" spans="3:45">
       <c r="C1" t="s">
         <v>116</v>
       </c>
@@ -2961,7 +2972,7 @@
       <c r="E1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G1" t="s">
@@ -3027,7 +3038,7 @@
       <c r="AA1" t="s">
         <v>140</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" t="s">
         <v>141</v>
       </c>
       <c r="AC1" s="2" t="s">
@@ -3039,7 +3050,7 @@
       <c r="AE1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>145</v>
       </c>
       <c r="AG1" t="s">
@@ -3048,10 +3059,10 @@
       <c r="AH1" t="s">
         <v>147</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" t="s">
         <v>148</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>149</v>
       </c>
       <c r="AK1" t="s">
@@ -3072,14 +3083,17 @@
       <c r="AP1" t="s">
         <v>155</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" t="s">
         <v>156</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:44">
+      <c r="AS1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3087,133 +3101,136 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>161</v>
-      </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="R2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="W2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y2" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" t="s">
-        <v>178</v>
-      </c>
       <c r="Z2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB2" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="AB2" t="s">
+        <v>182</v>
+      </c>
       <c r="AC2" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF2" t="s">
         <v>185</v>
       </c>
+      <c r="AF2" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="AG2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AI2" t="s">
         <v>189</v>
       </c>
+      <c r="AJ2" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="AK2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AP2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AQ2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="3" spans="1:44">
+      <c r="AR2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3224,16 +3241,16 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
         <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>50</v>
@@ -3245,58 +3262,58 @@
         <v>50</v>
       </c>
       <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
-        <v>200</v>
-      </c>
       <c r="N3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q3" t="s">
+        <v>205</v>
+      </c>
+      <c r="R3" t="s">
         <v>49</v>
-      </c>
-      <c r="R3" t="s">
-        <v>47</v>
       </c>
       <c r="S3" t="s">
         <v>47</v>
       </c>
       <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
         <v>49</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>50</v>
-      </c>
-      <c r="V3" t="s">
-        <v>49</v>
       </c>
       <c r="W3" t="s">
         <v>49</v>
       </c>
       <c r="X3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y3" t="s">
         <v>48</v>
       </c>
       <c r="Z3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="s">
         <v>49</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>47</v>
+      <c r="AB3" t="s">
+        <v>49</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>47</v>
@@ -3305,34 +3322,34 @@
         <v>47</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG3" t="s">
         <v>50</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>46</v>
       </c>
       <c r="AH3" t="s">
         <v>46</v>
       </c>
-      <c r="AI3" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>206</v>
+      <c r="AI3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="AK3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL3" t="s">
         <v>46</v>
       </c>
-      <c r="AL3" t="s">
-        <v>207</v>
-      </c>
       <c r="AM3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN3" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="AO3" t="s">
         <v>46</v>
@@ -3340,1118 +3357,1251 @@
       <c r="AP3" t="s">
         <v>46</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>211</v>
-      </c>
-      <c r="O5" t="s">
         <v>212</v>
       </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>213</v>
+      </c>
       <c r="P5" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
+        <v>214</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>215</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="Z5">
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
         <v>0</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>22</v>
       </c>
-      <c r="AI5" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>215</v>
+      <c r="AJ5" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="AK5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44">
+        <v>217</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6" t="s">
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN6">
+        <v>60</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>215</v>
+      </c>
+      <c r="R7">
+        <v>0.45</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>7</v>
+      </c>
+      <c r="U7">
+        <v>0.03</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK7" t="s">
         <v>217</v>
       </c>
-      <c r="D6" t="s">
+      <c r="AL7" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K6">
+      <c r="AS7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>233</v>
+      </c>
+      <c r="R8">
+        <v>1.6</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>211</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="34:35">
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
         <v>212</v>
       </c>
-      <c r="P6" t="s">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>213</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
+      <c r="P10" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>237</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI10"/>
+      <c r="AJ10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>213</v>
+      </c>
+      <c r="P11" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>237</v>
+      </c>
+      <c r="R11">
+        <v>1.2</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0.1</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0.3</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI11"/>
+      <c r="AJ11" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
         <v>10</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AC13" s="2">
         <v>0</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD13" s="2">
         <v>3</v>
       </c>
-      <c r="AD6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN13">
+        <v>100</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
         <v>220</v>
       </c>
-      <c r="AL6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM6">
-        <v>60</v>
-      </c>
-      <c r="AR6" t="s">
+      <c r="E14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="7" spans="1:44">
-      <c r="A7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>225</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="AM14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN14">
+        <v>0.5</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" t="s">
         <v>212</v>
       </c>
-      <c r="P7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q7">
-        <v>0.45</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>7</v>
-      </c>
-      <c r="T7">
-        <v>0.03</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
+      <c r="E17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17">
         <v>0</v>
       </c>
-      <c r="AA7">
-        <v>10</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44">
-      <c r="A8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>211</v>
-      </c>
-      <c r="O8" t="s">
-        <v>230</v>
-      </c>
-      <c r="P8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q8">
-        <v>1.6</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>10</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3" t="s">
+      <c r="N17" t="s">
+        <v>245</v>
+      </c>
+      <c r="P17" t="s">
         <v>214</v>
       </c>
-      <c r="AR8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="35:35">
-      <c r="AI9" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44">
-      <c r="A10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM10">
-        <v>100</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AM11">
-        <v>0.5</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>238</v>
-      </c>
-      <c r="O14" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="Z14">
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
         <v>2</v>
       </c>
-      <c r="AF14">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="s">
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
-      <c r="A15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" t="s">
-        <v>240</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>238</v>
-      </c>
-      <c r="O15" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <v>2</v>
-      </c>
-      <c r="AF15">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>211</v>
-      </c>
-      <c r="O16" t="s">
-        <v>243</v>
-      </c>
-      <c r="P16" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>2</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33">
-      <c r="A17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>211</v>
-      </c>
-      <c r="O17" t="s">
-        <v>243</v>
-      </c>
-      <c r="P17" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>2</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:45">
       <c r="A18" t="s">
         <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
         <v>247</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="E18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>245</v>
+      </c>
+      <c r="P18" t="s">
+        <v>214</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS18" t="s">
         <v>248</v>
       </c>
-      <c r="O18" t="s">
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" t="s">
         <v>249</v>
       </c>
-      <c r="P18" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
+      <c r="B19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>237</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
         <v>2</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH19" t="s">
         <v>22</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>213</v>
+      </c>
+      <c r="P20" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>237</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>253</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>254</v>
+      </c>
+      <c r="P21" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>237</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45">
+      <c r="A22" t="s">
         <v>97</v>
       </c>
-      <c r="B19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" t="s">
-        <v>250</v>
-      </c>
-      <c r="G19">
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>211</v>
-      </c>
-      <c r="O19" t="s">
-        <v>251</v>
-      </c>
-      <c r="P19" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q19">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>237</v>
+      </c>
+      <c r="R22">
         <v>1.5</v>
       </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="V19">
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="W22">
         <v>2</v>
       </c>
-      <c r="W19">
+      <c r="X22">
         <v>0.8</v>
       </c>
-      <c r="Z19">
+      <c r="AA22">
         <v>2</v>
       </c>
-      <c r="AB19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="2">
+      <c r="AC22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="2">
         <v>2</v>
       </c>
-      <c r="AD19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG19" t="s">
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH22" t="s">
         <v>22</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>254</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:44">
-      <c r="A20" t="s">
+      <c r="AK22" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45">
+      <c r="A23" t="s">
         <v>85</v>
       </c>
-      <c r="B20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q20">
+      <c r="B23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R23">
         <v>10</v>
       </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="AA20">
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
         <v>0.5</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AC23" s="2">
         <v>7</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AD23" s="2">
         <v>10</v>
       </c>
-      <c r="AD20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG20" t="s">
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH23" t="s">
         <v>22</v>
       </c>
-      <c r="AR20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33">
-      <c r="A22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B22" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>211</v>
-      </c>
-      <c r="P22" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AG22" t="s">
+      <c r="AS23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>237</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
-      <c r="A23" t="s">
-        <v>259</v>
-      </c>
-      <c r="B23" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>211</v>
-      </c>
-      <c r="O23" t="s">
-        <v>260</v>
-      </c>
-      <c r="P23" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q23">
+    <row r="26" spans="1:37">
+      <c r="A26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>213</v>
+      </c>
+      <c r="P26" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>237</v>
+      </c>
+      <c r="R26">
         <v>0.8</v>
       </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AG23" t="s">
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="s">
         <v>22</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:44">
-      <c r="A24" t="s">
+      <c r="AK26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45">
+      <c r="A27" t="s">
         <v>78</v>
       </c>
-      <c r="B24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" t="s">
-        <v>218</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>211</v>
-      </c>
-      <c r="O24" t="s">
-        <v>263</v>
-      </c>
-      <c r="P24" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q24">
-        <v>1.6</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
-        <v>6</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z24">
-        <v>2</v>
-      </c>
-      <c r="AA24">
-        <v>20</v>
-      </c>
-      <c r="AB24" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>265</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43">
-      <c r="A25" t="s">
-        <v>264</v>
-      </c>
-      <c r="B25" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AM25" s="1">
-        <v>-0.7</v>
-      </c>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25"/>
-    </row>
-    <row r="27" spans="1:44">
-      <c r="A27" t="s">
-        <v>102</v>
-      </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
         <v>267</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="M27" t="s">
-        <v>211</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="D27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="P27" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>237</v>
+      </c>
+      <c r="R27">
+        <v>1.6</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
+      </c>
+      <c r="AB27">
+        <v>20</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>270</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="A28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" t="s">
         <v>212</v>
       </c>
-      <c r="P27" t="s">
+      <c r="D28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28"/>
+    </row>
+    <row r="30" spans="1:45">
+      <c r="A30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
         <v>213</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
+      <c r="P30" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
         <v>2</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH30" t="s">
         <v>22</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AK30" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN30">
+        <v>0.8</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>213</v>
+      </c>
+      <c r="P32" t="s">
+        <v>276</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>100</v>
+      </c>
+      <c r="AA32">
+        <v>0.2</v>
+      </c>
+      <c r="AB32">
+        <v>10</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>50</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN32">
+        <v>0.8</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>213</v>
+      </c>
+      <c r="P33" t="s">
+        <v>276</v>
+      </c>
+      <c r="R33">
+        <v>0.05</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>100</v>
+      </c>
+      <c r="AA33">
+        <v>0.2</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" t="s">
+        <v>277</v>
+      </c>
+      <c r="B37" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" t="s">
+        <v>278</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>213</v>
+      </c>
+      <c r="P37" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q37" t="s">
         <v>215</v>
       </c>
-      <c r="AL27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AM27">
-        <v>0.8</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>254</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:44">
-      <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
-        <v>211</v>
-      </c>
-      <c r="O29" t="s">
-        <v>270</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29">
-        <v>100</v>
-      </c>
-      <c r="Z29">
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="AA37">
         <v>0.2</v>
       </c>
-      <c r="AA29">
+      <c r="AB37">
+        <v>0.2</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" t="s">
+        <v>278</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>213</v>
+      </c>
+      <c r="P38" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>215</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="AA38">
+        <v>2</v>
+      </c>
+      <c r="AB38">
         <v>10</v>
       </c>
-      <c r="AB29" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC29" s="2">
-        <v>50</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>268</v>
-      </c>
-      <c r="AM29">
-        <v>0.8</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32">
-      <c r="A30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K30">
+      <c r="AC38" s="2">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>211</v>
-      </c>
-      <c r="O30" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q30">
-        <v>0.05</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="S30">
-        <v>100</v>
-      </c>
-      <c r="Z30">
-        <v>0.2</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36">
-      <c r="A34" t="s">
-        <v>271</v>
-      </c>
-      <c r="B34" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F34" t="s">
-        <v>272</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="M34" t="s">
-        <v>211</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="AD38" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
         <v>212</v>
       </c>
-      <c r="P34" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q34">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>237</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
         <v>2</v>
       </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-      <c r="S34">
-        <v>3</v>
-      </c>
-      <c r="Z34">
-        <v>0.2</v>
-      </c>
-      <c r="AA34">
-        <v>0.2</v>
-      </c>
-      <c r="AB34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD34" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE34" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36">
-      <c r="A35" t="s">
-        <v>273</v>
-      </c>
-      <c r="B35" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="M35" t="s">
-        <v>211</v>
-      </c>
-      <c r="O35" t="s">
-        <v>212</v>
-      </c>
-      <c r="P35" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q35">
-        <v>2</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-      <c r="S35">
-        <v>3</v>
-      </c>
-      <c r="Z35">
-        <v>2</v>
-      </c>
-      <c r="AA35">
-        <v>10</v>
-      </c>
-      <c r="AB35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>210</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>274</v>
-      </c>
-      <c r="P36" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-      <c r="Z36">
-        <v>2</v>
-      </c>
-      <c r="AG36" t="s">
+      <c r="AH39" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4492,10 +4642,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4512,71 +4662,71 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4658,13 +4808,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4672,13 +4822,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4706,10 +4856,10 @@
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4717,16 +4867,16 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4737,7 +4887,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -4751,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
@@ -4760,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4768,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -4777,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4785,7 +4935,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
@@ -4794,7 +4944,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4802,7 +4952,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
@@ -4811,7 +4961,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4819,7 +4969,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
         <v>56</v>
@@ -4828,7 +4978,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4836,7 +4986,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
@@ -4845,7 +4995,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4853,7 +5003,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
         <v>56</v>
@@ -4862,7 +5012,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4870,7 +5020,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -4879,7 +5029,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4887,7 +5037,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
@@ -4896,7 +5046,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4904,7 +5054,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
@@ -4913,7 +5063,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4921,7 +5071,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -4930,7 +5080,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="27570" windowHeight="14310"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="305">
   <si>
     <t>重量</t>
   </si>
@@ -54,6 +54,9 @@
     <t>阻挡个数</t>
   </si>
   <si>
+    <t>不参与击杀计数</t>
+  </si>
+  <si>
     <t>终点伤害</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
     <t>#敌人用</t>
   </si>
   <si>
+    <t>WithoutCheckCount</t>
+  </si>
+  <si>
     <t>Damage</t>
   </si>
   <si>
@@ -411,6 +417,9 @@
     <t>打击点,干员使用</t>
   </si>
   <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
     <t>伤害类型</t>
   </si>
   <si>
@@ -492,9 +501,6 @@
     <t>生效动画</t>
   </si>
   <si>
-    <t>攻击距离</t>
-  </si>
-  <si>
     <t>图标</t>
   </si>
   <si>
@@ -537,6 +543,9 @@
     <t>AttackPoints</t>
   </si>
   <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
     <t>DamageType</t>
   </si>
   <si>
@@ -615,9 +624,6 @@
     <t>EffectEffect</t>
   </si>
   <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -687,6 +693,9 @@
     <t>手动</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>自动</t>
   </si>
   <si>
@@ -861,7 +870,7 @@
     <t>阿米娅手动强力击</t>
   </si>
   <si>
-    <t>放置降序</t>
+    <t>自身阻挡优先</t>
   </si>
   <si>
     <t>LastTime</t>
@@ -933,11 +942,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,34 +968,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="5"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1002,7 +992,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,27 +1036,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1074,6 +1077,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1082,29 +1107,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,7 +1121,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,25 +1169,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,31 +1193,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,31 +1247,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,25 +1265,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,69 +1312,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1396,6 +1335,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1410,6 +1379,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1418,10 +1420,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1430,137 +1432,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1571,9 +1573,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1927,14 +1926,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="$A17:$XFD17"/>
+      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1945,7 +1944,7 @@
     <col min="15" max="15" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:28">
+    <row r="1" spans="9:29">
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -1991,197 +1990,206 @@
       <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AA1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" t="s">
-        <v>47</v>
-      </c>
       <c r="U3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="V3" t="s">
         <v>49</v>
       </c>
       <c r="W3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" t="s">
         <v>49</v>
       </c>
-      <c r="X3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="AD3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -2195,25 +2203,25 @@
       <c r="H4">
         <v>50</v>
       </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
       <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
         <v>0.5</v>
       </c>
-      <c r="W4">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -2228,27 +2236,27 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="V5">
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -2263,40 +2271,40 @@
         <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
         <v>0.3</v>
       </c>
-      <c r="W6">
-        <v>0.49</v>
+      <c r="X6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
         <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -2317,45 +2325,45 @@
         <v>20</v>
       </c>
       <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0.4</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="O10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>0.49</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -2376,45 +2384,45 @@
         <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0.4</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s">
         <v>72</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>0.49</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -2435,10 +2443,10 @@
         <v>20</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -2446,34 +2454,34 @@
       <c r="S12">
         <v>2</v>
       </c>
-      <c r="W12">
-        <v>0.49</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="X12">
+        <v>0.4</v>
+      </c>
+      <c r="Z12" t="s">
         <v>81</v>
       </c>
-      <c r="AB12">
+      <c r="AA12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2494,42 +2502,45 @@
         <v>20</v>
       </c>
       <c r="N13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0.4</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="O13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -2550,10 +2561,10 @@
         <v>20</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -2561,31 +2572,34 @@
       <c r="S14">
         <v>2</v>
       </c>
-      <c r="Y14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB14">
+      <c r="X14">
+        <v>0.4</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2606,10 +2620,10 @@
         <v>20</v>
       </c>
       <c r="N15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -2617,31 +2631,34 @@
       <c r="S15">
         <v>2</v>
       </c>
-      <c r="Y15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB15">
+      <c r="X15">
+        <v>0.4</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2662,42 +2679,45 @@
         <v>20</v>
       </c>
       <c r="N16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0.4</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="O16" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -2718,42 +2738,45 @@
         <v>20</v>
       </c>
       <c r="N17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O17" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0.4</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -2774,10 +2797,10 @@
         <v>20</v>
       </c>
       <c r="N18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -2785,31 +2808,34 @@
       <c r="S18">
         <v>3</v>
       </c>
-      <c r="Y18" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB18">
+      <c r="X18">
+        <v>0.4</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -2830,42 +2856,45 @@
         <v>20</v>
       </c>
       <c r="N19" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0.4</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="O19" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -2886,27 +2915,30 @@
         <v>20</v>
       </c>
       <c r="N20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0.4</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB20" t="s">
         <v>114</v>
       </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>4</v>
       </c>
     </row>
@@ -2922,12 +2954,12 @@
   <sheetPr/>
   <dimension ref="A1:AS39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
+      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2945,631 +2977,631 @@
     <col min="14" max="14" width="13.25" customWidth="1"/>
     <col min="15" max="15" width="11.875" customWidth="1"/>
     <col min="16" max="16" width="14.75" customWidth="1"/>
-    <col min="17" max="17" width="7.125" customWidth="1"/>
-    <col min="18" max="18" width="7" customWidth="1"/>
-    <col min="19" max="19" width="8.5" customWidth="1"/>
-    <col min="20" max="22" width="8.25" customWidth="1"/>
-    <col min="23" max="26" width="8.375" customWidth="1"/>
-    <col min="27" max="27" width="4.5" customWidth="1"/>
-    <col min="28" max="28" width="8" customWidth="1"/>
-    <col min="29" max="29" width="7.375" style="2" customWidth="1"/>
-    <col min="30" max="31" width="8.5" style="2" customWidth="1"/>
-    <col min="32" max="32" width="7.875" style="2" customWidth="1"/>
-    <col min="34" max="34" width="13.5" customWidth="1"/>
-    <col min="35" max="35" width="10" customWidth="1"/>
-    <col min="36" max="36" width="9" style="3" customWidth="1"/>
-    <col min="38" max="38" width="16" customWidth="1"/>
-    <col min="44" max="44" width="9.5" style="4" customWidth="1"/>
+    <col min="17" max="17" width="7.625" customWidth="1"/>
+    <col min="18" max="18" width="7.125" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
+    <col min="20" max="20" width="8.5" customWidth="1"/>
+    <col min="21" max="23" width="8.25" customWidth="1"/>
+    <col min="24" max="27" width="8.375" customWidth="1"/>
+    <col min="28" max="28" width="4.5" customWidth="1"/>
+    <col min="29" max="29" width="8" customWidth="1"/>
+    <col min="30" max="30" width="7.375" style="2" customWidth="1"/>
+    <col min="31" max="32" width="8.5" style="2" customWidth="1"/>
+    <col min="33" max="33" width="7.875" style="2" customWidth="1"/>
+    <col min="35" max="35" width="13.5" customWidth="1"/>
+    <col min="36" max="36" width="10" customWidth="1"/>
+    <col min="37" max="37" width="9" style="3" customWidth="1"/>
+    <col min="39" max="39" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:45">
       <c r="C1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="U1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Y1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Z1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AA1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AB1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>144</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="AH1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AI1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK1" t="s">
         <v>150</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="AL1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AN1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AO1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AP1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AQ1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>159</v>
       </c>
       <c r="AS1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="R2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="T2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="U2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="V2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="W2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Y2" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="Z2" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="AA2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AB2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>185</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="AH2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AI2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK2" t="s">
         <v>191</v>
       </c>
+      <c r="AJ2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AL2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AM2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AN2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AO2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AP2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AQ2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>200</v>
       </c>
       <c r="AS2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:45">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q3" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="R3" t="s">
+        <v>207</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" t="s">
         <v>49</v>
-      </c>
-      <c r="S3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" t="s">
-        <v>47</v>
       </c>
       <c r="U3" t="s">
         <v>49</v>
       </c>
       <c r="V3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" t="s">
         <v>50</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AA3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AE3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AF3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AJ3" t="s">
         <v>48</v>
       </c>
-      <c r="AA3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>208</v>
+      <c r="AK3" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="AL3" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="AM3" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="AN3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO3" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="AP3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AQ3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>48</v>
       </c>
       <c r="AS3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P5" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>215</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
+        <v>216</v>
+      </c>
+      <c r="R5" t="s">
+        <v>217</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
-      <c r="AA5">
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
         <v>0</v>
       </c>
-      <c r="AH5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>217</v>
+      <c r="AI5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="AL5" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>215</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
+        <v>216</v>
+      </c>
+      <c r="R6" t="s">
+        <v>217</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
         <v>10</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD6" s="2">
         <v>0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AE6" s="2">
         <v>3</v>
       </c>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>223</v>
-      </c>
-      <c r="AN6">
+      <c r="AF6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO6">
         <v>60</v>
       </c>
       <c r="AS6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:45">
       <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P7" t="s">
+        <v>216</v>
+      </c>
+      <c r="R7" t="s">
+        <v>217</v>
+      </c>
+      <c r="S7">
+        <v>0.45</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>7</v>
+      </c>
+      <c r="V7">
+        <v>0.03</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>8</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="AI7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM7" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>215</v>
-      </c>
-      <c r="R7">
-        <v>0.45</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>7</v>
-      </c>
-      <c r="U7">
-        <v>0.03</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>5</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>5</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>218</v>
-      </c>
       <c r="AS7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3578,456 +3610,454 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P8" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>233</v>
-      </c>
-      <c r="R8">
+        <v>235</v>
+      </c>
+      <c r="R8" t="s">
+        <v>236</v>
+      </c>
+      <c r="S8">
         <v>1.6</v>
       </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
         <v>0</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>10</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AD8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AE8" s="2">
         <v>3</v>
       </c>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>234</v>
+      <c r="AF8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>217</v>
+        <v>237</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="AL8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="35:36">
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P10" t="s">
         <v>235</v>
       </c>
-      <c r="AS8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="34:35">
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>212</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>213</v>
-      </c>
-      <c r="P10" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>237</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
+      <c r="R10" t="s">
+        <v>240</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
-      <c r="AA10">
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
         <v>0</v>
       </c>
-      <c r="AH10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI10"/>
-      <c r="AJ10" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>217</v>
+      <c r="AI10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="AL10" t="s">
-        <v>238</v>
+        <v>219</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:45">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" t="s">
+        <v>235</v>
+      </c>
+      <c r="R11" t="s">
+        <v>240</v>
+      </c>
+      <c r="S11">
+        <v>1.2</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0.1</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0.3</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS11" t="s">
         <v>239</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>213</v>
-      </c>
-      <c r="P11" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>237</v>
-      </c>
-      <c r="R11">
-        <v>1.2</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>0.1</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0.3</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI11"/>
-      <c r="AJ11" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:45">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="AB13">
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
         <v>10</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AD13" s="2">
         <v>0</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AE13" s="2">
         <v>3</v>
       </c>
-      <c r="AE13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>223</v>
-      </c>
-      <c r="AN13">
+      <c r="AF13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO13">
         <v>100</v>
       </c>
       <c r="AS13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:45">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="AB14">
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
         <v>10</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AD14" s="2">
         <v>0</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AE14" s="2">
         <v>3</v>
       </c>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>243</v>
-      </c>
-      <c r="AN14">
+      <c r="AF14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO14">
         <v>0.5</v>
       </c>
       <c r="AS14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
-      <c r="AA17">
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
         <v>2</v>
       </c>
-      <c r="AG17">
-        <v>1</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>22</v>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:45">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P18" t="s">
+        <v>216</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" t="s">
         <v>214</v>
       </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>215</v>
+      </c>
+      <c r="P19" t="s">
+        <v>253</v>
+      </c>
+      <c r="R19" t="s">
+        <v>240</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
         <v>2</v>
       </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>237</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="AA19">
+      <c r="AI19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>215</v>
+      </c>
+      <c r="P20" t="s">
+        <v>253</v>
+      </c>
+      <c r="R20" t="s">
+        <v>240</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
         <v>2</v>
       </c>
-      <c r="AH19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B20" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>213</v>
-      </c>
-      <c r="P20" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>237</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="AA20">
+      <c r="AI20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>256</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>257</v>
+      </c>
+      <c r="P21" t="s">
+        <v>258</v>
+      </c>
+      <c r="R21" t="s">
+        <v>240</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
         <v>2</v>
       </c>
-      <c r="AH20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37">
-      <c r="A21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" t="s">
-        <v>253</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>254</v>
-      </c>
-      <c r="P21" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>237</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="AA21">
-        <v>2</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>217</v>
+      <c r="AI21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:45">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4036,183 +4066,183 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>237</v>
-      </c>
-      <c r="R22">
+        <v>260</v>
+      </c>
+      <c r="R22" t="s">
+        <v>240</v>
+      </c>
+      <c r="S22">
         <v>1.5</v>
       </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="W22">
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="X22">
         <v>2</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.8</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>2</v>
       </c>
-      <c r="AC22" s="2">
-        <v>1</v>
-      </c>
       <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2">
         <v>2</v>
       </c>
-      <c r="AE22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>217</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>258</v>
+      <c r="AF22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>219</v>
       </c>
       <c r="AP22" t="s">
-        <v>259</v>
+        <v>261</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>262</v>
       </c>
       <c r="AS22" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:45">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="R23">
+        <v>223</v>
+      </c>
+      <c r="S23">
         <v>10</v>
       </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="AB23">
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
         <v>0.5</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AD23" s="2">
         <v>7</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AE23" s="2">
         <v>10</v>
       </c>
-      <c r="AE23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>22</v>
+      <c r="AF23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>23</v>
       </c>
       <c r="AS23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>237</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
+        <v>215</v>
+      </c>
+      <c r="R25" t="s">
+        <v>240</v>
       </c>
       <c r="S25">
         <v>1</v>
       </c>
-      <c r="AA25">
-        <v>1</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37">
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P26" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>237</v>
-      </c>
-      <c r="R26">
+        <v>268</v>
+      </c>
+      <c r="R26" t="s">
+        <v>240</v>
+      </c>
+      <c r="S26">
         <v>0.8</v>
       </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
-        <v>1</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>266</v>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:45">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -4221,364 +4251,363 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P27" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>237</v>
-      </c>
-      <c r="R27">
+        <v>271</v>
+      </c>
+      <c r="R27" t="s">
+        <v>240</v>
+      </c>
+      <c r="S27">
         <v>1.6</v>
       </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
       <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
         <v>6</v>
       </c>
-      <c r="Z27" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA27">
+      <c r="AA27" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB27">
         <v>2</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>20</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AD27" s="2">
         <v>35</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AE27" s="2">
         <v>40</v>
       </c>
-      <c r="AE27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>270</v>
+      <c r="AF27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>273</v>
       </c>
       <c r="AS27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="AC28"/>
+      <c r="T28">
+        <v>1</v>
+      </c>
       <c r="AD28"/>
       <c r="AE28"/>
       <c r="AF28"/>
-      <c r="AG28" s="1"/>
+      <c r="AG28"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
-      <c r="AK28" s="1"/>
+      <c r="AJ28" s="1"/>
       <c r="AL28" s="1"/>
-      <c r="AM28" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN28" s="1">
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO28" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
-      <c r="AR28"/>
+      <c r="AR28" s="1"/>
     </row>
     <row r="30" spans="1:45">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>215</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
+        <v>216</v>
+      </c>
+      <c r="R30" t="s">
+        <v>217</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
-      <c r="AA30">
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
         <v>2</v>
       </c>
-      <c r="AH30" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>274</v>
-      </c>
-      <c r="AN30">
+      <c r="AI30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO30">
         <v>0.8</v>
       </c>
-      <c r="AO30" t="s">
-        <v>258</v>
-      </c>
       <c r="AP30" t="s">
-        <v>259</v>
+        <v>261</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>262</v>
       </c>
       <c r="AS30" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:45">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D32" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P32" t="s">
-        <v>276</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
         <v>100</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>0.2</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>10</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AD32" s="2">
         <v>40</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AE32" s="2">
         <v>50</v>
       </c>
-      <c r="AE32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>274</v>
-      </c>
-      <c r="AN32">
+      <c r="AF32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO32">
         <v>0.8</v>
       </c>
       <c r="AS32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P33" t="s">
-        <v>276</v>
-      </c>
-      <c r="R33">
+        <v>279</v>
+      </c>
+      <c r="S33">
         <v>0.05</v>
       </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
       <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
         <v>100</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.2</v>
       </c>
-      <c r="AG33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37">
+      <c r="AH33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G37" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>215</v>
-      </c>
-      <c r="R37">
+        <v>216</v>
+      </c>
+      <c r="R37" t="s">
+        <v>217</v>
+      </c>
+      <c r="S37">
         <v>2</v>
       </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
       <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
         <v>3</v>
-      </c>
-      <c r="AA37">
-        <v>0.2</v>
       </c>
       <c r="AB37">
         <v>0.2</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AC37">
+        <v>0.2</v>
+      </c>
+      <c r="AD37" s="2">
         <v>0</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AE37" s="2">
         <v>3</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AF37" s="2">
         <v>2</v>
       </c>
-      <c r="AF37" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37">
+      <c r="AG37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38">
       <c r="A38" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G38" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P38" t="s">
+        <v>216</v>
+      </c>
+      <c r="R38" t="s">
+        <v>217</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="AB38">
+        <v>2</v>
+      </c>
+      <c r="AC38">
+        <v>10</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
         <v>214</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>215</v>
-      </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
-      <c r="AA38">
-        <v>2</v>
-      </c>
-      <c r="AB38">
-        <v>10</v>
-      </c>
-      <c r="AC38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
-      <c r="A39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" t="s">
-        <v>212</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4587,22 +4616,25 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>237</v>
-      </c>
-      <c r="R39">
-        <v>1</v>
+        <v>283</v>
+      </c>
+      <c r="Q39">
+        <v>0.5</v>
+      </c>
+      <c r="R39" t="s">
+        <v>240</v>
       </c>
       <c r="S39">
         <v>1</v>
       </c>
-      <c r="AA39">
-        <v>2</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>22</v>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4628,105 +4660,105 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4748,12 +4780,12 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4780,41 +4812,41 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4822,13 +4854,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4856,44 +4888,44 @@
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4901,16 +4933,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4918,16 +4950,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4935,16 +4967,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4952,16 +4984,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4969,16 +5001,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4986,16 +5018,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5003,16 +5035,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5020,16 +5052,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5037,16 +5069,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5054,16 +5086,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5071,16 +5103,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27570" windowHeight="14310"/>
+    <workbookView windowWidth="27570" windowHeight="14310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="304">
   <si>
     <t>重量</t>
   </si>
@@ -868,9 +868,6 @@
   </si>
   <si>
     <t>阿米娅手动强力击</t>
-  </si>
-  <si>
-    <t>自身阻挡优先</t>
   </si>
   <si>
     <t>LastTime</t>
@@ -942,9 +939,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -968,29 +965,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1005,14 +979,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1020,11 +986,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1036,8 +1024,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,48 +1040,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,8 +1069,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,7 +1118,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,13 +1166,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,127 +1286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,24 +1302,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1315,11 +1312,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1350,17 +1362,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1384,7 +1390,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1403,15 +1409,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1420,10 +1417,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1432,133 +1429,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1928,7 +1925,7 @@
   <sheetPr/>
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2954,12 +2951,12 @@
   <sheetPr/>
   <dimension ref="A1:AS39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
+      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3946,7 +3943,7 @@
         <v>252</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -4607,7 +4604,7 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4616,10 +4613,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R39" t="s">
         <v>240</v>
@@ -4674,10 +4671,10 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" t="s">
         <v>284</v>
-      </c>
-      <c r="E2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4694,15 +4691,15 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4710,13 +4707,13 @@
         <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4724,13 +4721,13 @@
         <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4738,13 +4735,13 @@
         <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4752,13 +4749,13 @@
         <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4846,7 +4843,7 @@
         <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4860,7 +4857,7 @@
         <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4888,10 +4885,10 @@
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" t="s">
         <v>295</v>
-      </c>
-      <c r="E1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4899,16 +4896,16 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
         <v>297</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>298</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>299</v>
-      </c>
-      <c r="E2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4919,7 +4916,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -4933,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -4942,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4950,7 +4947,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -4959,7 +4956,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4967,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
@@ -4976,7 +4973,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4984,7 +4981,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -4993,7 +4990,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5001,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -5010,7 +5007,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5018,7 +5015,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
@@ -5027,7 +5024,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5035,7 +5032,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>
@@ -5044,7 +5041,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5052,7 +5049,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
@@ -5061,7 +5058,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5069,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -5078,7 +5075,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5086,7 +5083,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
         <v>58</v>
@@ -5095,7 +5092,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5103,7 +5100,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -5112,7 +5109,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27570" windowHeight="14310" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="306">
   <si>
     <t>重量</t>
   </si>
@@ -444,6 +444,9 @@
     <t>溅射伤害</t>
   </si>
   <si>
+    <t>推力</t>
+  </si>
+  <si>
     <t>关联技能</t>
   </si>
   <si>
@@ -568,6 +571,9 @@
   </si>
   <si>
     <t>AreaDamage</t>
+  </si>
+  <si>
+    <t>PushPower</t>
   </si>
   <si>
     <t>ExSkills</t>
@@ -938,8 +944,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -966,7 +972,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,6 +980,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,47 +1014,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1049,9 +1031,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,6 +1099,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1076,38 +1114,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1118,7 +1124,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,37 +1190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,13 +1208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,13 +1220,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,7 +1292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,85 +1304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,6 +1315,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1323,26 +1353,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,9 +1374,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,30 +1415,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1417,10 +1423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1429,133 +1435,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2949,14 +2955,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS39"/>
+  <dimension ref="A1:AT39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
+      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2979,19 +2985,19 @@
     <col min="19" max="19" width="7" customWidth="1"/>
     <col min="20" max="20" width="8.5" customWidth="1"/>
     <col min="21" max="23" width="8.25" customWidth="1"/>
-    <col min="24" max="27" width="8.375" customWidth="1"/>
-    <col min="28" max="28" width="4.5" customWidth="1"/>
-    <col min="29" max="29" width="8" customWidth="1"/>
-    <col min="30" max="30" width="7.375" style="2" customWidth="1"/>
-    <col min="31" max="32" width="8.5" style="2" customWidth="1"/>
-    <col min="33" max="33" width="7.875" style="2" customWidth="1"/>
-    <col min="35" max="35" width="13.5" customWidth="1"/>
-    <col min="36" max="36" width="10" customWidth="1"/>
-    <col min="37" max="37" width="9" style="3" customWidth="1"/>
-    <col min="39" max="39" width="16" customWidth="1"/>
+    <col min="24" max="28" width="8.375" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="8" customWidth="1"/>
+    <col min="31" max="31" width="7.375" style="2" customWidth="1"/>
+    <col min="32" max="33" width="8.5" style="2" customWidth="1"/>
+    <col min="34" max="34" width="7.875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="13.5" customWidth="1"/>
+    <col min="37" max="37" width="10" customWidth="1"/>
+    <col min="38" max="38" width="9" style="3" customWidth="1"/>
+    <col min="40" max="40" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:45">
+    <row r="1" spans="3:46">
       <c r="C1" t="s">
         <v>118</v>
       </c>
@@ -3073,7 +3079,7 @@
       <c r="AC1" t="s">
         <v>144</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" t="s">
         <v>145</v>
       </c>
       <c r="AE1" s="2" t="s">
@@ -3085,7 +3091,7 @@
       <c r="AG1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>149</v>
       </c>
       <c r="AI1" t="s">
@@ -3094,10 +3100,10 @@
       <c r="AJ1" t="s">
         <v>151</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" t="s">
         <v>152</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>153</v>
       </c>
       <c r="AM1" t="s">
@@ -3121,8 +3127,11 @@
       <c r="AS1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:45">
+      <c r="AT1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3130,136 +3139,139 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA2" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" t="s">
-        <v>183</v>
-      </c>
       <c r="AB2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AC2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD2" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="AD2" t="s">
+        <v>187</v>
+      </c>
       <c r="AE2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH2" t="s">
         <v>190</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="AI2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AJ2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AK2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AK2" t="s">
         <v>194</v>
       </c>
+      <c r="AL2" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="AM2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AQ2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AR2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AS2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
+        <v>202</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -3270,10 +3282,10 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
@@ -3300,19 +3312,19 @@
         <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q3" t="s">
         <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="S3" t="s">
         <v>51</v>
@@ -3336,19 +3348,19 @@
         <v>51</v>
       </c>
       <c r="Z3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA3" t="s">
         <v>50</v>
       </c>
       <c r="AB3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC3" t="s">
         <v>51</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>49</v>
+      <c r="AD3" t="s">
+        <v>51</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>49</v>
@@ -3357,34 +3369,34 @@
         <v>49</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI3" t="s">
         <v>52</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>48</v>
       </c>
       <c r="AJ3" t="s">
         <v>48</v>
       </c>
-      <c r="AK3" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>210</v>
+      <c r="AK3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="AM3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN3" t="s">
         <v>48</v>
       </c>
-      <c r="AN3" t="s">
-        <v>211</v>
-      </c>
       <c r="AO3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AP3" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="AQ3" t="s">
         <v>48</v>
@@ -3395,30 +3407,33 @@
       <c r="AS3" t="s">
         <v>48</v>
       </c>
+      <c r="AT3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -3426,94 +3441,94 @@
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>0</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>23</v>
       </c>
-      <c r="AK5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>219</v>
+      <c r="AL5" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="AM5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
+        <v>221</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
       <c r="A6" t="s">
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="N6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P6" t="s">
+        <v>218</v>
+      </c>
+      <c r="R6" t="s">
+        <v>219</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP6">
+        <v>60</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" t="s">
         <v>224</v>
       </c>
-      <c r="P6" t="s">
-        <v>216</v>
-      </c>
-      <c r="R6" t="s">
-        <v>217</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>10</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AN6" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO6">
-        <v>60</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
@@ -3524,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S7">
         <v>0.45</v>
@@ -3547,59 +3562,59 @@
       <c r="W7">
         <v>1</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>0</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>8</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>0</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>10</v>
       </c>
-      <c r="AF7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AG7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AI7" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="K8">
         <v>1</v>
       </c>
@@ -3607,13 +3622,13 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="S8">
         <v>1.6</v>
@@ -3621,65 +3636,65 @@
       <c r="T8">
         <v>1</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>0</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>10</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AE8" s="2">
         <v>0</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AF8" s="2">
         <v>3</v>
       </c>
-      <c r="AF8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>237</v>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>219</v>
+        <v>239</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="AM8" t="s">
-        <v>238</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="35:36">
-      <c r="AI9" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="36:37">
       <c r="AJ9" s="3"/>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
         <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -3687,46 +3702,46 @@
       <c r="T10">
         <v>1</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>23</v>
       </c>
-      <c r="AK10" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>219</v>
+      <c r="AL10" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="AM10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
+        <v>221</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
       <c r="A11" t="s">
         <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>217</v>
+      </c>
+      <c r="P11" t="s">
+        <v>237</v>
+      </c>
+      <c r="R11" t="s">
         <v>242</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>215</v>
-      </c>
-      <c r="P11" t="s">
-        <v>235</v>
-      </c>
-      <c r="R11" t="s">
-        <v>240</v>
       </c>
       <c r="S11">
         <v>1.2</v>
@@ -3740,52 +3755,52 @@
       <c r="V11">
         <v>0.1</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>0</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>0.3</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AE11" s="2">
         <v>0</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AF11" s="2">
         <v>3</v>
       </c>
-      <c r="AF11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AG11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN11" t="s">
         <v>243</v>
       </c>
-      <c r="AI11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK11" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="AT11" t="s">
         <v>241</v>
       </c>
-      <c r="AS11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
+    </row>
+    <row r="13" spans="1:46">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3793,43 +3808,43 @@
       <c r="T13">
         <v>1</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>10</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AE13" s="2">
         <v>0</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AF13" s="2">
         <v>3</v>
       </c>
-      <c r="AF13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO13">
+      <c r="AG13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP13">
         <v>100</v>
       </c>
-      <c r="AS13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
+      <c r="AT13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
       <c r="A14" t="s">
         <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -3837,224 +3852,224 @@
       <c r="T14">
         <v>1</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>10</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AE14" s="2">
         <v>0</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AF14" s="2">
         <v>3</v>
       </c>
-      <c r="AF14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO14">
+      <c r="AG14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP14">
         <v>0.5</v>
       </c>
-      <c r="AS14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AT14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" t="s">
+        <v>218</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46">
+      <c r="A18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" t="s">
         <v>216</v>
       </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>2</v>
-      </c>
-      <c r="AH17">
-        <v>1</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
-      <c r="A18" t="s">
-        <v>249</v>
-      </c>
-      <c r="B18" t="s">
-        <v>214</v>
-      </c>
       <c r="C18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P18" t="s">
+        <v>218</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>2</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>217</v>
+      </c>
+      <c r="P19" t="s">
+        <v>255</v>
+      </c>
+      <c r="R19" t="s">
+        <v>242</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" t="s">
         <v>216</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="AB18">
+      <c r="E20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>217</v>
+      </c>
+      <c r="P20" t="s">
+        <v>255</v>
+      </c>
+      <c r="R20" t="s">
+        <v>242</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
         <v>2</v>
       </c>
-      <c r="AH18">
-        <v>1</v>
-      </c>
-      <c r="AI18" t="s">
+      <c r="AJ20" t="s">
         <v>23</v>
       </c>
-      <c r="AS18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
-      <c r="A19" t="s">
-        <v>252</v>
-      </c>
-      <c r="B19" t="s">
-        <v>252</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" t="s">
-        <v>253</v>
-      </c>
-      <c r="R19" t="s">
-        <v>240</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="AB19">
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>258</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>259</v>
+      </c>
+      <c r="P21" t="s">
+        <v>260</v>
+      </c>
+      <c r="R21" t="s">
+        <v>242</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
         <v>2</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:35">
-      <c r="A20" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>215</v>
-      </c>
-      <c r="P20" t="s">
-        <v>253</v>
-      </c>
-      <c r="R20" t="s">
-        <v>240</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="AB20">
-        <v>2</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38">
-      <c r="A21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" t="s">
-        <v>256</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>257</v>
-      </c>
-      <c r="P21" t="s">
-        <v>258</v>
-      </c>
-      <c r="R21" t="s">
-        <v>240</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <v>2</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45">
+      <c r="AM21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46">
       <c r="A22" t="s">
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4063,13 +4078,13 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S22">
         <v>1.5</v>
@@ -4083,49 +4098,49 @@
       <c r="Y22">
         <v>0.8</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>2</v>
       </c>
-      <c r="AD22" s="2">
-        <v>1</v>
-      </c>
       <c r="AE22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="2">
         <v>2</v>
       </c>
-      <c r="AF22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI22" t="s">
+      <c r="AG22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>23</v>
       </c>
-      <c r="AL22" t="s">
-        <v>219</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>261</v>
+      <c r="AM22" t="s">
+        <v>221</v>
       </c>
       <c r="AQ22" t="s">
-        <v>262</v>
-      </c>
-      <c r="AS22" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="23" spans="1:45">
+      <c r="AR22" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46">
       <c r="A23" t="s">
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S23">
         <v>10</v>
@@ -4133,46 +4148,46 @@
       <c r="T23">
         <v>1</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.5</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AE23" s="2">
         <v>7</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AF23" s="2">
         <v>10</v>
       </c>
-      <c r="AF23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="AG23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>23</v>
       </c>
-      <c r="AS23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35">
+      <c r="AT23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R25" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -4180,34 +4195,34 @@
       <c r="T25">
         <v>1</v>
       </c>
-      <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AI25" t="s">
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P26" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S26">
         <v>0.8</v>
@@ -4215,31 +4230,31 @@
       <c r="T26">
         <v>1</v>
       </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AI26" t="s">
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>23</v>
       </c>
-      <c r="AL26" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45">
+      <c r="AM26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46">
       <c r="A27" t="s">
         <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C27" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -4248,13 +4263,13 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P27" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="R27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S27">
         <v>1.6</v>
@@ -4265,49 +4280,49 @@
       <c r="U27">
         <v>6</v>
       </c>
-      <c r="AA27" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB27">
+      <c r="AB27" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC27">
         <v>2</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>20</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AE27" s="2">
         <v>35</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AF27" s="2">
         <v>40</v>
       </c>
-      <c r="AF27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI27" t="s">
+      <c r="AG27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>23</v>
       </c>
-      <c r="AQ27" t="s">
-        <v>273</v>
-      </c>
-      <c r="AS27" t="s">
+      <c r="AR27" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:45">
       <c r="A28" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -4315,46 +4330,46 @@
       <c r="T28">
         <v>1</v>
       </c>
-      <c r="AD28"/>
       <c r="AE28"/>
       <c r="AF28"/>
       <c r="AG28"/>
-      <c r="AH28" s="1"/>
+      <c r="AH28"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
-      <c r="AL28" s="1"/>
+      <c r="AK28" s="1"/>
       <c r="AM28" s="1"/>
-      <c r="AN28" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AO28" s="1">
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP28" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
-    </row>
-    <row r="30" spans="1:45">
+      <c r="AS28" s="1"/>
+    </row>
+    <row r="30" spans="1:46">
       <c r="A30" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -4362,55 +4377,55 @@
       <c r="T30">
         <v>1</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>2</v>
       </c>
-      <c r="AI30" t="s">
+      <c r="AJ30" t="s">
         <v>23</v>
       </c>
-      <c r="AL30" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>277</v>
-      </c>
-      <c r="AO30">
+      <c r="AM30" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP30">
         <v>0.8</v>
       </c>
-      <c r="AP30" t="s">
-        <v>261</v>
-      </c>
       <c r="AQ30" t="s">
-        <v>262</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45">
+        <v>263</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46">
       <c r="A32" t="s">
         <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P32" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -4418,52 +4433,52 @@
       <c r="U32">
         <v>100</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.2</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>10</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AE32" s="2">
         <v>40</v>
       </c>
-      <c r="AE32" s="2">
+      <c r="AF32" s="2">
         <v>50</v>
       </c>
-      <c r="AF32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>277</v>
-      </c>
-      <c r="AO32">
+      <c r="AG32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP32">
         <v>0.8</v>
       </c>
-      <c r="AS32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
+      <c r="AT32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
       <c r="A33" t="s">
         <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S33">
         <v>0.05</v>
@@ -4474,37 +4489,37 @@
       <c r="U33">
         <v>100</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.2</v>
       </c>
-      <c r="AH33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:38">
+      <c r="AI33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G37" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S37">
         <v>2</v>
@@ -4515,55 +4530,55 @@
       <c r="U37">
         <v>3</v>
       </c>
-      <c r="AB37">
-        <v>0.2</v>
-      </c>
       <c r="AC37">
         <v>0.2</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37">
+        <v>0.2</v>
+      </c>
+      <c r="AE37" s="2">
         <v>0</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AF37" s="2">
         <v>3</v>
       </c>
-      <c r="AF37" s="2">
+      <c r="AG37" s="2">
         <v>2</v>
       </c>
-      <c r="AG37" s="2" t="s">
+      <c r="AH37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" t="s">
+        <v>284</v>
+      </c>
+      <c r="B38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AI37" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:38">
-      <c r="A38" t="s">
-        <v>282</v>
-      </c>
-      <c r="B38" t="s">
-        <v>214</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="G38" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R38" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S38">
         <v>2</v>
@@ -4574,37 +4589,37 @@
       <c r="U38">
         <v>3</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>2</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>10</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>0</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>3</v>
       </c>
-      <c r="AF38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI38" t="s">
+      <c r="AG38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>23</v>
       </c>
-      <c r="AL38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35">
+      <c r="AM38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36">
       <c r="A39" t="s">
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4613,13 +4628,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -4627,10 +4642,10 @@
       <c r="T39">
         <v>1</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>0</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AJ39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4671,10 +4686,10 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4691,71 +4706,71 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4837,13 +4852,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4851,13 +4866,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4885,10 +4900,10 @@
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4896,16 +4911,16 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4916,7 +4931,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -4930,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -4939,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4947,7 +4962,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -4956,7 +4971,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4964,7 +4979,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
@@ -4973,7 +4988,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4981,7 +4996,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -4990,7 +5005,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4998,7 +5013,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -5007,7 +5022,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5015,7 +5030,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
@@ -5024,7 +5039,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5032,7 +5047,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>
@@ -5041,7 +5056,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5049,7 +5064,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
@@ -5058,7 +5073,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5066,7 +5081,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -5075,7 +5090,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5083,7 +5098,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
         <v>58</v>
@@ -5092,7 +5107,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5100,7 +5115,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -5109,7 +5124,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="27570" windowHeight="14310"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="309">
   <si>
     <t>重量</t>
   </si>
@@ -345,6 +345,12 @@
     <t>星熊</t>
   </si>
   <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>战术咏唱·γ型,推人</t>
+  </si>
+  <si>
     <t>重装</t>
   </si>
   <si>
@@ -783,9 +789,6 @@
     <t>冲锋号令</t>
   </si>
   <si>
-    <t>近战</t>
-  </si>
-  <si>
     <t>0,0#1,0</t>
   </si>
   <si>
@@ -874,6 +877,12 @@
   </si>
   <si>
     <t>阿米娅手动强力击</t>
+  </si>
+  <si>
+    <t>推人</t>
+  </si>
+  <si>
+    <t>推</t>
   </si>
   <si>
     <t>LastTime</t>
@@ -944,9 +953,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -972,14 +981,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,21 +994,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1014,57 +1001,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1084,16 +1024,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1107,9 +1040,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,30 +1130,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1166,7 +1151,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,67 +1235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,6 +1253,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1268,7 +1277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,31 +1301,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,30 +1324,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1353,6 +1338,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1374,6 +1368,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1383,20 +1386,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1415,6 +1415,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1423,10 +1432,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1435,133 +1444,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1931,12 +1940,12 @@
   <sheetPr/>
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2213,7 +2222,7 @@
         <v>0.5</v>
       </c>
       <c r="X4">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -2248,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -2283,7 +2292,7 @@
         <v>0.3</v>
       </c>
       <c r="X6">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2340,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="X10">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z10" t="s">
         <v>69</v>
@@ -2399,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="X11">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z11" t="s">
         <v>75</v>
@@ -2458,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="X12">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z12" t="s">
         <v>81</v>
@@ -2517,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="X13">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z13" t="s">
         <v>69</v>
@@ -2576,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="X14">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z14" t="s">
         <v>81</v>
@@ -2635,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="X15">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z15" t="s">
         <v>81</v>
@@ -2694,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="X16">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z16" t="s">
         <v>100</v>
@@ -2753,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="X17">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z17" t="s">
         <v>100</v>
@@ -2800,10 +2809,10 @@
         <v>20</v>
       </c>
       <c r="N18" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -2812,13 +2821,13 @@
         <v>3</v>
       </c>
       <c r="X18">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AB18" t="s">
         <v>78</v>
@@ -2829,16 +2838,16 @@
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -2871,16 +2880,16 @@
         <v>1</v>
       </c>
       <c r="X19">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z19" t="s">
         <v>69</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AC19">
         <v>6</v>
@@ -2888,16 +2897,16 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -2918,10 +2927,10 @@
         <v>20</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -2930,16 +2939,16 @@
         <v>1</v>
       </c>
       <c r="X20">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z20" t="s">
         <v>75</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AB20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AC20">
         <v>4</v>
@@ -2955,14 +2964,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT39"/>
+  <dimension ref="A1:AT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomRight" activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2999,136 +3008,136 @@
   <sheetData>
     <row r="1" spans="3:46">
       <c r="C1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="U1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="V1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="X1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Y1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Z1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AA1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AC1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AD1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AI1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AJ1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AK1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AM1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AN1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AO1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AP1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AQ1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AS1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AT1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:46">
@@ -3139,136 +3148,136 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="T2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="U2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="V2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Y2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA2" t="s">
         <v>31</v>
       </c>
       <c r="AB2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AC2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AD2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AI2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AJ2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AK2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AM2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AN2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AQ2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AR2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AS2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AT2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -3282,10 +3291,10 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
@@ -3312,19 +3321,19 @@
         <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q3" t="s">
         <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S3" t="s">
         <v>51</v>
@@ -3372,7 +3381,7 @@
         <v>49</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AI3" t="s">
         <v>52</v>
@@ -3384,19 +3393,19 @@
         <v>48</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AN3" t="s">
         <v>48</v>
       </c>
       <c r="AO3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AP3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AQ3" t="s">
         <v>48</v>
@@ -3413,7 +3422,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -3421,19 +3430,19 @@
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -3448,13 +3457,13 @@
         <v>23</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -3462,28 +3471,28 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -3501,33 +3510,33 @@
         <v>1</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AO6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AP6">
         <v>60</v>
       </c>
       <c r="AT6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:46">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -3539,13 +3548,13 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S7">
         <v>0.45</v>
@@ -3578,42 +3587,42 @@
         <v>1</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AT7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:46">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3622,13 +3631,13 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="S8">
         <v>1.6</v>
@@ -3652,25 +3661,25 @@
         <v>1</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AT8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="36:37">
@@ -3682,19 +3691,19 @@
         <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -3709,13 +3718,13 @@
         <v>23</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -3723,25 +3732,25 @@
         <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" t="s">
+        <v>239</v>
+      </c>
+      <c r="R11" t="s">
         <v>244</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>217</v>
-      </c>
-      <c r="P11" t="s">
-        <v>237</v>
-      </c>
-      <c r="R11" t="s">
-        <v>242</v>
       </c>
       <c r="S11">
         <v>1.2</v>
@@ -3771,36 +3780,36 @@
         <v>1</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AJ11" t="s">
         <v>23</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT11" t="s">
         <v>243</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:46">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3821,16 +3830,16 @@
         <v>1</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AO13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AP13">
         <v>100</v>
       </c>
       <c r="AT13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -3838,13 +3847,13 @@
         <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -3865,36 +3874,36 @@
         <v>1</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AO14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AP14">
         <v>0.5</v>
       </c>
       <c r="AT14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:36">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -3914,25 +3923,25 @@
     </row>
     <row r="18" spans="1:46">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -3950,15 +3959,15 @@
         <v>23</v>
       </c>
       <c r="AT18" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:36">
       <c r="A19" t="s">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -3967,13 +3976,13 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -3990,25 +3999,25 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>219</v>
+      </c>
+      <c r="P20" t="s">
         <v>256</v>
       </c>
-      <c r="B20" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>217</v>
-      </c>
-      <c r="P20" t="s">
-        <v>255</v>
-      </c>
       <c r="R20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -4025,25 +4034,25 @@
     </row>
     <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -4058,7 +4067,7 @@
         <v>23</v>
       </c>
       <c r="AM21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -4066,10 +4075,10 @@
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4078,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S22">
         <v>1.5</v>
@@ -4111,22 +4120,22 @@
         <v>1</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AJ22" t="s">
         <v>23</v>
       </c>
       <c r="AM22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AQ22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AR22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AT22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:46">
@@ -4134,13 +4143,13 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S23">
         <v>10</v>
@@ -4161,33 +4170,33 @@
         <v>1</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AJ23" t="s">
         <v>23</v>
       </c>
       <c r="AT23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:36">
       <c r="A25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="R25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -4204,25 +4213,25 @@
     </row>
     <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S26">
         <v>0.8</v>
@@ -4237,7 +4246,7 @@
         <v>23</v>
       </c>
       <c r="AM26" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:46">
@@ -4245,16 +4254,16 @@
         <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -4263,13 +4272,13 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S27">
         <v>1.6</v>
@@ -4281,7 +4290,7 @@
         <v>6</v>
       </c>
       <c r="AB27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC27">
         <v>2</v>
@@ -4299,13 +4308,13 @@
         <v>1</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AJ27" t="s">
         <v>23</v>
       </c>
       <c r="AR27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AT27" t="s">
         <v>80</v>
@@ -4313,16 +4322,16 @@
     </row>
     <row r="28" spans="1:45">
       <c r="A28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -4340,7 +4349,7 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP28" s="1">
         <v>-0.7</v>
@@ -4351,25 +4360,25 @@
     </row>
     <row r="30" spans="1:46">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -4384,48 +4393,48 @@
         <v>23</v>
       </c>
       <c r="AM30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AP30">
         <v>0.8</v>
       </c>
       <c r="AQ30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AR30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AT30" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:46">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P32" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -4449,36 +4458,36 @@
         <v>1</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AO32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AP32">
         <v>0.8</v>
       </c>
       <c r="AT32" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P33" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S33">
         <v>0.05</v>
@@ -4498,28 +4507,28 @@
     </row>
     <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R37" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S37">
         <v>2</v>
@@ -4546,39 +4555,39 @@
         <v>2</v>
       </c>
       <c r="AH37" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AJ37" t="s">
         <v>23</v>
       </c>
       <c r="AM37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:39">
       <c r="A38" t="s">
+        <v>285</v>
+      </c>
+      <c r="B38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" t="s">
         <v>284</v>
       </c>
-      <c r="B38" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G38" t="s">
-        <v>283</v>
-      </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S38">
         <v>2</v>
@@ -4605,13 +4614,13 @@
         <v>1</v>
       </c>
       <c r="AH38" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AJ38" t="s">
         <v>23</v>
       </c>
       <c r="AM38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4619,7 +4628,7 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4628,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -4647,6 +4656,65 @@
       </c>
       <c r="AJ39" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46">
+      <c r="A41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B41" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>219</v>
+      </c>
+      <c r="P41" t="s">
+        <v>256</v>
+      </c>
+      <c r="R41" t="s">
+        <v>244</v>
+      </c>
+      <c r="S41">
+        <v>1.5</v>
+      </c>
+      <c r="T41">
+        <v>99</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0.3</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4686,10 +4754,10 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4706,71 +4774,71 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4852,13 +4920,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4866,13 +4934,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4900,10 +4968,10 @@
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4911,16 +4979,16 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4931,7 +4999,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -4945,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -4954,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4962,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -4971,7 +5039,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4979,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
@@ -4988,7 +5056,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4996,7 +5064,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -5005,7 +5073,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5013,7 +5081,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -5022,7 +5090,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5030,7 +5098,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
@@ -5039,7 +5107,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5047,7 +5115,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>
@@ -5056,7 +5124,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5064,7 +5132,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
@@ -5073,7 +5141,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5081,7 +5149,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -5090,7 +5158,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5098,7 +5166,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
         <v>58</v>
@@ -5107,7 +5175,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5115,7 +5183,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -5124,7 +5192,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battle.xlsx
+++ b/Excel/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27570" windowHeight="14310"/>
+    <workbookView windowWidth="20340" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="310">
   <si>
     <t>重量</t>
   </si>
@@ -883,6 +883,9 @@
   </si>
   <si>
     <t>推</t>
+  </si>
+  <si>
+    <t>把面前的敌人推开</t>
   </si>
   <si>
     <t>LastTime</t>
@@ -953,9 +956,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -980,8 +983,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,22 +1029,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,37 +1065,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1063,32 +1073,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,8 +1090,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,7 +1121,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,13 +1136,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,103 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,7 +1172,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,19 +1244,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor the